--- a/Preprocessed Data/combined/test_c.xlsx
+++ b/Preprocessed Data/combined/test_c.xlsx
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1081081081081081</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D2">
-        <v>0.1774816755005546</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.3074899527645313</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F2">
-        <v>-0.516981652022954</v>
+        <v>-0.4041768487616828</v>
       </c>
       <c r="G2">
-        <v>-0.1637624144271211</v>
+        <v>-0.2036657856591278</v>
       </c>
       <c r="H2">
-        <v>-0.2143750037388555</v>
+        <v>-0.1709401709401709</v>
       </c>
       <c r="I2">
-        <v>-0.4082170992248725</v>
+        <v>-0.32</v>
       </c>
       <c r="J2">
-        <v>1.275086008959789</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>-0.01198445257594217</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="S2">
-        <v>0.1016428330555885</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="U2">
         <v>6</v>
@@ -1212,73 +1212,73 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>-0.2642962524642911</v>
+        <v>-0.230110499370671</v>
       </c>
       <c r="BO2">
-        <v>-0.3605304770369002</v>
+        <v>-0.2984274318443782</v>
       </c>
       <c r="BP2">
-        <v>-0.4503015365701248</v>
+        <v>-0.4022352038259789</v>
       </c>
       <c r="BQ2">
-        <v>0.4999470064878282</v>
+        <v>0.5951940850277269</v>
       </c>
       <c r="BR2">
-        <v>0.6993393225384162</v>
+        <v>0.7937219730941708</v>
       </c>
       <c r="BS2">
-        <v>0.4256227509576948</v>
+        <v>0.5277777777777777</v>
       </c>
       <c r="BT2">
-        <v>-0.5658001210323548</v>
+        <v>-0.5298688809432507</v>
       </c>
       <c r="BU2">
-        <v>0.7620669298079168</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="BV2">
-        <v>-0.8226662915998989</v>
+        <v>-1.069075451647184</v>
       </c>
       <c r="BW2">
-        <v>0.3101765576441992</v>
+        <v>0.2252252252252266</v>
       </c>
       <c r="BX2">
-        <v>-0.3726739978702784</v>
+        <v>-0.4009779951100245</v>
       </c>
       <c r="BY2">
-        <v>0.5847011042906081</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="BZ2">
-        <v>-0.05949678462652139</v>
+        <v>-0.07049608355091389</v>
       </c>
       <c r="CA2">
-        <v>-0.4470547504824334</v>
+        <v>-0.3307810107197551</v>
       </c>
       <c r="CB2">
-        <v>0.4999397782889624</v>
+        <v>0.4945454545454547</v>
       </c>
       <c r="CC2">
-        <v>0.8465805093347544</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD2">
-        <v>0.7968302449568911</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="CE2">
-        <v>1.031491922751744</v>
+        <v>0.9855318722394971</v>
       </c>
       <c r="CF2">
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>-0.1623995378324076</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="CH2">
-        <v>0.01199416037509952</v>
+        <v>-0.008476558617119571</v>
       </c>
       <c r="CI2">
-        <v>1.648771173951786</v>
+        <v>1.48936170212766</v>
       </c>
       <c r="CJ2">
-        <v>0.839016830422738</v>
+        <v>0.8736591422055402</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="CM2">
-        <v>0.3298181598370489</v>
+        <v>0.34790446146913</v>
       </c>
       <c r="CN2">
-        <v>0.3857007189166798</v>
+        <v>0.4939195509822266</v>
       </c>
       <c r="CO2">
-        <v>-0.4929294436316125</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP2">
-        <v>-0.05309659326330129</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ2">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="CV2">
-        <v>-0.4260427921455566</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW2">
-        <v>0.3993104819968391</v>
+        <v>0.32</v>
       </c>
       <c r="CX2">
-        <v>-0.127379509245836</v>
+        <v>-0.0132950328400125</v>
       </c>
       <c r="CY2">
-        <v>-0.1309083129053542</v>
+        <v>-0.0916304211344546</v>
       </c>
       <c r="CZ2">
-        <v>0.09041070131031659</v>
+        <v>0.1068733452663182</v>
       </c>
       <c r="DA2">
-        <v>-0.4460357233799377</v>
+        <v>-0.4549180327868853</v>
       </c>
       <c r="DB2">
-        <v>-1.377900612687297</v>
+        <v>-1.273732030350838</v>
       </c>
       <c r="DC2">
         <v>0</v>
@@ -1346,25 +1346,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.7567567567567568</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D3">
-        <v>0.7099267020022185</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>-0.3074899527645313</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F3">
-        <v>-0.8309964759203996</v>
+        <v>-0.6733742529797119</v>
       </c>
       <c r="G3">
-        <v>-0.03154914934774091</v>
+        <v>-0.07684881767132548</v>
       </c>
       <c r="H3">
-        <v>1.107053567689716</v>
+        <v>1.094017094017094</v>
       </c>
       <c r="I3">
-        <v>1.003756552796951</v>
+        <v>1.12</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>-0.2552214691415118</v>
+        <v>-0.1159420289855072</v>
       </c>
       <c r="S3">
-        <v>-0.2066290708076014</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T3">
-        <v>1.127985688915154</v>
+        <v>1.106382978723404</v>
       </c>
       <c r="U3">
         <v>9</v>
@@ -1535,94 +1535,94 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>-0.2907087602132802</v>
+        <v>-0.2498783811958024</v>
       </c>
       <c r="BO3">
-        <v>-0.3616846916515657</v>
+        <v>-0.2994429747282153</v>
       </c>
       <c r="BP3">
-        <v>-0.4721563638562815</v>
+        <v>-0.4227858859944564</v>
       </c>
       <c r="BQ3">
-        <v>-0.5238625173216958</v>
+        <v>-0.3585951940850273</v>
       </c>
       <c r="BR3">
-        <v>-0.5901343616721106</v>
+        <v>-0.5246636771300449</v>
       </c>
       <c r="BS3">
-        <v>1.078971101638583</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="BT3">
-        <v>-0.6723603075997259</v>
+        <v>-0.6533256710667075</v>
       </c>
       <c r="BU3">
-        <v>-1.850733972390655</v>
+        <v>-1.891891891891892</v>
       </c>
       <c r="BV3">
-        <v>-0.728492765482432</v>
+        <v>-0.928799149840595</v>
       </c>
       <c r="BW3">
-        <v>-1.894674756502018</v>
+        <v>-1.792792792792793</v>
       </c>
       <c r="BX3">
-        <v>0.7453479957405568</v>
+        <v>0.6259168704156477</v>
       </c>
       <c r="BY3">
-        <v>-0.4715331486214581</v>
+        <v>-0.5087719298245614</v>
       </c>
       <c r="BZ3">
-        <v>-0.5056910103483061</v>
+        <v>-0.5143603133159268</v>
       </c>
       <c r="CA3">
-        <v>-0.4593703083469633</v>
+        <v>-0.3409903011740685</v>
       </c>
       <c r="CB3">
-        <v>-0.5293480005412541</v>
+        <v>-0.5236363636363637</v>
       </c>
       <c r="CC3">
-        <v>1.693161018669509</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="CD3">
-        <v>0.8444492925759387</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="CE3">
-        <v>0.9678651595683174</v>
+        <v>0.9206308544312694</v>
       </c>
       <c r="CF3">
-        <v>0.7947566756344204</v>
+        <v>0.6956521739130431</v>
       </c>
       <c r="CG3">
-        <v>1.282044906612037</v>
+        <v>1.295774647887324</v>
       </c>
       <c r="CH3">
-        <v>1.569451951293037</v>
+        <v>1.901386400133555</v>
       </c>
       <c r="CI3">
-        <v>-0.6299478205117176</v>
+        <v>-0.6382978723404256</v>
       </c>
       <c r="CJ3">
-        <v>-1.548504296838615</v>
+        <v>-1.328582334259987</v>
       </c>
       <c r="CK3">
-        <v>-3.000000000000004</v>
+        <v>-1.000000000000001</v>
       </c>
       <c r="CL3">
         <v>1</v>
       </c>
       <c r="CM3">
-        <v>-0.1637558695694446</v>
+        <v>-0.03785488958990578</v>
       </c>
       <c r="CN3">
-        <v>-0.1421199455982025</v>
+        <v>0.02245088868101008</v>
       </c>
       <c r="CO3">
-        <v>-0.2464647218158057</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP3">
-        <v>1.613570073403364</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="CQ3">
-        <v>-2.42190137448874</v>
+        <v>-2.499999999999998</v>
       </c>
       <c r="CR3">
         <v>1</v>
@@ -1637,25 +1637,25 @@
         <v>2</v>
       </c>
       <c r="CV3">
-        <v>1.76503442460302</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="CW3">
-        <v>-2.180849555521198</v>
+        <v>-1.92</v>
       </c>
       <c r="CX3">
-        <v>0.2452389382186131</v>
+        <v>0.3803267716394838</v>
       </c>
       <c r="CY3">
-        <v>2.974177608085467</v>
+        <v>2.474538340266613</v>
       </c>
       <c r="CZ3">
-        <v>0.9920760386997955</v>
+        <v>0.9798521539446173</v>
       </c>
       <c r="DA3">
-        <v>-0.2298075616310111</v>
+        <v>-0.1841917582856452</v>
       </c>
       <c r="DB3">
-        <v>0.341098004242857</v>
+        <v>0.3176017976696639</v>
       </c>
       <c r="DC3">
         <v>0</v>
@@ -1669,28 +1669,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.8874083775027712</v>
+        <v>-0.9999999999999981</v>
       </c>
       <c r="E4">
-        <v>-0.4251370115880608</v>
+        <v>-0.5070422535211268</v>
       </c>
       <c r="F4">
-        <v>0.08345236370214666</v>
+        <v>0.1105608837798643</v>
       </c>
       <c r="G4">
-        <v>-0.5280582448360336</v>
+        <v>-0.5530928468191357</v>
       </c>
       <c r="H4">
-        <v>-1.464375003738855</v>
+        <v>-1.367521367521368</v>
       </c>
       <c r="I4">
-        <v>-1.349532867239421</v>
+        <v>-1.28</v>
       </c>
       <c r="J4">
-        <v>0.8114183693380473</v>
+        <v>0.6883383540807024</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1714,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1.474463981991428</v>
+        <v>1.739130434782609</v>
       </c>
       <c r="S4">
-        <v>1.762885870540556</v>
+        <v>2.523809523809524</v>
       </c>
       <c r="T4">
-        <v>1.315983303734347</v>
+        <v>1.276595744680851</v>
       </c>
       <c r="U4">
         <v>9</v>
@@ -1858,73 +1858,73 @@
         <v>1</v>
       </c>
       <c r="BN4">
-        <v>1.925465718100341</v>
+        <v>1.408770453194135</v>
       </c>
       <c r="BO4">
-        <v>-0.03012500144276827</v>
+        <v>-0.007718125917162167</v>
       </c>
       <c r="BP4">
-        <v>-0.2387953747229872</v>
+        <v>-0.2033502686177129</v>
       </c>
       <c r="BQ4">
-        <v>-0.1667196601788384</v>
+        <v>-0.02587800369685712</v>
       </c>
       <c r="BR4">
-        <v>-0.449783484479128</v>
+        <v>-0.3811659192825111</v>
       </c>
       <c r="BS4">
-        <v>-0.568603000078439</v>
+        <v>-0.4444444444444445</v>
       </c>
       <c r="BT4">
-        <v>1.362939255837062</v>
+        <v>1.704699020291317</v>
       </c>
       <c r="BU4">
-        <v>-0.2177334085165477</v>
+        <v>-0.2702702702702703</v>
       </c>
       <c r="BV4">
-        <v>0.4900555876132761</v>
+        <v>0.8862911795961746</v>
       </c>
       <c r="BW4">
-        <v>-0.615073547399303</v>
+        <v>-0.6216216216216212</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>-0.05867970660146712</v>
       </c>
       <c r="BY4">
-        <v>0.2829198891728749</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="BZ4">
-        <v>-0.1224889106107733</v>
+        <v>-0.1331592689295039</v>
       </c>
       <c r="CA4">
-        <v>0.1391658038691873</v>
+        <v>0.155181214905564</v>
       </c>
       <c r="CB4">
-        <v>-0.4558274449105244</v>
+        <v>-0.4509090909090909</v>
       </c>
       <c r="CC4">
-        <v>-1.269870764002133</v>
+        <v>-1.125000000000002</v>
       </c>
       <c r="CD4">
-        <v>-1.012693564566918</v>
+        <v>-1.095238095238095</v>
       </c>
       <c r="CE4">
-        <v>-0.7553390155964067</v>
+        <v>-0.8370839697091126</v>
       </c>
       <c r="CF4">
-        <v>-0.7947566756344204</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="CG4">
-        <v>-0.9401773156101854</v>
+        <v>-0.9577464788732394</v>
       </c>
       <c r="CH4">
-        <v>-0.7490642174775402</v>
+        <v>-0.9417392215178932</v>
       </c>
       <c r="CI4">
-        <v>-0.5387990607331775</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ4">
-        <v>0.60704454868394</v>
+        <v>0.6596886879120037</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>1</v>
       </c>
       <c r="CM4">
-        <v>-1.116307617910013</v>
+        <v>-0.7823343848580443</v>
       </c>
       <c r="CN4">
-        <v>-0.7579107208655643</v>
+        <v>-0.5275958840037417</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.2802367400700321</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
         <v>0</v>
@@ -1960,25 +1960,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CV4">
-        <v>-0.4260427921455566</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW4">
-        <v>0.5221752456881742</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="CX4">
-        <v>0.1826168992742637</v>
+        <v>0.3141749207657778</v>
       </c>
       <c r="CY4">
-        <v>0.6368250338064561</v>
+        <v>0.5428555098664759</v>
       </c>
       <c r="CZ4">
-        <v>1.752689216111354</v>
+        <v>1.716266384311044</v>
       </c>
       <c r="DA4">
-        <v>0.486375733052993</v>
+        <v>0.7124982642423141</v>
       </c>
       <c r="DB4">
-        <v>0.3906885604373052</v>
+        <v>0.363509414374735</v>
       </c>
       <c r="DC4">
         <v>1</v>
@@ -1992,28 +1992,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.8648648648648649</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D5">
-        <v>0.8874083775027732</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5">
-        <v>-1.072195835117473</v>
+        <v>-1.126760563380282</v>
       </c>
       <c r="F5">
-        <v>-1.631724149373146</v>
+        <v>-1.359818951684188</v>
       </c>
       <c r="G5">
-        <v>-0.6516315799611868</v>
+        <v>-0.6716225244222388</v>
       </c>
       <c r="H5">
-        <v>-0.5000892894531412</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="I5">
-        <v>-1.035760944567905</v>
+        <v>-0.96</v>
       </c>
       <c r="J5">
-        <v>0.5795845495271766</v>
+        <v>0.4916702529147874</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2037,13 +2037,13 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0.3934105750333406</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="S5">
-        <v>0.3927885200374901</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="T5">
-        <v>-0.4699940370479811</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U5">
         <v>3</v>
@@ -2181,94 +2181,94 @@
         <v>1</v>
       </c>
       <c r="BN5">
-        <v>-0.3342481284557545</v>
+        <v>-0.2824644988919176</v>
       </c>
       <c r="BO5">
-        <v>0.1358510601461236</v>
+        <v>0.1383169407786167</v>
       </c>
       <c r="BP5">
-        <v>0.4710817930532841</v>
+        <v>0.4641663336695019</v>
       </c>
       <c r="BQ5">
-        <v>-1.412751406210585</v>
+        <v>-1.186691312384473</v>
       </c>
       <c r="BR5">
-        <v>-1.432239624830005</v>
+        <v>-1.385650224215247</v>
       </c>
       <c r="BS5">
-        <v>0.9937517515497711</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="BT5">
-        <v>-0.9920408673018392</v>
+        <v>-1.023696041437078</v>
       </c>
       <c r="BU5">
-        <v>-1.197533746841012</v>
+        <v>-1.243243243243243</v>
       </c>
       <c r="BV5">
-        <v>-0.5772443750513487</v>
+        <v>-0.7035069075451644</v>
       </c>
       <c r="BW5">
-        <v>-1.028483168801719</v>
+        <v>-1</v>
       </c>
       <c r="BX5">
-        <v>0.05323914255289691</v>
+        <v>-0.009779951100244636</v>
       </c>
       <c r="BY5">
-        <v>0.01886132594485833</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="BZ5">
-        <v>-1.214352427671141</v>
+        <v>-1.219321148825065</v>
       </c>
       <c r="CA5">
-        <v>-0.5849889985651677</v>
+        <v>-0.4451250638080655</v>
       </c>
       <c r="CB5">
-        <v>-0.5440521116674001</v>
+        <v>-0.5381818181818182</v>
       </c>
       <c r="CC5">
-        <v>1.410967515557925</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD5">
-        <v>1.368258816385463</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="CE5">
-        <v>2.180606062595672</v>
+        <v>2.157659346942208</v>
       </c>
       <c r="CF5">
-        <v>1.092790428997329</v>
+        <v>0.9565217391304349</v>
       </c>
       <c r="CG5">
-        <v>1.11537823994537</v>
+        <v>1.126760563380282</v>
       </c>
       <c r="CH5">
-        <v>1.791974201405547</v>
+        <v>2.174258644547482</v>
       </c>
       <c r="CI5">
-        <v>0.6461348163878444</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CJ5">
-        <v>-0.7113461799628176</v>
+        <v>-0.5563904963354293</v>
       </c>
       <c r="CK5">
-        <v>-1.000000000000002</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL5">
         <v>1</v>
       </c>
       <c r="CM5">
-        <v>0.6711684231649043</v>
+        <v>0.6146913023884633</v>
       </c>
       <c r="CN5">
-        <v>1.081083499150572</v>
+        <v>1.115060804490178</v>
       </c>
       <c r="CO5">
-        <v>0.4929294436316136</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP5">
-        <v>2.613570073403364</v>
+        <v>1.749999999999999</v>
       </c>
       <c r="CQ5">
-        <v>1.453140824693243</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR5">
         <v>1</v>
@@ -2283,25 +2283,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV5">
-        <v>0.7303590722495257</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="CW5">
-        <v>-0.7679047730708444</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="CX5">
-        <v>-0.9329867981200203</v>
+        <v>-0.8643119293632199</v>
       </c>
       <c r="CY5">
-        <v>-1.252853068894605</v>
+        <v>-1.018851006360209</v>
       </c>
       <c r="CZ5">
-        <v>-0.3858557526186821</v>
+        <v>-0.3542406671322543</v>
       </c>
       <c r="DA5">
-        <v>-0.5180493535048744</v>
+        <v>-0.5450819672131147</v>
       </c>
       <c r="DB5">
-        <v>-0.1854390319485534</v>
+        <v>-0.1698309373801119</v>
       </c>
       <c r="DC5">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3549633510011093</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6">
-        <v>-0.1310193645292372</v>
+        <v>-0.2253521126760563</v>
       </c>
       <c r="F6">
-        <v>-0.4516648657112285</v>
+        <v>-0.3481823287936615</v>
       </c>
       <c r="G6">
-        <v>0.02342344075357914</v>
+        <v>-0.02411993910607671</v>
       </c>
       <c r="H6">
-        <v>-0.2500892894531412</v>
+        <v>-0.2051282051282051</v>
       </c>
       <c r="I6">
-        <v>0.6376893096801816</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>0.1231472232938187</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="S6">
-        <v>0.1016428330555885</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T6">
-        <v>-1.033986881505558</v>
+        <v>-0.851063829787234</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -2504,73 +2504,73 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>-0.4270633314674368</v>
+        <v>-0.3519300711180436</v>
       </c>
       <c r="BO6">
-        <v>-0.3630928334814576</v>
+        <v>-0.3006819370464967</v>
       </c>
       <c r="BP6">
-        <v>-0.455347033733719</v>
+        <v>-0.4069796205735162</v>
       </c>
       <c r="BQ6">
-        <v>1.103121609662431</v>
+        <v>1.157116451016636</v>
       </c>
       <c r="BR6">
-        <v>1.155479673415609</v>
+        <v>1.260089686098655</v>
       </c>
       <c r="BS6">
-        <v>-0.1425062496343815</v>
+        <v>-0.0277777777777778</v>
       </c>
       <c r="BT6">
-        <v>0.4784897073278815</v>
+        <v>0.6800076622666255</v>
       </c>
       <c r="BU6">
-        <v>1.034233690453601</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BV6">
-        <v>0.1961200363981518</v>
+        <v>0.4484590860786396</v>
       </c>
       <c r="BW6">
-        <v>0.6842138341511463</v>
+        <v>0.5675675675675689</v>
       </c>
       <c r="BX6">
-        <v>1.224500278716629</v>
+        <v>1.06601466992665</v>
       </c>
       <c r="BY6">
-        <v>-0.5847011042906081</v>
+        <v>-0.6140350877192983</v>
       </c>
       <c r="BZ6">
-        <v>-0.3954547898758651</v>
+        <v>-0.4046997389033941</v>
       </c>
       <c r="CA6">
-        <v>-0.6859765730543125</v>
+        <v>-0.5288412455334355</v>
       </c>
       <c r="CB6">
-        <v>0.4264192226582326</v>
+        <v>0.4218181818181819</v>
       </c>
       <c r="CC6">
-        <v>0.282193503111584</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD6">
-        <v>0.4158778640045102</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CE6">
-        <v>0.4517821732705622</v>
+        <v>0.3942122624988954</v>
       </c>
       <c r="CF6">
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>-0.106843982276852</v>
+        <v>-0.1126760563380282</v>
       </c>
       <c r="CH6">
-        <v>-0.00635201694582094</v>
+        <v>-0.03097391598000932</v>
       </c>
       <c r="CI6">
-        <v>0.8284323359449247</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="CJ6">
-        <v>0.4064198725855214</v>
+        <v>0.4746331598743519</v>
       </c>
       <c r="CK6">
         <v>0</v>
@@ -2579,16 +2579,16 @@
         <v>1</v>
       </c>
       <c r="CM6">
-        <v>-0.5973629608237467</v>
+        <v>-0.3767462821090583</v>
       </c>
       <c r="CN6">
-        <v>-0.5568361820027523</v>
+        <v>-0.3479887745556595</v>
       </c>
       <c r="CO6">
-        <v>-0.2464647218158057</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP6">
-        <v>-0.05309659326330129</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ6">
         <v>0</v>
@@ -2606,25 +2606,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV6">
-        <v>0.3651795361247628</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="CW6">
-        <v>-0.03071619092283378</v>
+        <v>-0.05333333333333334</v>
       </c>
       <c r="CX6">
-        <v>-0.4735199847948046</v>
+        <v>-0.3789463834806036</v>
       </c>
       <c r="CY6">
-        <v>0.01147532851531408</v>
+        <v>0.02604118668748244</v>
       </c>
       <c r="CZ6">
-        <v>-0.3417411923480692</v>
+        <v>-0.3115296138473351</v>
       </c>
       <c r="DA6">
-        <v>0.4232867243530985</v>
+        <v>0.6335083114574821</v>
       </c>
       <c r="DB6">
-        <v>0.009170062581938263</v>
+        <v>0.0103251327392826</v>
       </c>
       <c r="DC6">
         <v>0</v>
@@ -2638,28 +2638,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4324324324324325</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D7">
-        <v>0.7986675397524959</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E7">
-        <v>1.45721592958841</v>
+        <v>1.295774647887324</v>
       </c>
       <c r="F7">
-        <v>0.7601266205820364</v>
+        <v>0.690657553078259</v>
       </c>
       <c r="G7">
-        <v>1.336544390802433</v>
+        <v>1.235405853456998</v>
       </c>
       <c r="H7">
-        <v>-0.8215178608817126</v>
+        <v>-0.7521367521367521</v>
       </c>
       <c r="I7">
-        <v>3.252455331942817</v>
+        <v>3.413333333333334</v>
       </c>
       <c r="J7">
-        <v>-3.129756567446754</v>
+        <v>-2.655019365739852</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -2683,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>1.25825330059981</v>
+        <v>1.507246376811594</v>
       </c>
       <c r="S7">
-        <v>1.249099364101907</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="T7">
-        <v>0.4699940370479811</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="U7">
         <v>6</v>
@@ -2827,94 +2827,94 @@
         <v>0</v>
       </c>
       <c r="BN7">
-        <v>-0.2578994732438328</v>
+        <v>-0.2253229654911469</v>
       </c>
       <c r="BO7">
-        <v>-0.2746338254134974</v>
+        <v>-0.2228507304292192</v>
       </c>
       <c r="BP7">
-        <v>-0.3707067952193077</v>
+        <v>-0.3273901267926348</v>
       </c>
       <c r="BQ7">
-        <v>1.047566054106876</v>
+        <v>1.105360443622921</v>
       </c>
       <c r="BR7">
-        <v>-0.6690817300931632</v>
+        <v>-0.6053811659192825</v>
       </c>
       <c r="BS7">
-        <v>-0.9662933004928925</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="BT7">
-        <v>5.85977912898012</v>
+        <v>6.914575563501193</v>
       </c>
       <c r="BU7">
-        <v>0.8165002819370537</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV7">
-        <v>3.352360032941133</v>
+        <v>5.149840595111583</v>
       </c>
       <c r="BW7">
-        <v>0.6842138341511463</v>
+        <v>0.5675675675675689</v>
       </c>
       <c r="BX7">
-        <v>1.277739421269526</v>
+        <v>1.114914425427873</v>
       </c>
       <c r="BY7">
-        <v>-0.697869059959758</v>
+        <v>-0.7192982456140351</v>
       </c>
       <c r="BZ7">
-        <v>1.410319488339357</v>
+        <v>1.391644908616188</v>
       </c>
       <c r="CA7">
-        <v>0.04064134095294846</v>
+        <v>0.07350689127105656</v>
       </c>
       <c r="CB7">
-        <v>0.8528384453164651</v>
+        <v>0.8436363636363639</v>
       </c>
       <c r="CC7">
-        <v>1.410967515557925</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD7">
-        <v>1.22540167352832</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="CE7">
-        <v>0.3127934346173282</v>
+        <v>0.25243999323428</v>
       </c>
       <c r="CF7">
-        <v>-0.1986891689086053</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG7">
-        <v>1.059822684389815</v>
+        <v>1.070422535211268</v>
       </c>
       <c r="CH7">
-        <v>0.624509257980833</v>
+        <v>0.742632012937345</v>
       </c>
       <c r="CI7">
-        <v>0.4638372968307641</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ7">
-        <v>-0.7665754964278677</v>
+        <v>-0.6073338325209773</v>
       </c>
       <c r="CK7">
-        <v>-1.000000000000002</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL7">
         <v>1</v>
       </c>
       <c r="CM7">
-        <v>0.6711684231649043</v>
+        <v>0.6146913023884633</v>
       </c>
       <c r="CN7">
-        <v>-0.1630652100630788</v>
+        <v>0.00374181478016817</v>
       </c>
       <c r="CO7">
-        <v>0.9858588872632272</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP7">
-        <v>0.9469034067366987</v>
+        <v>0.5</v>
       </c>
       <c r="CQ7">
-        <v>0.4843802748977484</v>
+        <v>0.5</v>
       </c>
       <c r="CR7">
         <v>2</v>
@@ -2929,25 +2929,25 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="CV7">
-        <v>-1.27812837643667</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="CW7">
-        <v>0.8293371549165119</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="CX7">
-        <v>-0.2556919604979743</v>
+        <v>-0.1488400627297976</v>
       </c>
       <c r="CY7">
-        <v>0.1095084205209139</v>
+        <v>0.1070597042710642</v>
       </c>
       <c r="CZ7">
-        <v>0.5985878054188128</v>
+        <v>0.5988827688808758</v>
       </c>
       <c r="DA7">
-        <v>3.246299493934994</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB7">
-        <v>0.08974440976038732</v>
+        <v>0.08491546869005558</v>
       </c>
       <c r="DC7">
         <v>1</v>
@@ -2961,28 +2961,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.621621621621622</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="D8">
-        <v>-0.266222513250832</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E8">
-        <v>-0.6604311292351196</v>
+        <v>-0.7323943661971831</v>
       </c>
       <c r="F8">
-        <v>-0.6059639079964834</v>
+        <v>-0.4804592103146565</v>
       </c>
       <c r="G8">
-        <v>-0.5637361775740221</v>
+        <v>-0.5873145813114193</v>
       </c>
       <c r="H8">
-        <v>-0.9286607180245697</v>
+        <v>-0.8547008547008547</v>
       </c>
       <c r="I8">
-        <v>-0.8265796627868942</v>
+        <v>-0.7466666666666667</v>
       </c>
       <c r="J8">
-        <v>0.4636676396217413</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>0.9069109433384321</v>
+        <v>1.130434782608696</v>
       </c>
       <c r="S8">
-        <v>1.42036153291479</v>
+        <v>2.047619047619048</v>
       </c>
       <c r="T8">
-        <v>-0.7519904592767698</v>
+        <v>-0.5957446808510638</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -3150,91 +3150,91 @@
         <v>0</v>
       </c>
       <c r="BN8">
-        <v>-0.2652660867331993</v>
+        <v>-0.2308363512814375</v>
       </c>
       <c r="BO8">
-        <v>1.919343482727178</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP8">
-        <v>2.1978829613422</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ8">
-        <v>-0.3968783903375687</v>
+        <v>-0.2402957486136778</v>
       </c>
       <c r="BR8">
-        <v>-0.2480290985142157</v>
+        <v>-0.1748878923766815</v>
       </c>
       <c r="BS8">
-        <v>0.2835905008096756</v>
+        <v>0.3888888888888886</v>
       </c>
       <c r="BT8">
-        <v>-0.5551441023756177</v>
+        <v>-0.517523201930905</v>
       </c>
       <c r="BU8">
-        <v>-0.3810334649039584</v>
+        <v>-0.4324324324324325</v>
       </c>
       <c r="BV8">
-        <v>1.677212765336495</v>
+        <v>2.654622741764081</v>
       </c>
       <c r="BW8">
-        <v>-0.004802201519546322</v>
+        <v>-0.06306306306306207</v>
       </c>
       <c r="BX8">
-        <v>2.92815284040933</v>
+        <v>2.63080684596577</v>
       </c>
       <c r="BY8">
-        <v>-1.452322097754091</v>
+        <v>-1.421052631578947</v>
       </c>
       <c r="BZ8">
-        <v>0.1767236878144234</v>
+        <v>0.1644908616187988</v>
       </c>
       <c r="CA8">
-        <v>-0.4174974116075618</v>
+        <v>-0.3062787136294028</v>
       </c>
       <c r="CB8">
-        <v>-0.3970110004059406</v>
+        <v>-0.3927272727272726</v>
       </c>
       <c r="CC8">
-        <v>-0.2821935031115865</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD8">
-        <v>-0.3460268979002518</v>
+        <v>-0.4285714285714285</v>
       </c>
       <c r="CE8">
-        <v>0.05750308171386818</v>
+        <v>-0.007963065338594325</v>
       </c>
       <c r="CF8">
         <v>0</v>
       </c>
       <c r="CG8">
-        <v>-0.2179550933879632</v>
+        <v>-0.2253521126760563</v>
       </c>
       <c r="CH8">
-        <v>0.1301399555221017</v>
+        <v>0.1364020244168483</v>
       </c>
       <c r="CI8">
-        <v>-0.4476503009546374</v>
+        <v>-0.4680851063829787</v>
       </c>
       <c r="CJ8">
-        <v>-0.1954541557097385</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK8">
-        <v>7.000000000000009</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="CL8">
         <v>2</v>
       </c>
       <c r="CM8">
-        <v>4.183847146464386</v>
+        <v>3.3600721045516</v>
       </c>
       <c r="CN8">
-        <v>4.465838236674577</v>
+        <v>4.13844714686623</v>
       </c>
       <c r="CO8">
-        <v>1.478788330894841</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="CP8">
-        <v>1.946903406736697</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ8">
         <v>0</v>
@@ -3252,25 +3252,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CV8">
-        <v>4.016974897372391</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="CW8">
-        <v>-2.979470519514876</v>
+        <v>-2.613333333333333</v>
       </c>
       <c r="CX8">
-        <v>0.7213774145945763</v>
+        <v>0.8833037109954074</v>
       </c>
       <c r="CY8">
-        <v>2.225151067477945</v>
+        <v>1.855512471457809</v>
       </c>
       <c r="CZ8">
-        <v>0.777268931863258</v>
+        <v>0.7718791461713446</v>
       </c>
       <c r="DA8">
-        <v>-0.2134017018879333</v>
+        <v>-0.1636509681669622</v>
       </c>
       <c r="DB8">
-        <v>0.6113566758897568</v>
+        <v>0.5677891813428595</v>
       </c>
       <c r="DC8">
         <v>0</v>
@@ -3284,28 +3284,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-1.72972972972973</v>
+        <v>-1.153846153846154</v>
       </c>
       <c r="D9">
-        <v>0.8874083775027732</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9">
-        <v>-0.8957252468821784</v>
+        <v>-0.9577464788732394</v>
       </c>
       <c r="F9">
-        <v>-1.469500557988685</v>
+        <v>-1.220748543600888</v>
       </c>
       <c r="G9">
-        <v>-0.4931349205931038</v>
+        <v>-0.519594921403829</v>
       </c>
       <c r="H9">
-        <v>-0.6786607180245697</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I9">
-        <v>-1.14035158545841</v>
+        <v>-1.066666666666667</v>
       </c>
       <c r="J9">
-        <v>0.4636676396217413</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3329,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>-0.8768271781424121</v>
+        <v>-0.7826086956521739</v>
       </c>
       <c r="S9">
-        <v>-0.5320271915520796</v>
+        <v>-0.6666666666666669</v>
       </c>
       <c r="T9">
-        <v>0.9399880740959622</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="U9">
         <v>9</v>
@@ -3473,73 +3473,73 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>-0.3969984691312827</v>
+        <v>-0.3294286618842807</v>
       </c>
       <c r="BO9">
-        <v>-0.3182400535555581</v>
+        <v>-0.2612179405805858</v>
       </c>
       <c r="BP9">
-        <v>-0.4218632798298668</v>
+        <v>-0.3754939457944044</v>
       </c>
       <c r="BQ9">
-        <v>0.2559762219751925</v>
+        <v>0.3679089179401698</v>
       </c>
       <c r="BR9">
-        <v>0.1273571533661495</v>
+        <v>0.2089150916086246</v>
       </c>
       <c r="BS9">
-        <v>0.5752489163229064</v>
+        <v>0.6740925185118152</v>
       </c>
       <c r="BT9">
-        <v>0.2644939560586505</v>
+        <v>0.4320799004749008</v>
       </c>
       <c r="BU9">
-        <v>0.8709336340661906</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="BV9">
-        <v>-0.1634516087776308</v>
+        <v>-0.08714133900106273</v>
       </c>
       <c r="BW9">
-        <v>0.4676659372260712</v>
+        <v>0.3693693693693703</v>
       </c>
       <c r="BX9">
-        <v>-1.623793847863356</v>
+        <v>-1.550122249388753</v>
       </c>
       <c r="BY9">
-        <v>1.603212705312958</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="BZ9">
-        <v>-0.8521477032616918</v>
+        <v>-0.8590078328981722</v>
       </c>
       <c r="CA9">
-        <v>-0.5899152217109797</v>
+        <v>-0.4492087799897908</v>
       </c>
       <c r="CB9">
-        <v>-0.264674000270627</v>
+        <v>-0.2618181818181818</v>
       </c>
       <c r="CC9">
-        <v>-0.1410967515557945</v>
+        <v>-0.1250000000000019</v>
       </c>
       <c r="CD9">
-        <v>-0.01269356456691842</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="CE9">
-        <v>0.391222921068802</v>
+        <v>0.3324401887841165</v>
       </c>
       <c r="CF9">
-        <v>-0.1986891689086053</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG9">
-        <v>-0.4401773156101854</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH9">
-        <v>-0.1673374984538838</v>
+        <v>-0.228385499023733</v>
       </c>
       <c r="CI9">
-        <v>0.5549860566093042</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="CJ9">
-        <v>0.6178891257703415</v>
+        <v>0.669691689427553</v>
       </c>
       <c r="CK9">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>1</v>
       </c>
       <c r="CM9">
-        <v>0.05535409675586788</v>
+        <v>0.1333934204596661</v>
       </c>
       <c r="CN9">
-        <v>0.3605664015588279</v>
+        <v>0.471468662301216</v>
       </c>
       <c r="CO9">
-        <v>0.9858588872632272</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP9">
-        <v>-0.3864299265966346</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ9">
-        <v>3.875042199181983</v>
+        <v>3.999999999999996</v>
       </c>
       <c r="CR9">
         <v>1</v>
@@ -3575,25 +3575,25 @@
         <v>0</v>
       </c>
       <c r="CV9">
-        <v>-1.521581400519845</v>
+        <v>-1.444444444444444</v>
       </c>
       <c r="CW9">
-        <v>1.996552409984195</v>
+        <v>1.706666666666667</v>
       </c>
       <c r="CX9">
-        <v>-1.049929791666273</v>
+        <v>-0.9878466401488467</v>
       </c>
       <c r="CY9">
-        <v>-0.3312555907605775</v>
+        <v>-0.2572055256390536</v>
       </c>
       <c r="CZ9">
-        <v>-0.4416993904328025</v>
+        <v>-0.4083076367602276</v>
       </c>
       <c r="DA9">
-        <v>0.08424646208550469</v>
+        <v>0.209016393442623</v>
       </c>
       <c r="DB9">
-        <v>-0.2771668458515337</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC9">
         <v>1</v>
@@ -3607,28 +3607,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.3243243243243243</v>
+        <v>-0.1538461538461539</v>
       </c>
       <c r="D10">
-        <v>0.5324450265016639</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E10">
-        <v>0.5748629884119393</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="F10">
-        <v>0.1185198084306588</v>
+        <v>0.1406233661057233</v>
       </c>
       <c r="G10">
-        <v>0.618576399289622</v>
+        <v>0.546741794360653</v>
       </c>
       <c r="H10">
-        <v>0.1070535676897159</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="I10">
-        <v>-0.8788749832321469</v>
+        <v>-0.8</v>
       </c>
       <c r="J10">
-        <v>0.1159169099054353</v>
+        <v>0.09833405058295749</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3652,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>2.285254037209993</v>
+        <v>2.608695652173913</v>
       </c>
       <c r="S10">
-        <v>4.503080571546689</v>
+        <v>6.333333333333335</v>
       </c>
       <c r="T10">
-        <v>-0.09399880740959622</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -3796,91 +3796,91 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.1797640340655891</v>
+        <v>0.1022370138143518</v>
       </c>
       <c r="BO10">
-        <v>-0.1761562344902411</v>
+        <v>-0.1362046115802355</v>
       </c>
       <c r="BP10">
-        <v>-0.3260527962580865</v>
+        <v>-0.285400770016301</v>
       </c>
       <c r="BQ10">
-        <v>-0.27783077128995</v>
+        <v>-0.1293900184842882</v>
       </c>
       <c r="BR10">
-        <v>-0.1164501511457947</v>
+        <v>-0.04035874439461878</v>
       </c>
       <c r="BS10">
-        <v>-0.568603000078439</v>
+        <v>-0.4444444444444445</v>
       </c>
       <c r="BT10">
-        <v>0.1374971103122943</v>
+        <v>0.284945933871564</v>
       </c>
       <c r="BU10">
-        <v>0.9253669861953275</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="BV10">
-        <v>-0.3888973228164151</v>
+        <v>-0.4229543039319873</v>
       </c>
       <c r="BW10">
-        <v>0.7826446963898167</v>
+        <v>0.657657657657659</v>
       </c>
       <c r="BX10">
-        <v>1.011543708505041</v>
+        <v>0.8704156479217602</v>
       </c>
       <c r="BY10">
-        <v>-0.4338104967317415</v>
+        <v>-0.4736842105263158</v>
       </c>
       <c r="BZ10">
-        <v>2.271211876790801</v>
+        <v>2.248041775456918</v>
       </c>
       <c r="CA10">
-        <v>0.9519926229281572</v>
+        <v>0.8289943848902501</v>
       </c>
       <c r="CB10">
-        <v>0.5734603339196921</v>
+        <v>0.5672727272727274</v>
       </c>
       <c r="CC10">
-        <v>1.410967515557925</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD10">
-        <v>1.368258816385463</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="CE10">
-        <v>0.9783894623940637</v>
+        <v>0.9313659277076489</v>
       </c>
       <c r="CF10">
-        <v>0.5960675067258151</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG10">
-        <v>0.5598226843898146</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="CH10">
-        <v>0.4461593391278856</v>
+        <v>0.5239269503027582</v>
       </c>
       <c r="CI10">
-        <v>1.557622414173246</v>
+        <v>1.404255319148936</v>
       </c>
       <c r="CJ10">
-        <v>0.1484738604589814</v>
+        <v>0.2367046238259407</v>
       </c>
       <c r="CK10">
-        <v>1</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL10">
         <v>1</v>
       </c>
       <c r="CM10">
-        <v>0.6711684231649043</v>
+        <v>0.6146913023884633</v>
       </c>
       <c r="CN10">
-        <v>0.209760497411719</v>
+        <v>0.3367633302151544</v>
       </c>
       <c r="CO10">
-        <v>-0.4929294436316125</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP10">
-        <v>0.2802367400700321</v>
+        <v>0</v>
       </c>
       <c r="CQ10">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV10">
-        <v>0.5477693041871442</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="CW10">
-        <v>-0.1535809546141689</v>
+        <v>-0.16</v>
       </c>
       <c r="CX10">
-        <v>-0.3230966026114393</v>
+        <v>-0.2200440974187353</v>
       </c>
       <c r="CY10">
-        <v>-0.6417938714361737</v>
+        <v>-0.5138469376211821</v>
       </c>
       <c r="CZ10">
-        <v>0.9320540997945608</v>
+        <v>0.9217398160879166</v>
       </c>
       <c r="DA10">
-        <v>3.246299493934994</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB10">
-        <v>-0.5523502875604744</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC10">
         <v>1</v>
@@ -3930,28 +3930,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.5405405405405406</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="D11">
-        <v>1.064890053003328</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E11">
-        <v>-0.3074899527645313</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F11">
-        <v>-1.023308954748326</v>
+        <v>-0.8382391452056921</v>
       </c>
       <c r="G11">
-        <v>0.05535835727550503</v>
+        <v>0.006511550735904605</v>
       </c>
       <c r="H11">
-        <v>0.2856249962611445</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I11">
-        <v>-0.512807740115378</v>
+        <v>-0.4266666666666667</v>
       </c>
       <c r="J11">
-        <v>-0.1159169099054353</v>
+        <v>-0.09833405058295749</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3975,13 +3975,13 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>-0.4714321505331293</v>
+        <v>-0.3478260869565217</v>
       </c>
       <c r="S11">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T11">
-        <v>-0.09399880740959622</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>6</v>
@@ -4119,94 +4119,94 @@
         <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.3081123139083332</v>
+        <v>0.19829656455835</v>
       </c>
       <c r="BO11">
-        <v>0.525975599903046</v>
+        <v>0.4815704355155657</v>
       </c>
       <c r="BP11">
-        <v>0.4136116916711686</v>
+        <v>0.4101256509301721</v>
       </c>
       <c r="BQ11">
-        <v>-0.08735458081375934</v>
+        <v>0.04805914972273596</v>
       </c>
       <c r="BR11">
-        <v>0.09407616464367928</v>
+        <v>0.1748878923766819</v>
       </c>
       <c r="BS11">
-        <v>0.766500151312941</v>
+        <v>0.8611111111111113</v>
       </c>
       <c r="BT11">
-        <v>-0.9600728113316278</v>
+        <v>-0.9866590044000407</v>
       </c>
       <c r="BU11">
-        <v>0.05443335212913691</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>-0.0664243394444831</v>
+        <v>0.05738575982996803</v>
       </c>
       <c r="BW11">
-        <v>0.03457014337592239</v>
+        <v>-0.02702702702702551</v>
       </c>
       <c r="BX11">
-        <v>0.1597174276586907</v>
+        <v>0.08801955990220034</v>
       </c>
       <c r="BY11">
-        <v>0.2074745853934416</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="BZ11">
-        <v>-0.600179199324684</v>
+        <v>-0.6083550913838119</v>
       </c>
       <c r="CA11">
-        <v>0.1317764691504694</v>
+        <v>0.149055640632976</v>
       </c>
       <c r="CB11">
-        <v>0.01470411112614603</v>
+        <v>0.01454545454545463</v>
       </c>
       <c r="CC11">
-        <v>-1.693161018669511</v>
+        <v>-1.500000000000003</v>
       </c>
       <c r="CD11">
-        <v>-1.298407850281204</v>
+        <v>-1.380952380952381</v>
       </c>
       <c r="CE11">
-        <v>-1.440420336815223</v>
+        <v>-1.535885430036867</v>
       </c>
       <c r="CF11">
-        <v>-0.3973783378172107</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG11">
-        <v>-0.606843982276852</v>
+        <v>-0.6197183098591549</v>
       </c>
       <c r="CH11">
-        <v>-0.5725140130732975</v>
+        <v>-0.7252410937883507</v>
       </c>
       <c r="CI11">
-        <v>-1.632584178075659</v>
+        <v>-1.574468085106383</v>
       </c>
       <c r="CJ11">
-        <v>-0.6253641759206376</v>
+        <v>-0.4770809843192922</v>
       </c>
       <c r="CK11">
-        <v>1</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL11">
         <v>1</v>
       </c>
       <c r="CM11">
-        <v>-0.5604602296531679</v>
+        <v>-0.3479044614691305</v>
       </c>
       <c r="CN11">
-        <v>-0.5442690233238267</v>
+        <v>-0.3367633302151544</v>
       </c>
       <c r="CO11">
-        <v>0.4929294436316136</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP11">
-        <v>1.946903406736697</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ11">
-        <v>4.359422474079731</v>
+        <v>4.499999999999996</v>
       </c>
       <c r="CR11">
         <v>1</v>
@@ -4221,25 +4221,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV11">
-        <v>0.4260427921455566</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CW11">
-        <v>0.09214857276850133</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="CX11">
-        <v>-0.5675399432879811</v>
+        <v>-0.4782659581581359</v>
       </c>
       <c r="CY11">
-        <v>0.6203939790517334</v>
+        <v>0.5292762207577916</v>
       </c>
       <c r="CZ11">
-        <v>1.054910102985626</v>
+        <v>1.040687149269458</v>
       </c>
       <c r="DA11">
-        <v>-0.4656758043231022</v>
+        <v>-0.4795081967213115</v>
       </c>
       <c r="DB11">
-        <v>-0.2771668458515337</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC11">
         <v>0</v>
@@ -4253,28 +4253,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D12">
-        <v>0.5324450265016639</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12">
-        <v>1.280745341353116</v>
+        <v>1.126760563380282</v>
       </c>
       <c r="F12">
-        <v>0.7972445451115148</v>
+        <v>0.7224778627352311</v>
       </c>
       <c r="G12">
-        <v>1.135052921552992</v>
+        <v>1.042138277845125</v>
       </c>
       <c r="H12">
-        <v>0.6784821391182874</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="I12">
-        <v>-1.14035158545841</v>
+        <v>-1.066666666666667</v>
       </c>
       <c r="J12">
-        <v>-0.6093472098601667</v>
+        <v>-0.5169183633850821</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4298,13 +4298,13 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>-0.3092741394894162</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="S12">
-        <v>-0.2066290708076014</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T12">
-        <v>0.09399880740959622</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="U12">
         <v>6</v>
@@ -4442,73 +4442,73 @@
         <v>2</v>
       </c>
       <c r="BN12">
-        <v>-0.3242196294198103</v>
+        <v>-0.274958881261438</v>
       </c>
       <c r="BO12">
-        <v>0.1598587241311649</v>
+        <v>0.159440232762429</v>
       </c>
       <c r="BP12">
-        <v>0.2590090245728017</v>
+        <v>0.2647486029976088</v>
       </c>
       <c r="BQ12">
-        <v>-0.8492593427185213</v>
+        <v>-0.6617375231053602</v>
       </c>
       <c r="BR12">
-        <v>-0.9410115546545668</v>
+        <v>-0.883408071748879</v>
       </c>
       <c r="BS12">
-        <v>-0.6254159001376467</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="BT12">
-        <v>0.7129221177760982</v>
+        <v>0.9516126005382306</v>
       </c>
       <c r="BU12">
-        <v>0.2177334085165477</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="BV12">
-        <v>1.354739781964563</v>
+        <v>2.174282678002125</v>
       </c>
       <c r="BW12">
-        <v>-0.1426054086536854</v>
+        <v>-0.1891891891891888</v>
       </c>
       <c r="BX12">
-        <v>1.309682906801264</v>
+        <v>1.144254278728606</v>
       </c>
       <c r="BY12">
-        <v>-0.6601464080700413</v>
+        <v>-0.6842105263157895</v>
       </c>
       <c r="BZ12">
-        <v>-0.1802316927630044</v>
+        <v>-0.1906005221932116</v>
       </c>
       <c r="CA12">
-        <v>-0.4445916389095274</v>
+        <v>-0.3287391526288924</v>
       </c>
       <c r="CB12">
-        <v>0.1617452223876054</v>
+        <v>0.16</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12">
-        <v>0.177782625909272</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="CE12">
-        <v>-0.5527194424354193</v>
+        <v>-0.6304065297754381</v>
       </c>
       <c r="CF12">
         <v>0</v>
       </c>
       <c r="CG12">
-        <v>-0.1623995378324076</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="CH12">
-        <v>-0.4741186156112581</v>
+        <v>-0.6045818206959211</v>
       </c>
       <c r="CI12">
-        <v>0.4638372968307641</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ12">
-        <v>0.2755776925213336</v>
+        <v>0.3539447720237077</v>
       </c>
       <c r="CK12">
         <v>0</v>
@@ -4517,16 +4517,16 @@
         <v>1</v>
       </c>
       <c r="CM12">
-        <v>-0.7426674648079015</v>
+        <v>-0.4903109508787746</v>
       </c>
       <c r="CN12">
-        <v>-1.189383168842016</v>
+        <v>-0.9130028063610856</v>
       </c>
       <c r="CO12">
-        <v>-0.2464647218158057</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP12">
-        <v>0.2802367400700321</v>
+        <v>0</v>
       </c>
       <c r="CQ12">
         <v>0</v>
@@ -4544,25 +4544,25 @@
         <v>0</v>
       </c>
       <c r="CV12">
-        <v>1.156401864395082</v>
+        <v>1</v>
       </c>
       <c r="CW12">
-        <v>-0.8907695367621795</v>
+        <v>-0.8</v>
       </c>
       <c r="CX12">
-        <v>-1.045057166935179</v>
+        <v>-0.982699360532779</v>
       </c>
       <c r="CY12">
-        <v>-0.3112208629750552</v>
+        <v>-0.2406480151885937</v>
       </c>
       <c r="CZ12">
-        <v>1.354870214672901</v>
+        <v>1.331104014699714</v>
       </c>
       <c r="DA12">
-        <v>-0.2430882203005709</v>
+        <v>-0.2008196721311475</v>
       </c>
       <c r="DB12">
-        <v>-0.2771668458515337</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC12">
         <v>0</v>
@@ -4576,28 +4576,28 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>-0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-0.5324450265016639</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E13">
-        <v>2.045451223706057</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="F13">
-        <v>2.562124012349317</v>
+        <v>2.235466853004296</v>
       </c>
       <c r="G13">
-        <v>1.33422157832923</v>
+        <v>1.233177846797613</v>
       </c>
       <c r="H13">
-        <v>-0.1429464323102841</v>
+        <v>-0.1025641025641026</v>
       </c>
       <c r="I13">
-        <v>-0.7742843423416415</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J13">
-        <v>-3.361590387257625</v>
+        <v>-2.851687466905767</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4621,13 +4621,13 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>-0.4984584857070815</v>
+        <v>-0.3768115942028986</v>
       </c>
       <c r="S13">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T13">
-        <v>1.221984496324751</v>
+        <v>1.191489361702128</v>
       </c>
       <c r="U13">
         <v>9</v>
@@ -4765,94 +4765,94 @@
         <v>1</v>
       </c>
       <c r="BN13">
-        <v>-0.1390431883733816</v>
+        <v>-0.1363674972780554</v>
       </c>
       <c r="BO13">
-        <v>-0.2096515426078325</v>
+        <v>-0.1656756660691889</v>
       </c>
       <c r="BP13">
-        <v>-0.1945460947855837</v>
+        <v>-0.1617414800296843</v>
       </c>
       <c r="BQ13">
-        <v>0.8412168477576694</v>
+        <v>0.9131238447319781</v>
       </c>
       <c r="BR13">
-        <v>1.137935813766486</v>
+        <v>1.242152466367713</v>
       </c>
       <c r="BS13">
-        <v>0.5960614511353179</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="BT13">
-        <v>-0.8641686434209939</v>
+        <v>-0.8755478932889297</v>
       </c>
       <c r="BU13">
-        <v>-0.05443335212913691</v>
+        <v>-0.1081081081081081</v>
       </c>
       <c r="BV13">
-        <v>-0.1149379741110569</v>
+        <v>-0.01487778958554735</v>
       </c>
       <c r="BW13">
-        <v>-0.1819777535491527</v>
+        <v>-0.2252252252252241</v>
       </c>
       <c r="BX13">
-        <v>-0.2608717985091952</v>
+        <v>-0.2982885085574576</v>
       </c>
       <c r="BY13">
-        <v>-0.3583651929523082</v>
+        <v>-0.4035087719298245</v>
       </c>
       <c r="BZ13">
-        <v>-0.3167146323955501</v>
+        <v>-0.3263707571801566</v>
       </c>
       <c r="CA13">
-        <v>-0.1588706964524349</v>
+        <v>-0.09188361408882084</v>
       </c>
       <c r="CB13">
-        <v>-0.3234904447752108</v>
+        <v>-0.32</v>
       </c>
       <c r="CC13">
-        <v>0.141096751555792</v>
+        <v>0.1249999999999997</v>
       </c>
       <c r="CD13">
-        <v>0.177782625909272</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="CE13">
-        <v>-0.6669361675271386</v>
+        <v>-0.7469106758028761</v>
       </c>
       <c r="CF13">
         <v>0</v>
       </c>
       <c r="CG13">
-        <v>-0.2735106489435187</v>
+        <v>-0.2816901408450704</v>
       </c>
       <c r="CH13">
-        <v>-0.6420832893047181</v>
+        <v>-0.8105517741267078</v>
       </c>
       <c r="CI13">
-        <v>0.6461348163878444</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CJ13">
-        <v>0.4849251806240324</v>
+        <v>0.5470461925847369</v>
       </c>
       <c r="CK13">
-        <v>2.000000000000002</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="CL13">
         <v>1</v>
       </c>
       <c r="CM13">
-        <v>1.197032342345654</v>
+        <v>1.025687246507435</v>
       </c>
       <c r="CN13">
-        <v>0.2432729205555209</v>
+        <v>0.3666978484565014</v>
       </c>
       <c r="CO13">
-        <v>1.232323609079033</v>
+        <v>1.25</v>
       </c>
       <c r="CP13">
-        <v>1.280236740070031</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ13">
-        <v>1.453140824693243</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR13">
         <v>1</v>
@@ -4867,25 +4867,25 @@
         <v>0</v>
       </c>
       <c r="CV13">
-        <v>1.947624192665402</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="CW13">
-        <v>-2.549443846595203</v>
+        <v>-2.24</v>
       </c>
       <c r="CX13">
-        <v>-1.041808750447783</v>
+        <v>-0.9792678407887337</v>
       </c>
       <c r="CY13">
-        <v>-2.525058283275273</v>
+        <v>-2.070252919964413</v>
       </c>
       <c r="CZ13">
-        <v>0.9496049573932842</v>
+        <v>0.9387322922567081</v>
       </c>
       <c r="DA13">
-        <v>1.341211642448035</v>
+        <v>1.782786885245902</v>
       </c>
       <c r="DB13">
-        <v>-0.5523502875604744</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC13">
         <v>1</v>
@@ -4899,28 +4899,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-1.621621621621622</v>
+        <v>-1.076923076923077</v>
       </c>
       <c r="D14">
-        <v>1.153630890753605</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E14">
-        <v>0.8689806354707628</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="F14">
-        <v>-0.0231049608825821</v>
+        <v>0.01921183591454695</v>
       </c>
       <c r="G14">
-        <v>1.007806534796899</v>
+        <v>0.9200854645655924</v>
       </c>
       <c r="H14">
-        <v>0.3213392819754302</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="I14">
-        <v>0.4808033483444234</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="J14">
-        <v>1.159169099054353</v>
+        <v>0.9833405058295749</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4944,13 +4944,13 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>-0.7416955022726511</v>
+        <v>-0.6376811594202898</v>
       </c>
       <c r="S14">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T14">
-        <v>-0.5639928444575772</v>
+        <v>-0.425531914893617</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -5088,73 +5088,73 @@
         <v>1</v>
       </c>
       <c r="BN14">
-        <v>1.719118001311363</v>
+        <v>1.254333876435295</v>
       </c>
       <c r="BO14">
-        <v>1.919343482727178</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP14">
-        <v>2.1978829613422</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ14">
-        <v>-0.1587831522423307</v>
+        <v>-0.01848428835489794</v>
       </c>
       <c r="BR14">
-        <v>-0.06381857219842617</v>
+        <v>0.01345291479820639</v>
       </c>
       <c r="BS14">
-        <v>-0.256132049752797</v>
+        <v>-0.138888888888889</v>
       </c>
       <c r="BT14">
-        <v>-0.1608714120763448</v>
+        <v>-0.06073307847411505</v>
       </c>
       <c r="BU14">
-        <v>1.034233690453601</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BV14">
-        <v>-0.3146999992087138</v>
+        <v>-0.3124335812964928</v>
       </c>
       <c r="BW14">
-        <v>0.6842138341511463</v>
+        <v>0.5675675675675689</v>
       </c>
       <c r="BX14">
-        <v>-1.011543708505041</v>
+        <v>-0.9877750611246944</v>
       </c>
       <c r="BY14">
-        <v>1.188263534526075</v>
+        <v>1.035087719298246</v>
       </c>
       <c r="BZ14">
-        <v>0.2817105644548434</v>
+        <v>0.2689295039164489</v>
       </c>
       <c r="CA14">
-        <v>1.855954570184648</v>
+        <v>1.578356304236856</v>
       </c>
       <c r="CB14">
-        <v>-0.3528986670275027</v>
+        <v>-0.3490909090909091</v>
       </c>
       <c r="CC14">
-        <v>4.515096049785359</v>
+        <v>4.000000000000004</v>
       </c>
       <c r="CD14">
-        <v>4.844449292575939</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="CE14">
-        <v>4.055935868161793</v>
+        <v>4.070546424923418</v>
       </c>
       <c r="CF14">
-        <v>2.384270026903261</v>
+        <v>2.086956521739129</v>
       </c>
       <c r="CG14">
-        <v>2.782044906612037</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CH14">
-        <v>2.470087084624837</v>
+        <v>3.005807778696944</v>
       </c>
       <c r="CI14">
-        <v>4.565531486865071</v>
+        <v>4.212765957446808</v>
       </c>
       <c r="CJ14">
-        <v>-0.1671971590761581</v>
+        <v>-0.05446926536006481</v>
       </c>
       <c r="CK14">
         <v>0</v>
@@ -5163,19 +5163,19 @@
         <v>1</v>
       </c>
       <c r="CM14">
-        <v>2.2995014360667</v>
+        <v>1.887336638125282</v>
       </c>
       <c r="CN14">
-        <v>1.328237619836111</v>
+        <v>1.335827876520112</v>
       </c>
       <c r="CO14">
-        <v>1.725253052710646</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CP14">
-        <v>2.613570073403364</v>
+        <v>1.749999999999999</v>
       </c>
       <c r="CQ14">
-        <v>-0.4843802748977484</v>
+        <v>-0.5</v>
       </c>
       <c r="CR14">
         <v>2</v>
@@ -5190,25 +5190,25 @@
         <v>0</v>
       </c>
       <c r="CV14">
-        <v>-0.8520855842911133</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="CW14">
-        <v>1.013634300453515</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="CX14">
-        <v>1.301923745208362</v>
+        <v>1.496573654539872</v>
       </c>
       <c r="CY14">
-        <v>-0.9122626965407253</v>
+        <v>-0.7373733287023906</v>
       </c>
       <c r="CZ14">
-        <v>0.03775812851414585</v>
+        <v>0.05589591675994336</v>
       </c>
       <c r="DA14">
-        <v>1.151357526664111</v>
+        <v>1.545081967213115</v>
       </c>
       <c r="DB14">
-        <v>-1.010989357075376</v>
+        <v>-0.9340701555906147</v>
       </c>
       <c r="DC14">
         <v>0</v>
@@ -5222,25 +5222,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-0.2162162162162162</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D15">
-        <v>1.242371728503882</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1.045451223706057</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="F15">
-        <v>0.07543126575857551</v>
+        <v>0.1036845882006049</v>
       </c>
       <c r="G15">
-        <v>1.163505699904214</v>
+        <v>1.069429753319727</v>
       </c>
       <c r="H15">
-        <v>0.3213392819754302</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="I15">
-        <v>-0.4082170992248725</v>
+        <v>-0.32</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5267,13 +5267,13 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>-0.3363004746633684</v>
+        <v>-0.2028985507246377</v>
       </c>
       <c r="S15">
-        <v>-0.2066290708076014</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="U15">
         <v>6</v>
@@ -5411,94 +5411,94 @@
         <v>1</v>
       </c>
       <c r="BN15">
-        <v>0.3795086239173196</v>
+        <v>0.2517316201169085</v>
       </c>
       <c r="BO15">
-        <v>-0.2311661030251965</v>
+        <v>-0.184605385423913</v>
       </c>
       <c r="BP15">
-        <v>-0.3559480414840883</v>
+        <v>-0.313512073525774</v>
       </c>
       <c r="BQ15">
-        <v>0.6348676414084631</v>
+        <v>0.7208872458410355</v>
       </c>
       <c r="BR15">
-        <v>0.2695147611349072</v>
+        <v>0.3542600896860987</v>
       </c>
       <c r="BS15">
-        <v>0.7096872512537333</v>
+        <v>0.8055555555555557</v>
       </c>
       <c r="BT15">
-        <v>0.7555461924030467</v>
+        <v>1.000995316587613</v>
       </c>
       <c r="BU15">
-        <v>-0.4354668170330953</v>
+        <v>-0.4864864864864865</v>
       </c>
       <c r="BV15">
-        <v>-0.7028090765413046</v>
+        <v>-0.8905419766206163</v>
       </c>
       <c r="BW15">
-        <v>-0.4969565127128982</v>
+        <v>-0.5135135135135127</v>
       </c>
       <c r="BX15">
-        <v>-0.3194348553173815</v>
+        <v>-0.352078239608802</v>
       </c>
       <c r="BY15">
-        <v>0.6224237561803247</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="BZ15">
-        <v>1.179348359730434</v>
+        <v>1.161879895561357</v>
       </c>
       <c r="CA15">
-        <v>0.3214360602642291</v>
+        <v>0.3062787136294028</v>
       </c>
       <c r="CB15">
-        <v>0.3087863336490649</v>
+        <v>0.3054545454545454</v>
       </c>
       <c r="CC15">
-        <v>1.128774012446338</v>
+        <v>1</v>
       </c>
       <c r="CD15">
-        <v>1.177782625909272</v>
+        <v>1.095238095238095</v>
       </c>
       <c r="CE15">
-        <v>0.3851519076104138</v>
+        <v>0.3262475910019387</v>
       </c>
       <c r="CF15">
-        <v>0.3973783378172098</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG15">
-        <v>0.3376004621675924</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="CH15">
-        <v>0.001200638334613597</v>
+        <v>-0.02171232530035884</v>
       </c>
       <c r="CI15">
-        <v>1.557622414173246</v>
+        <v>1.404255319148936</v>
       </c>
       <c r="CJ15">
-        <v>0.335611163374313</v>
+        <v>0.4093194440963554</v>
       </c>
       <c r="CK15">
-        <v>-1.000000000000002</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL15">
         <v>1</v>
       </c>
       <c r="CM15">
-        <v>0.1706751316639271</v>
+        <v>0.2235241099594408</v>
       </c>
       <c r="CN15">
-        <v>-0.4646770183572966</v>
+        <v>-0.265668849391955</v>
       </c>
       <c r="CO15">
-        <v>-0.4929294436316125</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP15">
-        <v>0.6135700734033653</v>
+        <v>0.25</v>
       </c>
       <c r="CQ15">
-        <v>-0.9687605497954969</v>
+        <v>-1</v>
       </c>
       <c r="CR15">
         <v>1</v>
@@ -5513,25 +5513,25 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="CV15">
-        <v>0.7912223282703195</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CW15">
-        <v>-0.4607428638425066</v>
+        <v>-0.4266666666666667</v>
       </c>
       <c r="CX15">
-        <v>-0.1401914140920637</v>
+        <v>-0.02682910539790133</v>
       </c>
       <c r="CY15">
-        <v>0.3919263300229171</v>
+        <v>0.3404613026374551</v>
       </c>
       <c r="CZ15">
-        <v>0.7597051098567941</v>
+        <v>0.7548741180581063</v>
       </c>
       <c r="DA15">
-        <v>0.3320464178013632</v>
+        <v>0.5192718120241467</v>
       </c>
       <c r="DB15">
-        <v>-0.2899586985642092</v>
+        <v>-0.2665882468629714</v>
       </c>
       <c r="DC15">
         <v>0</v>
@@ -5545,28 +5545,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1774816755005546</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2807453413531157</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F16">
-        <v>0.07523535276077413</v>
+        <v>0.103516636669508</v>
       </c>
       <c r="G16">
-        <v>0.3000311349178848</v>
+        <v>0.2411979854981874</v>
       </c>
       <c r="H16">
-        <v>-0.03580357516742692</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2193267461181599</v>
+        <v>0.32</v>
       </c>
       <c r="J16">
-        <v>0.8114183693380473</v>
+        <v>0.6883383540807024</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -5590,13 +5590,13 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>-0.5525111560549859</v>
+        <v>-0.4347826086956522</v>
       </c>
       <c r="S16">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T16">
-        <v>-0.3759952296383849</v>
+        <v>-0.2553191489361702</v>
       </c>
       <c r="U16">
         <v>6</v>
@@ -5734,94 +5734,94 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>0.2371286993329249</v>
+        <v>0.1451703821533092</v>
       </c>
       <c r="BO16">
-        <v>1.919343482727178</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP16">
-        <v>2.1978829613422</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ16">
-        <v>-0.9365609300201085</v>
+        <v>-0.7430683918669126</v>
       </c>
       <c r="BR16">
-        <v>-0.3883799757071983</v>
+        <v>-0.3183856502242153</v>
       </c>
       <c r="BS16">
-        <v>-1.307170700848138</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="BT16">
-        <v>-0.4698959531217207</v>
+        <v>-0.4187577698321395</v>
       </c>
       <c r="BU16">
-        <v>1.034233690453601</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BV16">
-        <v>-0.1349141766208225</v>
+        <v>-0.04463336875664167</v>
       </c>
       <c r="BW16">
-        <v>0.8220170412852854</v>
+        <v>0.6936936936936956</v>
       </c>
       <c r="BX16">
-        <v>-0.5057718542525207</v>
+        <v>-0.5232273838630808</v>
       </c>
       <c r="BY16">
-        <v>0.7733143637391914</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="BZ16">
-        <v>-0.5739324801645791</v>
+        <v>-0.5822454308093994</v>
       </c>
       <c r="CA16">
-        <v>-0.1169977997130335</v>
+        <v>-0.05717202654415528</v>
       </c>
       <c r="CB16">
-        <v>0.6910932229288598</v>
+        <v>0.6836363636363639</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
       <c r="CD16">
-        <v>0.3206397687664149</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="CE16">
-        <v>0.1380814304580312</v>
+        <v>0.07422902781765038</v>
       </c>
       <c r="CF16">
-        <v>-0.596067506725816</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="CG16">
-        <v>0.1709337955009257</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="CH16">
-        <v>0.177847594762527</v>
+        <v>0.1949044464831483</v>
       </c>
       <c r="CI16">
-        <v>0.1903910174951437</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ16">
-        <v>-0.1954541557097385</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK16">
-        <v>-3.000000000000004</v>
+        <v>-1.000000000000001</v>
       </c>
       <c r="CL16">
         <v>1</v>
       </c>
       <c r="CM16">
-        <v>-1.291595590970263</v>
+        <v>-0.9193330328977017</v>
       </c>
       <c r="CN16">
-        <v>-1.302487596952347</v>
+        <v>-1.014031805425631</v>
       </c>
       <c r="CO16">
         <v>0</v>
       </c>
       <c r="CP16">
-        <v>0.6135700734033653</v>
+        <v>0.25</v>
       </c>
       <c r="CQ16">
-        <v>1.453140824693243</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR16">
         <v>1</v>
@@ -5836,25 +5836,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV16">
-        <v>-0.4260427921455566</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW16">
-        <v>0.1535809546141689</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="CX16">
-        <v>3.036578149477775</v>
+        <v>3.329005197860003</v>
       </c>
       <c r="CY16">
-        <v>3.204873863384115</v>
+        <v>2.665195068867118</v>
       </c>
       <c r="CZ16">
-        <v>1.325352863256866</v>
+        <v>1.302525759324929</v>
       </c>
       <c r="DA16">
-        <v>0.3199274334034791</v>
+        <v>0.5040983606557377</v>
       </c>
       <c r="DB16">
-        <v>5.685141057842185</v>
+        <v>5.264759058783465</v>
       </c>
       <c r="DC16">
         <v>0</v>
@@ -5868,28 +5868,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D17">
-        <v>-0.8874083775027712</v>
+        <v>-0.9999999999999981</v>
       </c>
       <c r="E17">
-        <v>0.2807453413531157</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F17">
-        <v>0.9047092950859821</v>
+        <v>0.8146048247015685</v>
       </c>
       <c r="G17">
-        <v>0.0120253116284444</v>
+        <v>-0.03505285249805136</v>
       </c>
       <c r="H17">
-        <v>0.8927678534040017</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I17">
-        <v>0.6376893096801816</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="J17">
-        <v>1.275086008959789</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5913,13 +5913,13 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>-0.5795374912289381</v>
+        <v>-0.463768115942029</v>
       </c>
       <c r="S17">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T17">
-        <v>-1.033986881505558</v>
+        <v>-0.851063829787234</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -6057,94 +6057,94 @@
         <v>1</v>
       </c>
       <c r="BN17">
-        <v>-0.4254331845048038</v>
+        <v>-0.3507100221616488</v>
       </c>
       <c r="BO17">
-        <v>1.919343482727178</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP17">
-        <v>2.1978829613422</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ17">
-        <v>-0.8810053744645532</v>
+        <v>-0.6913123844731974</v>
       </c>
       <c r="BR17">
-        <v>-0.8006606774615842</v>
+        <v>-0.7399103139013452</v>
       </c>
       <c r="BS17">
-        <v>0.397216300928091</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="BT17">
-        <v>-0.6084241956593033</v>
+        <v>-0.5792515969926334</v>
       </c>
       <c r="BU17">
-        <v>0.8165002819370537</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV17">
-        <v>-0.1691590952089923</v>
+        <v>-0.09564293304994671</v>
       </c>
       <c r="BW17">
-        <v>0.6448414892556776</v>
+        <v>0.5315315315315323</v>
       </c>
       <c r="BX17">
-        <v>0.6388697106347629</v>
+        <v>0.5281173594132027</v>
       </c>
       <c r="BY17">
-        <v>-0.2451972372831582</v>
+        <v>-0.2982456140350877</v>
       </c>
       <c r="BZ17">
-        <v>-0.04899809696247944</v>
+        <v>-0.06005221932114892</v>
       </c>
       <c r="CA17">
-        <v>-0.3780876264410662</v>
+        <v>-0.2736089841755999</v>
       </c>
       <c r="CB17">
-        <v>1.514523445993033</v>
+        <v>1.498181818181818</v>
       </c>
       <c r="CC17">
-        <v>0.564387006223168</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="CD17">
-        <v>0.0349254830521292</v>
+        <v>-0.04761904761904762</v>
       </c>
       <c r="CE17">
-        <v>0.04373743277159742</v>
+        <v>-0.02200439924345718</v>
       </c>
       <c r="CF17">
-        <v>-0.1986891689086053</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG17">
-        <v>-0.3846217600546298</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="CH17">
-        <v>-0.3102252142831349</v>
+        <v>-0.4036043443202974</v>
       </c>
       <c r="CI17">
-        <v>0.5549860566093042</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="CJ17">
-        <v>0.5568883796593354</v>
+        <v>0.6134248059025907</v>
       </c>
       <c r="CK17">
-        <v>-3.000000000000004</v>
+        <v>-1.000000000000001</v>
       </c>
       <c r="CL17">
         <v>1</v>
       </c>
       <c r="CM17">
-        <v>-0.7447432434362466</v>
+        <v>-0.4919333032897706</v>
       </c>
       <c r="CN17">
-        <v>-0.6100371537435378</v>
+        <v>-0.3955098222637978</v>
       </c>
       <c r="CO17">
-        <v>0.2464647218158068</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="CP17">
-        <v>-0.3864299265966346</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ17">
-        <v>-0.4843802748977484</v>
+        <v>-0.5</v>
       </c>
       <c r="CR17">
         <v>1</v>
@@ -6159,25 +6159,25 @@
         <v>0</v>
       </c>
       <c r="CV17">
-        <v>0.5477693041871442</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="CW17">
-        <v>-1.075066682299182</v>
+        <v>-0.96</v>
       </c>
       <c r="CX17">
-        <v>-0.09002271964078321</v>
+        <v>0.02616744421650711</v>
       </c>
       <c r="CY17">
-        <v>-0.241099315725727</v>
+        <v>-0.182696728611984</v>
       </c>
       <c r="CZ17">
-        <v>-0.6291744602373499</v>
+        <v>-0.5898181776541382</v>
       </c>
       <c r="DA17">
-        <v>0.3395675143466436</v>
+        <v>0.5286885245901639</v>
       </c>
       <c r="DB17">
-        <v>-0.8275337292694153</v>
+        <v>-0.764239218210503</v>
       </c>
       <c r="DC17">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.5405405405405406</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D18">
-        <v>-0.266222513250832</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E18">
-        <v>-0.4251370115880608</v>
+        <v>-0.5070422535211268</v>
       </c>
       <c r="F18">
-        <v>-0.3546799197642505</v>
+        <v>-0.2650394523743017</v>
       </c>
       <c r="G18">
-        <v>-0.3704811100413061</v>
+        <v>-0.4019472378904508</v>
       </c>
       <c r="H18">
-        <v>0.03562499626114451</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="I18">
-        <v>0.742279950570687</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -6236,13 +6236,13 @@
         <v>1</v>
       </c>
       <c r="R18">
-        <v>-0.2281951339675596</v>
+        <v>-0.08695652173913043</v>
       </c>
       <c r="S18">
-        <v>0.1530214836994535</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="T18">
-        <v>0.9399880740959622</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="U18">
         <v>9</v>
@@ -6380,73 +6380,73 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>-0.1590589169019124</v>
+        <v>-0.1513478452236628</v>
       </c>
       <c r="BO18">
-        <v>-0.3291127552257067</v>
+        <v>-0.2707843545463316</v>
       </c>
       <c r="BP18">
-        <v>-0.3152063264197717</v>
+        <v>-0.2752015425697233</v>
       </c>
       <c r="BQ18">
-        <v>0.6824866890275104</v>
+        <v>0.7652495378927913</v>
       </c>
       <c r="BR18">
-        <v>0.6203919541173637</v>
+        <v>0.7130044843049332</v>
       </c>
       <c r="BS18">
-        <v>-0.4549771999600236</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BT18">
-        <v>0.9047304535973663</v>
+        <v>1.173834822760453</v>
       </c>
       <c r="BU18">
-        <v>0</v>
+        <v>-0.05405405405405406</v>
       </c>
       <c r="BV18">
-        <v>0.8382122599263352</v>
+        <v>1.404888416578108</v>
       </c>
       <c r="BW18">
-        <v>-0.004802201519546322</v>
+        <v>-0.06306306306306207</v>
       </c>
       <c r="BX18">
-        <v>1.969848274457186</v>
+        <v>1.750611246943765</v>
       </c>
       <c r="BY18">
-        <v>-0.9996502750774913</v>
+        <v>-1</v>
       </c>
       <c r="BZ18">
-        <v>-0.1277382544427944</v>
+        <v>-0.1383812010443865</v>
       </c>
       <c r="CA18">
-        <v>-0.3017311676809812</v>
+        <v>-0.2103113833588567</v>
       </c>
       <c r="CB18">
-        <v>0.2352657780183351</v>
+        <v>0.2327272727272727</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
       <c r="CD18">
-        <v>-0.01269356456691842</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="CE18">
-        <v>0.2892030305534573</v>
+        <v>0.2283771436148705</v>
       </c>
       <c r="CF18">
-        <v>-0.3973783378172107</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG18">
-        <v>-0.4401773156101854</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH18">
-        <v>-0.2195774385843716</v>
+        <v>-0.2924457433554707</v>
       </c>
       <c r="CI18">
-        <v>0.5549860566093042</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="CJ18">
-        <v>0.6178891257703415</v>
+        <v>0.669691689427553</v>
       </c>
       <c r="CK18">
         <v>0</v>
@@ -6455,16 +6455,16 @@
         <v>1</v>
       </c>
       <c r="CM18">
-        <v>-0.7428981068777174</v>
+        <v>-0.490491212257774</v>
       </c>
       <c r="CN18">
-        <v>-0.4818521352184956</v>
+        <v>-0.2810102899906457</v>
       </c>
       <c r="CO18">
         <v>0</v>
       </c>
       <c r="CP18">
-        <v>-0.05309659326330129</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ18">
         <v>0</v>
@@ -6482,25 +6482,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV18">
-        <v>1.156401864395082</v>
+        <v>1</v>
       </c>
       <c r="CW18">
-        <v>-1.075066682299182</v>
+        <v>-0.96</v>
       </c>
       <c r="CX18">
-        <v>-0.6243872318174094</v>
+        <v>-0.5383175536789268</v>
       </c>
       <c r="CY18">
-        <v>-1.092575246610426</v>
+        <v>-0.8863909227565298</v>
       </c>
       <c r="CZ18">
-        <v>0.5443397001136673</v>
+        <v>0.5463605698137016</v>
       </c>
       <c r="DA18">
-        <v>-1.015598070731709</v>
+        <v>-1.168032786885246</v>
       </c>
       <c r="DB18">
-        <v>-0.7358059153664351</v>
+        <v>-0.6793237495204473</v>
       </c>
       <c r="DC18">
         <v>0</v>
@@ -6514,28 +6514,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1081081081081081</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D19">
-        <v>0.266222513250832</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E19">
-        <v>0.6336865178237039</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="F19">
-        <v>0.36502969677025</v>
+        <v>0.3519504022992969</v>
       </c>
       <c r="G19">
-        <v>0.590300862214705</v>
+        <v>0.5196203260426686</v>
       </c>
       <c r="H19">
-        <v>-2.17866071802457</v>
+        <v>-2.051282051282051</v>
       </c>
       <c r="I19">
-        <v>-2.081667353472959</v>
+        <v>-2.026666666666667</v>
       </c>
       <c r="J19">
-        <v>0.7450459355617706</v>
+        <v>0.6320336245499132</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -6559,13 +6559,13 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <v>1.609595657861189</v>
+        <v>1.884057971014493</v>
       </c>
       <c r="S19">
-        <v>5.188129246798222</v>
+        <v>7.285714285714287</v>
       </c>
       <c r="T19">
-        <v>0.6579916518671736</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="U19">
         <v>9</v>
@@ -6703,94 +6703,94 @@
         <v>0</v>
       </c>
       <c r="BN19">
-        <v>3.093393795125955</v>
+        <v>2.282881477649167</v>
       </c>
       <c r="BO19">
-        <v>0.2892402641289401</v>
+        <v>0.2732773827821532</v>
       </c>
       <c r="BP19">
-        <v>0.3695119222218232</v>
+        <v>0.3686574510771037</v>
       </c>
       <c r="BQ19">
-        <v>-1.127037120496299</v>
+        <v>-0.9205175600739369</v>
       </c>
       <c r="BR19">
-        <v>-0.5638185721984261</v>
+        <v>-0.4977578475336321</v>
       </c>
       <c r="BS19">
-        <v>-1.591235201144177</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="BT19">
-        <v>-0.3207116919274013</v>
+        <v>-0.2459182636593001</v>
       </c>
       <c r="BU19">
-        <v>-2.721667606456846</v>
+        <v>-2.756756756756757</v>
       </c>
       <c r="BV19">
-        <v>-0.7170777926197087</v>
+        <v>-0.9117959617428266</v>
       </c>
       <c r="BW19">
-        <v>-2.957728068679658</v>
+        <v>-2.765765765765766</v>
       </c>
       <c r="BX19">
-        <v>1.650413419139804</v>
+        <v>1.45721271393643</v>
       </c>
       <c r="BY19">
-        <v>-0.811037015628908</v>
+        <v>-0.8245614035087719</v>
       </c>
       <c r="BZ19">
-        <v>0.8433903544810901</v>
+        <v>0.8276762402088771</v>
       </c>
       <c r="CA19">
-        <v>-0.2623213825144857</v>
+        <v>-0.1776416539050537</v>
       </c>
       <c r="CB19">
-        <v>-0.07352055563072975</v>
+        <v>-0.07272727272727274</v>
       </c>
       <c r="CC19">
-        <v>0.564387006223168</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="CD19">
-        <v>0.7015921497187959</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="CE19">
-        <v>0.3214389553028357</v>
+        <v>0.2612586579580213</v>
       </c>
       <c r="CF19">
-        <v>0.5960675067258151</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG19">
-        <v>0.6153782399453702</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="CH19">
-        <v>0.5163841941583084</v>
+        <v>0.610041546915481</v>
       </c>
       <c r="CI19">
-        <v>0.1903910174951437</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ19">
-        <v>-0.5775963958972049</v>
+        <v>-0.4330201443103278</v>
       </c>
       <c r="CK19">
-        <v>1</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL19">
         <v>1</v>
       </c>
       <c r="CM19">
-        <v>0.4820419259156868</v>
+        <v>0.4668769716088325</v>
       </c>
       <c r="CN19">
-        <v>0.07152175194353574</v>
+        <v>0.2132834424695979</v>
       </c>
       <c r="CO19">
         <v>0</v>
       </c>
       <c r="CP19">
-        <v>-0.05309659326330129</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ19">
-        <v>-2.42190137448874</v>
+        <v>-2.499999999999998</v>
       </c>
       <c r="CR19">
         <v>1</v>
@@ -6805,25 +6805,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV19">
-        <v>2.799709776956515</v>
+        <v>2.5</v>
       </c>
       <c r="CW19">
-        <v>-2.11941717367553</v>
+        <v>-1.866666666666667</v>
       </c>
       <c r="CX19">
-        <v>-1.035311917472991</v>
+        <v>-0.9724048013006433</v>
       </c>
       <c r="CY19">
-        <v>0.3098556983761372</v>
+        <v>0.2726348087756632</v>
       </c>
       <c r="CZ19">
-        <v>0.2954366287135874</v>
+        <v>0.3053763623290204</v>
       </c>
       <c r="DA19">
-        <v>-0.1841679774710773</v>
+        <v>-0.1270491803278689</v>
       </c>
       <c r="DB19">
-        <v>-0.6440781014634548</v>
+        <v>-0.5944082808303913</v>
       </c>
       <c r="DC19">
         <v>0</v>
@@ -6837,28 +6837,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D20">
-        <v>0.5324450265016639</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E20">
-        <v>-0.3074899527645313</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F20">
-        <v>-0.7298861124204109</v>
+        <v>-0.5866947546811613</v>
       </c>
       <c r="G20">
-        <v>-0.07536910607268091</v>
+        <v>-0.1188802586608294</v>
       </c>
       <c r="H20">
-        <v>-0.7500892894531412</v>
+        <v>-0.6837606837606838</v>
       </c>
       <c r="I20">
-        <v>-0.9311703036773996</v>
+        <v>-0.8533333333333334</v>
       </c>
       <c r="J20">
-        <v>-1.275086008959789</v>
+        <v>-1.081674556412532</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -6882,13 +6882,13 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>0.06909455294591438</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="S20">
-        <v>0.1016428330555885</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T20">
-        <v>-0.4699940370479811</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U20">
         <v>3</v>
@@ -7026,94 +7026,94 @@
         <v>0</v>
       </c>
       <c r="BN20">
-        <v>0.032019068844681</v>
+        <v>-0.008339575144977346</v>
       </c>
       <c r="BO20">
-        <v>0.3389928323272429</v>
+        <v>0.3170524883339511</v>
       </c>
       <c r="BP20">
-        <v>0.3609982185748657</v>
+        <v>0.3606517864505039</v>
       </c>
       <c r="BQ20">
-        <v>-0.492116485575664</v>
+        <v>-0.3290203327171899</v>
       </c>
       <c r="BR20">
-        <v>-0.449783484479128</v>
+        <v>-0.3811659192825111</v>
       </c>
       <c r="BS20">
-        <v>0.8517195014017526</v>
+        <v>0.9444444444444448</v>
       </c>
       <c r="BT20">
-        <v>-0.7789204941670971</v>
+        <v>-0.7767824611901644</v>
       </c>
       <c r="BU20">
-        <v>-0.2721667606456846</v>
+        <v>-0.3243243243243243</v>
       </c>
       <c r="BV20">
-        <v>-0.8141050619528564</v>
+        <v>-1.056323060573857</v>
       </c>
       <c r="BW20">
-        <v>-0.5953873749515686</v>
+        <v>-0.6036036036036029</v>
       </c>
       <c r="BX20">
-        <v>1.277739421269526</v>
+        <v>1.114914425427873</v>
       </c>
       <c r="BY20">
-        <v>-0.6224237561803247</v>
+        <v>-0.6491228070175439</v>
       </c>
       <c r="BZ20">
-        <v>-0.5371870733404321</v>
+        <v>-0.5456919060052219</v>
       </c>
       <c r="CA20">
-        <v>0.1268502460046574</v>
+        <v>0.1449719244512505</v>
       </c>
       <c r="CB20">
-        <v>3.323129114508985</v>
+        <v>3.287272727272728</v>
       </c>
       <c r="CC20">
-        <v>-0.5643870062231704</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="CD20">
-        <v>-0.5365030883764422</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="CE20">
-        <v>-0.5230661830655295</v>
+        <v>-0.600159403909722</v>
       </c>
       <c r="CF20">
-        <v>0.1986891689086053</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="CG20">
-        <v>0.004267128834259084</v>
+        <v>0</v>
       </c>
       <c r="CH20">
-        <v>0.1610613166428902</v>
+        <v>0.1743199459060342</v>
       </c>
       <c r="CI20">
-        <v>-1.176840379182958</v>
+        <v>-1.148936170212766</v>
       </c>
       <c r="CJ20">
-        <v>-0.9177029896640494</v>
+        <v>-0.746733325174158</v>
       </c>
       <c r="CK20">
-        <v>-2.000000000000002</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CL20">
         <v>1</v>
       </c>
       <c r="CM20">
-        <v>-1.026357210681727</v>
+        <v>-0.71203244704822</v>
       </c>
       <c r="CN20">
-        <v>-0.9087166250126738</v>
+        <v>-0.6623012160898039</v>
       </c>
       <c r="CO20">
-        <v>-0.9858588872632261</v>
+        <v>-1</v>
       </c>
       <c r="CP20">
-        <v>-2.719763259929965</v>
+        <v>-2.249999999999998</v>
       </c>
       <c r="CQ20">
-        <v>-1.937521099590992</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="CR20">
         <v>1</v>
@@ -7128,25 +7128,25 @@
         <v>0</v>
       </c>
       <c r="CV20">
-        <v>0.912948840311907</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="CW20">
-        <v>-0.6450400093795092</v>
+        <v>-0.5866666666666667</v>
       </c>
       <c r="CX20">
-        <v>-1.056426624641065</v>
+        <v>-0.994709679636937</v>
       </c>
       <c r="CY20">
-        <v>-0.18099513236916</v>
+        <v>-0.1330241972606044</v>
       </c>
       <c r="CZ20">
-        <v>-0.07791797838653219</v>
+        <v>-0.05609994889800137</v>
       </c>
       <c r="DA20">
-        <v>-0.9697712151976585</v>
+        <v>-1.110655737704918</v>
       </c>
       <c r="DB20">
-        <v>-0.5523502875604744</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC20">
         <v>0</v>
@@ -7160,25 +7160,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.297297297297297</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.8874083775027732</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E21">
-        <v>0.2807453413531157</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F21">
-        <v>-0.3880099487589433</v>
+        <v>-0.2936124897122245</v>
       </c>
       <c r="G21">
-        <v>0.4864821746327661</v>
+        <v>0.4200390081491153</v>
       </c>
       <c r="H21">
-        <v>0.4284821391182874</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I21">
-        <v>1.683595718585235</v>
+        <v>1.813333333333333</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7205,13 +7205,13 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>0.6096212564249581</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="S21">
-        <v>0.8551963758322748</v>
+        <v>1.261904761904762</v>
       </c>
       <c r="T21">
-        <v>-0.4699940370479811</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U21">
         <v>3</v>
@@ -7349,73 +7349,73 @@
         <v>0</v>
       </c>
       <c r="BN21">
-        <v>5.720200229849643</v>
+        <v>4.248859099789194</v>
       </c>
       <c r="BO21">
-        <v>0.3846997310679948</v>
+        <v>0.3572679865339013</v>
       </c>
       <c r="BP21">
-        <v>0.4640666633071104</v>
+        <v>0.4575698184055462</v>
       </c>
       <c r="BQ21">
-        <v>-1.404814898274077</v>
+        <v>-1.179297597042514</v>
       </c>
       <c r="BR21">
-        <v>-0.993643133601935</v>
+        <v>-0.937219730941704</v>
       </c>
       <c r="BS21">
-        <v>-1.165138450700119</v>
+        <v>-1.027777777777778</v>
       </c>
       <c r="BT21">
-        <v>-0.3420237292408756</v>
+        <v>-0.2706096216839915</v>
       </c>
       <c r="BU21">
-        <v>-0.8165002819370537</v>
+        <v>-0.8648648648648649</v>
       </c>
       <c r="BV21">
-        <v>-0.2604788781107784</v>
+        <v>-0.2316684378320935</v>
       </c>
       <c r="BW21">
-        <v>-1.028483168801719</v>
+        <v>-1</v>
       </c>
       <c r="BX21">
-        <v>-1.096726336589676</v>
+        <v>-1.06601466992665</v>
       </c>
       <c r="BY21">
-        <v>1.225986186415791</v>
+        <v>1.070175438596491</v>
       </c>
       <c r="BZ21">
-        <v>2.334204002775052</v>
+        <v>2.310704960835508</v>
       </c>
       <c r="CA21">
-        <v>0.6465667878878172</v>
+        <v>0.5758039816232773</v>
       </c>
       <c r="CB21">
-        <v>0.1029287778830218</v>
+        <v>0.101818181818182</v>
       </c>
       <c r="CC21">
-        <v>1.552064267113717</v>
+        <v>1.375000000000001</v>
       </c>
       <c r="CD21">
-        <v>1.558735006861653</v>
+        <v>1.476190476190476</v>
       </c>
       <c r="CE21">
-        <v>1.282907634293724</v>
+        <v>1.241982691920744</v>
       </c>
       <c r="CF21">
-        <v>0.9934458445430249</v>
+        <v>0.8695652173913033</v>
       </c>
       <c r="CG21">
-        <v>1.004267128834259</v>
+        <v>1.014084507042254</v>
       </c>
       <c r="CH21">
-        <v>0.9720868843862315</v>
+        <v>1.16885584887893</v>
       </c>
       <c r="CI21">
-        <v>1.193027375059085</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="CJ21">
-        <v>-0.3626413857917554</v>
+        <v>-0.2347463642699855</v>
       </c>
       <c r="CK21">
         <v>0</v>
@@ -7424,19 +7424,19 @@
         <v>1</v>
       </c>
       <c r="CM21">
-        <v>1.109388355815529</v>
+        <v>0.9571879224876065</v>
       </c>
       <c r="CN21">
-        <v>0.6747453685319719</v>
+        <v>0.7521047708138446</v>
       </c>
       <c r="CO21">
-        <v>-0.2464647218158057</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP21">
-        <v>0.2802367400700321</v>
+        <v>0</v>
       </c>
       <c r="CQ21">
-        <v>0.9687605497954969</v>
+        <v>1</v>
       </c>
       <c r="CR21">
         <v>1</v>
@@ -7451,25 +7451,25 @@
         <v>1.666666666666667</v>
       </c>
       <c r="CV21">
-        <v>-0.1825897680623814</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="CW21">
-        <v>-0.1535809546141689</v>
+        <v>-0.16</v>
       </c>
       <c r="CX21">
-        <v>-0.9898340866494487</v>
+        <v>-0.9243635248840107</v>
       </c>
       <c r="CY21">
-        <v>-0.8721932409696806</v>
+        <v>-0.7042583078014708</v>
       </c>
       <c r="CZ21">
-        <v>-0.9538653258137361</v>
+        <v>-0.9041789867767833</v>
       </c>
       <c r="DA21">
-        <v>-0.9828646024931016</v>
+        <v>-1.127049180327869</v>
       </c>
       <c r="DB21">
-        <v>1.740845060014032</v>
+        <v>1.613393905111061</v>
       </c>
       <c r="DC21">
         <v>0</v>
@@ -7483,28 +7483,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3243243243243243</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D22">
-        <v>-0.1774816755005546</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E22">
-        <v>-0.7192546586468843</v>
+        <v>-0.7887323943661971</v>
       </c>
       <c r="F22">
-        <v>-0.7232168595278549</v>
+        <v>-0.5809773635578173</v>
       </c>
       <c r="G22">
-        <v>-0.5913460140659499</v>
+        <v>-0.6137975196795403</v>
       </c>
       <c r="H22">
-        <v>0.1427678534040016</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="I22">
-        <v>-0.3559217787796198</v>
+        <v>-0.2666666666666667</v>
       </c>
       <c r="J22">
-        <v>0.2318338198108706</v>
+        <v>0.196668101165915</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -7528,13 +7528,13 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>-0.09306345809779873</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="S22">
-        <v>-0.05249311887600635</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>-0.5639928444575772</v>
+        <v>-0.425531914893617</v>
       </c>
       <c r="U22">
         <v>3</v>
@@ -7672,94 +7672,94 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>3.056251206103939</v>
+        <v>2.255082893832575</v>
       </c>
       <c r="BO22">
-        <v>0.1517792218285068</v>
+        <v>0.1523314325755691</v>
       </c>
       <c r="BP22">
-        <v>0.0647438931402987</v>
+        <v>0.08207587261114177</v>
       </c>
       <c r="BQ22">
-        <v>1.126931133471955</v>
+        <v>1.179297597042514</v>
       </c>
       <c r="BR22">
-        <v>0.4361814278015742</v>
+        <v>0.5246636771300454</v>
       </c>
       <c r="BS22">
-        <v>3.152641953799662</v>
+        <v>3.194444444444444</v>
       </c>
       <c r="BT22">
-        <v>-0.2674315986437157</v>
+        <v>-0.1841898685975717</v>
       </c>
       <c r="BU22">
-        <v>0.8165002819370537</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV22">
-        <v>-0.5515606861102215</v>
+        <v>-0.6652497343251857</v>
       </c>
       <c r="BW22">
-        <v>0.7629585239420823</v>
+        <v>0.6396396396396408</v>
       </c>
       <c r="BX22">
-        <v>0.5323914255289691</v>
+        <v>0.4303178484107578</v>
       </c>
       <c r="BY22">
-        <v>-0.2451972372831582</v>
+        <v>-0.2982456140350877</v>
       </c>
       <c r="BZ22">
-        <v>2.869637073641194</v>
+        <v>2.843342036553524</v>
       </c>
       <c r="CA22">
-        <v>5.691019289199242</v>
+        <v>4.757529351710057</v>
       </c>
       <c r="CB22">
-        <v>3.470170225770444</v>
+        <v>3.432727272727274</v>
       </c>
       <c r="CC22">
         <v>0</v>
       </c>
       <c r="CD22">
-        <v>0.08254453067117681</v>
+        <v>0</v>
       </c>
       <c r="CE22">
-        <v>0.5884165605836968</v>
+        <v>0.5335830297758941</v>
       </c>
       <c r="CF22">
-        <v>0.3973783378172098</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG22">
-        <v>0.3376004621675924</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="CH22">
-        <v>0.8124599904855828</v>
+        <v>0.9731102603570156</v>
       </c>
       <c r="CI22">
-        <v>-0.5387990607331775</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ22">
-        <v>-0.7813492275015843</v>
+        <v>-0.620961072490161</v>
       </c>
       <c r="CK22">
-        <v>-1.000000000000002</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL22">
         <v>1</v>
       </c>
       <c r="CM22">
-        <v>-0.4566712982359146</v>
+        <v>-0.2667868409193332</v>
       </c>
       <c r="CN22">
-        <v>-0.08766225798952376</v>
+        <v>0.07109448082319948</v>
       </c>
       <c r="CO22">
-        <v>-0.9858588872632261</v>
+        <v>-1</v>
       </c>
       <c r="CP22">
-        <v>-0.3864299265966346</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ22">
-        <v>-0.4843802748977484</v>
+        <v>-0.5</v>
       </c>
       <c r="CR22">
         <v>1</v>
@@ -7774,25 +7774,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV22">
-        <v>0.455698931858678</v>
+        <v>0.3604032508026312</v>
       </c>
       <c r="CW22">
-        <v>-0.2883231199085189</v>
+        <v>-0.2769781896744977</v>
       </c>
       <c r="CX22">
-        <v>-0.2178460304280503</v>
+        <v>-0.1088608738632839</v>
       </c>
       <c r="CY22">
-        <v>0.1556039995613539</v>
+        <v>0.1451549576657031</v>
       </c>
       <c r="CZ22">
-        <v>0.1216656411220419</v>
+        <v>0.1371339075733353</v>
       </c>
       <c r="DA22">
-        <v>-0.2546266239230386</v>
+        <v>-0.2152662132344728</v>
       </c>
       <c r="DB22">
-        <v>0.6706034610437651</v>
+        <v>0.6226358883084573</v>
       </c>
       <c r="DC22">
         <v>0</v>
@@ -7806,28 +7806,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>-0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3549633510011093</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E23">
-        <v>0.5160394590001746</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="F23">
-        <v>0.184884303811628</v>
+        <v>0.1975160620207126</v>
       </c>
       <c r="G23">
-        <v>0.5263302342331402</v>
+        <v>0.4582606653760406</v>
       </c>
       <c r="H23">
-        <v>-0.4286607180245698</v>
+        <v>-0.3760683760683761</v>
       </c>
       <c r="I23">
-        <v>-0.8788749832321469</v>
+        <v>-0.8</v>
       </c>
       <c r="J23">
-        <v>0.4636676396217413</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -7851,13 +7851,13 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>-0.4984584857070815</v>
+        <v>-0.3768115942028986</v>
       </c>
       <c r="S23">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T23">
-        <v>-0.09399880740959622</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>6</v>
@@ -7995,73 +7995,73 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <v>1.075725820363331</v>
+        <v>0.7728006301012332</v>
       </c>
       <c r="BO23">
-        <v>-0.05874952388647145</v>
+        <v>-0.03290358943632292</v>
       </c>
       <c r="BP23">
-        <v>-0.00567721700398363</v>
+        <v>0.01585700784604748</v>
       </c>
       <c r="BQ23">
-        <v>-1.095291088750267</v>
+        <v>-0.8909426987060995</v>
       </c>
       <c r="BR23">
-        <v>-0.7918887476370229</v>
+        <v>-0.7309417040358746</v>
       </c>
       <c r="BS23">
-        <v>-0.5970094501080428</v>
+        <v>-0.4722222222222224</v>
       </c>
       <c r="BT23">
-        <v>-0.4485839158082467</v>
+        <v>-0.3940664118074484</v>
       </c>
       <c r="BU23">
-        <v>1.687433916003244</v>
+        <v>1.621621621621622</v>
       </c>
       <c r="BV23">
-        <v>0.1561676313786208</v>
+        <v>0.388947927736451</v>
       </c>
       <c r="BW23">
-        <v>1.648836284090116</v>
+        <v>1.450450450450452</v>
       </c>
       <c r="BX23">
-        <v>-0.8145588810593226</v>
+        <v>-0.8068459657701711</v>
       </c>
       <c r="BY23">
-        <v>1.188263534526075</v>
+        <v>1.035087719298246</v>
       </c>
       <c r="BZ23">
-        <v>0.3079572836149483</v>
+        <v>0.2950391644908615</v>
       </c>
       <c r="CA23">
-        <v>0.1613338080253411</v>
+        <v>0.1735579377233283</v>
       </c>
       <c r="CB23">
-        <v>0.5587562227935462</v>
+        <v>0.552727272727273</v>
       </c>
       <c r="CC23">
-        <v>0.282193503111584</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD23">
-        <v>0.4158778640045102</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CE23">
-        <v>0.07482833858222919</v>
+        <v>0.009709164840773176</v>
       </c>
       <c r="CF23">
-        <v>0.5960675067258151</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG23">
-        <v>0.5042671288342591</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="CH23">
-        <v>0.4300749632927918</v>
+        <v>0.5042031710766356</v>
       </c>
       <c r="CI23">
-        <v>-0.1742040216190169</v>
+        <v>-0.2127659574468085</v>
       </c>
       <c r="CJ23">
-        <v>-0.6970158459557884</v>
+        <v>-0.5431722443327404</v>
       </c>
       <c r="CK23">
         <v>0</v>
@@ -8070,19 +8070,19 @@
         <v>1</v>
       </c>
       <c r="CM23">
-        <v>-0.3034557712570672</v>
+        <v>-0.1470392068499326</v>
       </c>
       <c r="CN23">
-        <v>-0.4965470135612224</v>
+        <v>-0.2941362911131902</v>
       </c>
       <c r="CO23">
-        <v>-0.9858588872632261</v>
+        <v>-1</v>
       </c>
       <c r="CP23">
-        <v>-0.3864299265966346</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ23">
-        <v>-0.4843802748977484</v>
+        <v>-0.5</v>
       </c>
       <c r="CR23">
         <v>1</v>
@@ -8097,25 +8097,25 @@
         <v>0</v>
       </c>
       <c r="CV23">
-        <v>-0.2434530240831752</v>
+        <v>-0.2777777777777778</v>
       </c>
       <c r="CW23">
-        <v>0.3993104819968391</v>
+        <v>0.32</v>
       </c>
       <c r="CX23">
-        <v>-1.053178208153669</v>
+        <v>-0.9912781598928919</v>
       </c>
       <c r="CY23">
-        <v>-0.601724415865129</v>
+        <v>-0.4807319167202622</v>
       </c>
       <c r="CZ23">
-        <v>1.690729807812111</v>
+        <v>1.656278217747954</v>
       </c>
       <c r="DA23">
-        <v>-0.04014071722120402</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="DB23">
-        <v>1.740845060014032</v>
+        <v>1.613393905111061</v>
       </c>
       <c r="DC23">
         <v>0</v>
@@ -8129,28 +8129,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-0.4324324324324325</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D24">
-        <v>0.4437041887513866</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
-        <v>0.4572159295884098</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="F24">
-        <v>0.06568639743139584</v>
+        <v>0.09533054546604917</v>
       </c>
       <c r="G24">
-        <v>0.5056637302960824</v>
+        <v>0.4384376667787961</v>
       </c>
       <c r="H24">
-        <v>-0.6786607180245697</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I24">
-        <v>-0.8265796627868942</v>
+        <v>-0.7466666666666667</v>
       </c>
       <c r="J24">
-        <v>0.4636676396217413</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -8174,13 +8174,13 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>-0.2011687987936075</v>
+        <v>-0.05797101449275362</v>
       </c>
       <c r="S24">
-        <v>-0.2066290708076014</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T24">
-        <v>-0.09399880740959622</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>6</v>
@@ -8318,73 +8318,73 @@
         <v>1</v>
       </c>
       <c r="BN24">
-        <v>-0.1245988481981531</v>
+        <v>-0.1255569369049366</v>
       </c>
       <c r="BO24">
-        <v>0.07998707279631576</v>
+        <v>0.08916466520089976</v>
       </c>
       <c r="BP24">
-        <v>-0.06584544521155053</v>
+        <v>-0.04072079614864994</v>
       </c>
       <c r="BQ24">
-        <v>-1.095291088750267</v>
+        <v>-0.8909426987060995</v>
       </c>
       <c r="BR24">
-        <v>-1.081362431847549</v>
+        <v>-1.026905829596413</v>
       </c>
       <c r="BS24">
-        <v>-0.8242610503448733</v>
+        <v>-0.6944444444444444</v>
       </c>
       <c r="BT24">
-        <v>0.5104577632980931</v>
+        <v>0.7170446993036628</v>
       </c>
       <c r="BU24">
-        <v>0.1088667042582738</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="BV24">
-        <v>0.3502221700449161</v>
+        <v>0.6780021253985125</v>
       </c>
       <c r="BW24">
-        <v>0.2314318678532631</v>
+        <v>0.1531531531531548</v>
       </c>
       <c r="BX24">
-        <v>0.1703652561692703</v>
+        <v>0.09779951100244498</v>
       </c>
       <c r="BY24">
-        <v>0.1697519335037249</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="BZ24">
-        <v>0.09273418650208742</v>
+        <v>0.08093994778067867</v>
       </c>
       <c r="CA24">
-        <v>0.01847333679679477</v>
+        <v>0.05513016845329242</v>
       </c>
       <c r="CB24">
-        <v>-0.6175726672981298</v>
+        <v>-0.6109090909090908</v>
       </c>
       <c r="CC24">
-        <v>-0.8465805093347569</v>
+        <v>-0.7500000000000028</v>
       </c>
       <c r="CD24">
-        <v>-0.6793602312335851</v>
+        <v>-0.7619047619047619</v>
       </c>
       <c r="CE24">
-        <v>-1.038687843679721</v>
+        <v>-1.126107431178638</v>
       </c>
       <c r="CF24">
-        <v>-0.1986891689086053</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG24">
-        <v>-0.3846217600546298</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="CH24">
-        <v>-0.4898368571229157</v>
+        <v>-0.6238566205748438</v>
       </c>
       <c r="CI24">
-        <v>-0.8122453400687979</v>
+        <v>-0.8085106382978723</v>
       </c>
       <c r="CJ24">
-        <v>-0.2575030246061568</v>
+        <v>-0.1377670927038609</v>
       </c>
       <c r="CK24">
         <v>0</v>
@@ -8393,19 +8393,19 @@
         <v>1</v>
       </c>
       <c r="CM24">
-        <v>-1.164742452571398</v>
+        <v>-0.8201892744479496</v>
       </c>
       <c r="CN24">
-        <v>-1.289920438273422</v>
+        <v>-1.002806361085126</v>
       </c>
       <c r="CO24">
-        <v>0.4929294436316136</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP24">
-        <v>-0.05309659326330129</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ24">
-        <v>0.9687605497954969</v>
+        <v>1</v>
       </c>
       <c r="CR24">
         <v>1</v>
@@ -8420,25 +8420,25 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="CV24">
-        <v>1.217265120415876</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="CW24">
-        <v>-0.8293371549165119</v>
+        <v>-0.7466666666666667</v>
       </c>
       <c r="CX24">
-        <v>-1.022318251523408</v>
+        <v>-0.9586787223244625</v>
       </c>
       <c r="CY24">
-        <v>-0.6918806908999796</v>
+        <v>-0.5552407137473317</v>
       </c>
       <c r="CZ24">
-        <v>-0.02845647060831113</v>
+        <v>-0.008212061513224907</v>
       </c>
       <c r="DA24">
-        <v>0.293740658812593</v>
+        <v>0.4713114754098361</v>
       </c>
       <c r="DB24">
-        <v>-1.469628426590277</v>
+        <v>-1.358647499040894</v>
       </c>
       <c r="DC24">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2162162162162162</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D25">
-        <v>0.6211858642519412</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E25">
-        <v>1.221921811941351</v>
+        <v>1.070422535211268</v>
       </c>
       <c r="F25">
-        <v>0.6731308658989666</v>
+        <v>0.616078171608296</v>
       </c>
       <c r="G25">
-        <v>1.11841359239338</v>
+        <v>1.026178084500637</v>
       </c>
       <c r="H25">
-        <v>-1.464375003738855</v>
+        <v>-1.367521367521368</v>
       </c>
       <c r="I25">
-        <v>-0.09444517655335634</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1.159169099054353</v>
+        <v>0.9833405058295749</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -8497,13 +8497,13 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <v>1.150147959904002</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="S25">
-        <v>1.93414803935344</v>
+        <v>2.761904761904762</v>
       </c>
       <c r="T25">
-        <v>-0.2819964222287886</v>
+        <v>-0.1702127659574468</v>
       </c>
       <c r="U25">
         <v>6</v>
@@ -8641,73 +8641,73 @@
         <v>1</v>
       </c>
       <c r="BN25">
-        <v>20.18311169958909</v>
+        <v>15.07331876481626</v>
       </c>
       <c r="BO25">
-        <v>0.4209099949605958</v>
+        <v>0.3891278116918544</v>
       </c>
       <c r="BP25">
-        <v>0.3673892848463374</v>
+        <v>0.3666614780368514</v>
       </c>
       <c r="BQ25">
-        <v>0.3570898636306848</v>
+        <v>0.4621072088724584</v>
       </c>
       <c r="BR25">
-        <v>0.1467077435910478</v>
+        <v>0.2286995515695071</v>
       </c>
       <c r="BS25">
-        <v>1.363035601934621</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="BT25">
-        <v>-0.28874363595719</v>
+        <v>-0.208881226622263</v>
       </c>
       <c r="BU25">
-        <v>-0.4899001691622322</v>
+        <v>-0.5405405405405406</v>
       </c>
       <c r="BV25">
-        <v>-0.3803360931693727</v>
+        <v>-0.4102019128586609</v>
       </c>
       <c r="BW25">
-        <v>-0.4772703402651639</v>
+        <v>-0.4954954954954945</v>
       </c>
       <c r="BX25">
-        <v>0.5323914255289691</v>
+        <v>0.4303178484107578</v>
       </c>
       <c r="BY25">
-        <v>-0.2074745853934416</v>
+        <v>-0.2631578947368421</v>
       </c>
       <c r="BZ25">
-        <v>10.83289166681705</v>
+        <v>10.76501305483028</v>
       </c>
       <c r="CA25">
-        <v>16.34643995359047</v>
+        <v>13.59060745278203</v>
       </c>
       <c r="CB25">
-        <v>0.5587562227935462</v>
+        <v>0.552727272727273</v>
       </c>
       <c r="CC25">
-        <v>1.975354521781093</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CD25">
-        <v>2.034925483052129</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="CE25">
-        <v>-5.321690321576376</v>
+        <v>-5.494885696533812</v>
       </c>
       <c r="CF25">
-        <v>1.390824182360235</v>
+        <v>1.217391304347825</v>
       </c>
       <c r="CG25">
-        <v>1.559822684389815</v>
+        <v>1.577464788732394</v>
       </c>
       <c r="CH25">
-        <v>-3.029144668002158</v>
+        <v>-3.737732294859527</v>
       </c>
       <c r="CI25">
-        <v>1.193027375059085</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="CJ25">
-        <v>-0.7426123632508833</v>
+        <v>-0.585230318886752</v>
       </c>
       <c r="CK25">
         <v>0</v>
@@ -8716,19 +8716,19 @@
         <v>1</v>
       </c>
       <c r="CM25">
-        <v>1.759798992696983</v>
+        <v>1.465525011266336</v>
       </c>
       <c r="CN25">
-        <v>0.8213622197861058</v>
+        <v>0.883068288119738</v>
       </c>
       <c r="CO25">
-        <v>0.9858588872632272</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP25">
-        <v>1.946903406736697</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ25">
-        <v>3.875042199181983</v>
+        <v>3.999999999999996</v>
       </c>
       <c r="CR25">
         <v>1</v>
@@ -8743,25 +8743,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CV25">
-        <v>0.3991708564019849</v>
+        <v>0.3088048178267478</v>
       </c>
       <c r="CW25">
-        <v>-0.2926158749396402</v>
+        <v>-0.280705001627977</v>
       </c>
       <c r="CX25">
-        <v>6.221650515369459</v>
+        <v>6.693610306896312</v>
       </c>
       <c r="CY25">
-        <v>0.8908628041562849</v>
+        <v>0.7528026118390002</v>
       </c>
       <c r="CZ25">
-        <v>14.1295012477802</v>
+        <v>13.69930950973882</v>
       </c>
       <c r="DA25">
-        <v>1.491785596345629</v>
+        <v>1.971311475409836</v>
       </c>
       <c r="DB25">
-        <v>6.510691382969008</v>
+        <v>6.028998276993968</v>
       </c>
       <c r="DC25">
         <v>0</v>
@@ -8775,28 +8775,28 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>-0.7567567567567568</v>
+        <v>-0.4615384615384616</v>
       </c>
       <c r="D26">
-        <v>0.7099267020022185</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
-        <v>2.633686517823704</v>
+        <v>2.422535211267606</v>
       </c>
       <c r="F26">
-        <v>1.933829283062339</v>
+        <v>1.696844796539975</v>
       </c>
       <c r="G26">
-        <v>2.105488916668405</v>
+        <v>1.972965834768957</v>
       </c>
       <c r="H26">
-        <v>0.2856249962611445</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I26">
-        <v>0.3239173870086653</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="J26">
-        <v>-1.622836738676095</v>
+        <v>-1.376676708161405</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -8820,13 +8820,13 @@
         <v>1</v>
       </c>
       <c r="R26">
-        <v>-0.4984584857070815</v>
+        <v>-0.3768115942028986</v>
       </c>
       <c r="S26">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T26">
-        <v>-0.7519904592767698</v>
+        <v>-0.5957446808510638</v>
       </c>
       <c r="U26">
         <v>3</v>
@@ -8964,94 +8964,94 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>-0.4001143196547963</v>
+        <v>-0.3317606541933392</v>
       </c>
       <c r="BO26">
-        <v>-0.2083126536548206</v>
+        <v>-0.1644976363239379</v>
       </c>
       <c r="BP26">
-        <v>0.3995814321788212</v>
+        <v>0.3969326204022606</v>
       </c>
       <c r="BQ26">
-        <v>-0.6349736284328074</v>
+        <v>-0.4621072088724584</v>
       </c>
       <c r="BR26">
-        <v>-0.4673273441282508</v>
+        <v>-0.3991031390134528</v>
       </c>
       <c r="BS26">
-        <v>-0.5117901000192313</v>
+        <v>-0.388888888888889</v>
       </c>
       <c r="BT26">
-        <v>-0.03299918819549939</v>
+        <v>0.08741506967403322</v>
       </c>
       <c r="BU26">
-        <v>0.2177334085165477</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="BV26">
-        <v>1.000875623220142</v>
+        <v>1.647183846971307</v>
       </c>
       <c r="BW26">
-        <v>-0.04417454641501503</v>
+        <v>-0.09909909909909864</v>
       </c>
       <c r="BX26">
-        <v>1.011543708505041</v>
+        <v>0.8704156479217602</v>
       </c>
       <c r="BY26">
-        <v>-0.3583651929523082</v>
+        <v>-0.4035087719298245</v>
       </c>
       <c r="BZ26">
-        <v>0.3027079397829273</v>
+        <v>0.2898172323759789</v>
       </c>
       <c r="CA26">
-        <v>-0.40025563059722</v>
+        <v>-0.2919857069933641</v>
       </c>
       <c r="CB26">
-        <v>0.6028685561719839</v>
+        <v>0.5963636363636364</v>
       </c>
       <c r="CC26">
-        <v>0.564387006223168</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="CD26">
-        <v>0.558735006861653</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="CE26">
-        <v>-0.736870215261189</v>
+        <v>-0.8182452942920235</v>
       </c>
       <c r="CF26">
-        <v>-0.596067506725816</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="CG26">
-        <v>-0.6623995378324076</v>
+        <v>-0.676056338028169</v>
       </c>
       <c r="CH26">
-        <v>-1.192572967610185</v>
+        <v>-1.48560046687525</v>
       </c>
       <c r="CI26">
-        <v>2.013366213065947</v>
+        <v>1.829787234042553</v>
       </c>
       <c r="CJ26">
-        <v>1.517195518301162</v>
+        <v>1.499208888277942</v>
       </c>
       <c r="CK26">
-        <v>3.000000000000004</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CL26">
         <v>1</v>
       </c>
       <c r="CM26">
-        <v>1.493638044129182</v>
+        <v>1.257503379900856</v>
       </c>
       <c r="CN26">
-        <v>0.07152175194353574</v>
+        <v>0.2132834424695979</v>
       </c>
       <c r="CO26">
-        <v>2.464647218158066</v>
+        <v>2.5</v>
       </c>
       <c r="CP26">
-        <v>1.280236740070031</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ26">
-        <v>2.42190137448874</v>
+        <v>2.499999999999998</v>
       </c>
       <c r="CR26">
         <v>1</v>
@@ -9066,25 +9066,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV26">
-        <v>0.4260427921455566</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CW26">
-        <v>0.1535809546141689</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="CX26">
-        <v>-0.1712331318256808</v>
+        <v>-0.05962054938462266</v>
       </c>
       <c r="CY26">
-        <v>-1.763738627425425</v>
+        <v>-1.441067522846936</v>
       </c>
       <c r="CZ26">
-        <v>-0.7767612173175253</v>
+        <v>-0.7327094545280678</v>
       </c>
       <c r="DA26">
-        <v>-0.5376894344480388</v>
+        <v>-0.569672131147541</v>
       </c>
       <c r="DB26">
-        <v>0.273200037566348</v>
+        <v>0.2547464060701675</v>
       </c>
       <c r="DC26">
         <v>0</v>
@@ -9098,28 +9098,28 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>-0.2162162162162162</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D27">
-        <v>-0.5324450265016639</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E27">
-        <v>-1.954548776293943</v>
+        <v>-1.971830985915493</v>
       </c>
       <c r="F27">
-        <v>-1.867419619147873</v>
+        <v>-1.561875045284492</v>
       </c>
       <c r="G27">
-        <v>-1.790375683712673</v>
+        <v>-1.76388867838982</v>
       </c>
       <c r="H27">
-        <v>-0.7500892894531412</v>
+        <v>-0.6837606837606838</v>
       </c>
       <c r="I27">
-        <v>0.01014546433714907</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="J27">
-        <v>0.695501459432612</v>
+        <v>0.5900043034977449</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9143,13 +9143,13 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <v>-0.3633268098373206</v>
+        <v>-0.2318840579710145</v>
       </c>
       <c r="S27">
-        <v>-0.2066290708076014</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T27">
-        <v>-0.5639928444575772</v>
+        <v>-0.425531914893617</v>
       </c>
       <c r="U27">
         <v>3</v>
@@ -9287,94 +9287,94 @@
         <v>2</v>
       </c>
       <c r="BN27">
-        <v>20.18311169958909</v>
+        <v>15.07331876481626</v>
       </c>
       <c r="BO27">
-        <v>1.919343482727178</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP27">
-        <v>2.1978829613422</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ27">
-        <v>-0.8571958506550291</v>
+        <v>-0.6691312384473193</v>
       </c>
       <c r="BR27">
-        <v>-0.4848712037773736</v>
+        <v>-0.4170403587443946</v>
       </c>
       <c r="BS27">
-        <v>-0.5970094501080428</v>
+        <v>-0.4722222222222224</v>
       </c>
       <c r="BT27">
-        <v>-0.5551441023756177</v>
+        <v>-0.517523201930905</v>
       </c>
       <c r="BU27">
-        <v>-0.3266001127748215</v>
+        <v>-0.3783783783783784</v>
       </c>
       <c r="BV27">
-        <v>-0.5487069428945407</v>
+        <v>-0.6609989373007438</v>
       </c>
       <c r="BW27">
-        <v>-0.2213500984446214</v>
+        <v>-0.2612612612612606</v>
       </c>
       <c r="BX27">
-        <v>0.3779979121255678</v>
+        <v>0.2885085574572123</v>
       </c>
       <c r="BY27">
-        <v>-0.01886132594485833</v>
+        <v>-0.08771929824561403</v>
       </c>
       <c r="BZ27">
-        <v>2.166225000150381</v>
+        <v>2.143603133159269</v>
       </c>
       <c r="CA27">
-        <v>9.245289288902557</v>
+        <v>7.703930576824912</v>
       </c>
       <c r="CB27">
-        <v>-0.264674000270627</v>
+        <v>-0.2618181818181818</v>
       </c>
       <c r="CC27">
-        <v>0.282193503111584</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD27">
-        <v>0.2730207211473673</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="CE27">
-        <v>2.131311167573937</v>
+        <v>2.107377221943373</v>
       </c>
       <c r="CF27">
-        <v>0.5960675067258151</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG27">
-        <v>0.5598226843898146</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="CH27">
-        <v>1.959726031378865</v>
+        <v>2.37996759421979</v>
       </c>
       <c r="CI27">
-        <v>-0.5387990607331775</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ27">
-        <v>-0.9670875253190448</v>
+        <v>-0.792285455152657</v>
       </c>
       <c r="CK27">
-        <v>1</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL27">
         <v>1</v>
       </c>
       <c r="CM27">
-        <v>0.6296528505980027</v>
+        <v>0.5822442541685442</v>
       </c>
       <c r="CN27">
-        <v>2.107401457929509</v>
+        <v>2.031805425631432</v>
       </c>
       <c r="CO27">
-        <v>-0.4929294436316125</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP27">
-        <v>1.613570073403364</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="CQ27">
-        <v>-0.4843802748977484</v>
+        <v>-0.5</v>
       </c>
       <c r="CR27">
         <v>1</v>
@@ -9389,25 +9389,25 @@
         <v>0</v>
       </c>
       <c r="CV27">
-        <v>0.3651795361247628</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="CW27">
-        <v>0.03071619092283378</v>
+        <v>0</v>
       </c>
       <c r="CX27">
-        <v>-1.053178208153669</v>
+        <v>-0.9912781598928919</v>
       </c>
       <c r="CY27">
-        <v>-0.2911861351895328</v>
+        <v>-0.2240905047381338</v>
       </c>
       <c r="CZ27">
-        <v>7.739393549335846</v>
+        <v>7.512503413737868</v>
       </c>
       <c r="DA27">
-        <v>0.1169799303241122</v>
+        <v>0.25</v>
       </c>
       <c r="DB27">
-        <v>-0.7358059153664351</v>
+        <v>-0.6793237495204473</v>
       </c>
       <c r="DC27">
         <v>0</v>
@@ -9421,28 +9421,28 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0.1081081081081081</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E28">
-        <v>2.751333576647233</v>
+        <v>2.535211267605634</v>
       </c>
       <c r="F28">
-        <v>2.747564381599539</v>
+        <v>2.394440449918613</v>
       </c>
       <c r="G28">
-        <v>1.954369406235322</v>
+        <v>1.828014281644402</v>
       </c>
       <c r="H28">
-        <v>0.1070535676897159</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="I28">
-        <v>-0.669693701451136</v>
+        <v>-0.5866666666666667</v>
       </c>
       <c r="J28">
-        <v>0.347750729716306</v>
+        <v>0.2950021517488725</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9466,13 +9466,13 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>-0.3092741394894162</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="S28">
-        <v>-0.2066290708076014</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T28">
-        <v>0.6579916518671736</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="U28">
         <v>9</v>
@@ -9610,91 +9610,91 @@
         <v>0</v>
       </c>
       <c r="BN28">
-        <v>-0.1658683915559487</v>
+        <v>-0.1564442522567045</v>
       </c>
       <c r="BO28">
-        <v>-0.3078290377312758</v>
+        <v>-0.252057743768375</v>
       </c>
       <c r="BP28">
-        <v>-0.4200285535885598</v>
+        <v>-0.3737687033407545</v>
       </c>
       <c r="BQ28">
-        <v>0.4761374826783042</v>
+        <v>0.5730129390018487</v>
       </c>
       <c r="BR28">
-        <v>0.6379358137664866</v>
+        <v>0.730941704035875</v>
       </c>
       <c r="BS28">
-        <v>-0.3981642999008159</v>
+        <v>-0.2777777777777777</v>
       </c>
       <c r="BT28">
-        <v>0.2120892409094541</v>
+        <v>0.3713656869579838</v>
       </c>
       <c r="BU28">
-        <v>-0.5443335212913691</v>
+        <v>-0.5945945945945946</v>
       </c>
       <c r="BV28">
-        <v>-0.699955333325624</v>
+        <v>-0.8862911795961742</v>
       </c>
       <c r="BW28">
-        <v>-0.2804086157878231</v>
+        <v>-0.3153153153153142</v>
       </c>
       <c r="BX28">
-        <v>-1.118021993610835</v>
+        <v>-1.085574572127139</v>
       </c>
       <c r="BY28">
-        <v>0.4338104967317415</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BZ28">
-        <v>-0.568683136332558</v>
+        <v>-0.5770234986945169</v>
       </c>
       <c r="CA28">
-        <v>-0.5234112092425185</v>
+        <v>-0.3940786115364984</v>
       </c>
       <c r="CB28">
-        <v>-0.852838445316465</v>
+        <v>-0.8436363636363637</v>
       </c>
       <c r="CC28">
-        <v>0.8465805093347544</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD28">
-        <v>0.7015921497187959</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="CE28">
-        <v>-0.5332503769503781</v>
+        <v>-0.6105475568757552</v>
       </c>
       <c r="CF28">
-        <v>0.3973783378172098</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG28">
-        <v>0.4487115732787035</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="CH28">
-        <v>-0.1701626374632265</v>
+        <v>-0.2318498807737418</v>
       </c>
       <c r="CI28">
-        <v>0.4638372968307641</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ28">
-        <v>-0.2909897157566055</v>
+        <v>-0.168655104256538</v>
       </c>
       <c r="CK28">
-        <v>3.000000000000004</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CL28">
         <v>1</v>
       </c>
       <c r="CM28">
-        <v>2.059633683457937</v>
+        <v>1.699864803965751</v>
       </c>
       <c r="CN28">
-        <v>0.5574518875286649</v>
+        <v>0.6473339569691301</v>
       </c>
       <c r="CO28">
-        <v>1.232323609079033</v>
+        <v>1.25</v>
       </c>
       <c r="CP28">
-        <v>1.280236740070031</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ28">
         <v>0</v>
@@ -9712,25 +9712,25 @@
         <v>1</v>
       </c>
       <c r="CV28">
-        <v>-0.7912223282703195</v>
+        <v>-0.7777777777777778</v>
       </c>
       <c r="CW28">
-        <v>-0.03071619092283378</v>
+        <v>-0.05333333333333334</v>
       </c>
       <c r="CX28">
-        <v>0.6898445386227278</v>
+        <v>0.8499934236896471</v>
       </c>
       <c r="CY28">
-        <v>0.5009899868018707</v>
+        <v>0.4305959256887268</v>
       </c>
       <c r="CZ28">
-        <v>-0.07775198587838407</v>
+        <v>-0.05593923744996877</v>
       </c>
       <c r="DA28">
-        <v>0.4626319448627078</v>
+        <v>0.6827700953150567</v>
       </c>
       <c r="DB28">
-        <v>-0.09444741964648487</v>
+        <v>-0.08559699484152319</v>
       </c>
       <c r="DC28">
         <v>1</v>
@@ -9744,28 +9744,28 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-0.2162162162162162</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D29">
-        <v>0.4437041887513866</v>
+        <v>0.25</v>
       </c>
       <c r="E29">
-        <v>0.8689806354707628</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="F29">
-        <v>0.466146920163323</v>
+        <v>0.4386357814202514</v>
       </c>
       <c r="G29">
-        <v>0.8129242149355093</v>
+        <v>0.7331572852757748</v>
       </c>
       <c r="H29">
-        <v>-0.6786607180245697</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I29">
-        <v>0.01014546433714907</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="J29">
-        <v>0.2318338198108706</v>
+        <v>0.196668101165915</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -9789,13 +9789,13 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <v>-0.01198445257594217</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="S29">
-        <v>0.1016428330555885</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T29">
-        <v>0.5639928444575772</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="U29">
         <v>9</v>
@@ -9933,94 +9933,94 @@
         <v>0</v>
       </c>
       <c r="BN29">
-        <v>-0.2537106145930165</v>
+        <v>-0.2221879029829425</v>
       </c>
       <c r="BO29">
-        <v>0.310829995729406</v>
+        <v>0.2922732419683252</v>
       </c>
       <c r="BP29">
-        <v>-0.113872102704586</v>
+        <v>-0.08588155449419317</v>
       </c>
       <c r="BQ29">
-        <v>1.214232720773542</v>
+        <v>1.260628465804067</v>
       </c>
       <c r="BR29">
-        <v>0.6467077435910478</v>
+        <v>0.7399103139013457</v>
       </c>
       <c r="BS29">
-        <v>0.2267776007504679</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="BT29">
-        <v>1.863772132703706</v>
+        <v>2.284945933871564</v>
       </c>
       <c r="BU29">
-        <v>0.8709336340661906</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="BV29">
-        <v>3.446533559058599</v>
+        <v>5.290116896918171</v>
       </c>
       <c r="BW29">
-        <v>0.4282935923306039</v>
+        <v>0.333333333333335</v>
       </c>
       <c r="BX29">
-        <v>-0.3194348553173815</v>
+        <v>-0.352078239608802</v>
       </c>
       <c r="BY29">
-        <v>0.6224237561803247</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="BZ29">
-        <v>0.4076948164233472</v>
+        <v>0.394255874673629</v>
       </c>
       <c r="CA29">
-        <v>0.06034623353619632</v>
+        <v>0.08984175599795813</v>
       </c>
       <c r="CB29">
-        <v>-0.4852356671628163</v>
+        <v>-0.48</v>
       </c>
       <c r="CC29">
-        <v>1.975354521781093</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CD29">
-        <v>2.177782625909272</v>
+        <v>2.095238095238095</v>
       </c>
       <c r="CE29">
-        <v>1.629794514082387</v>
+        <v>1.595816683093642</v>
       </c>
       <c r="CF29">
-        <v>0.7947566756344204</v>
+        <v>0.6956521739130431</v>
       </c>
       <c r="CG29">
-        <v>0.7820449066120368</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="CH29">
-        <v>0.5849557542683398</v>
+        <v>0.6941287584223222</v>
       </c>
       <c r="CI29">
-        <v>2.742556291294268</v>
+        <v>2.51063829787234</v>
       </c>
       <c r="CJ29">
-        <v>0.4562565755653825</v>
+        <v>0.5206023674760608</v>
       </c>
       <c r="CK29">
-        <v>1</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL29">
         <v>1</v>
       </c>
       <c r="CM29">
-        <v>2.142664828591739</v>
+        <v>1.764758900405588</v>
       </c>
       <c r="CN29">
-        <v>1.336615725622063</v>
+        <v>1.343311506080449</v>
       </c>
       <c r="CO29">
-        <v>1.478788330894841</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="CP29">
-        <v>2.613570073403364</v>
+        <v>1.749999999999999</v>
       </c>
       <c r="CQ29">
-        <v>2.42190137448874</v>
+        <v>2.499999999999998</v>
       </c>
       <c r="CR29">
         <v>1</v>
@@ -10035,25 +10035,25 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="CV29">
-        <v>-0.0608632560207938</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="CW29">
-        <v>0.3378781001511715</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="CX29">
-        <v>-1.056426624641065</v>
+        <v>-0.994709679636937</v>
       </c>
       <c r="CY29">
-        <v>-0.9122626965407253</v>
+        <v>-0.7373733287023906</v>
       </c>
       <c r="CZ29">
-        <v>-0.02845647060831113</v>
+        <v>-0.008212061513224907</v>
       </c>
       <c r="DA29">
-        <v>0.5097815491874029</v>
+        <v>0.7418032786885246</v>
       </c>
       <c r="DB29">
-        <v>0.08974440976038732</v>
+        <v>0.08491546869005558</v>
       </c>
       <c r="DC29">
         <v>0</v>
@@ -10067,28 +10067,28 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.3243243243243243</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D30">
-        <v>-1.24237172850388</v>
+        <v>-1.333333333333331</v>
       </c>
       <c r="E30">
-        <v>-0.07219583511747253</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="F30">
-        <v>0.7926706275895028</v>
+        <v>0.7185567525508434</v>
       </c>
       <c r="G30">
-        <v>-0.3482417526079208</v>
+        <v>-0.3806155819631457</v>
       </c>
       <c r="H30">
-        <v>1.964196424832573</v>
+        <v>1.914529914529915</v>
       </c>
       <c r="I30">
-        <v>-0.1990358174438618</v>
+        <v>-0.1066666666666667</v>
       </c>
       <c r="J30">
-        <v>1.275086008959789</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10112,13 +10112,13 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>-0.3903531450112728</v>
+        <v>-0.2608695652173913</v>
       </c>
       <c r="S30">
-        <v>-0.2066290708076014</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T30">
-        <v>1.97397495560152</v>
+        <v>1.872340425531915</v>
       </c>
       <c r="U30">
         <v>12</v>
@@ -10256,94 +10256,94 @@
         <v>0</v>
       </c>
       <c r="BN30">
-        <v>0.2018432397620097</v>
+        <v>0.1187617275275476</v>
       </c>
       <c r="BO30">
-        <v>-0.3406318170800678</v>
+        <v>-0.2809194725270261</v>
       </c>
       <c r="BP30">
-        <v>-0.4483319039875452</v>
+        <v>-0.4003831053095605</v>
       </c>
       <c r="BQ30">
-        <v>0.1824866890275104</v>
+        <v>0.2994454713493532</v>
       </c>
       <c r="BR30">
-        <v>0.5677603751699952</v>
+        <v>0.6591928251121081</v>
       </c>
       <c r="BS30">
-        <v>-0.2845384997824008</v>
+        <v>-0.1666666666666668</v>
       </c>
       <c r="BT30">
-        <v>-0.5658001210323548</v>
+        <v>-0.5298688809432507</v>
       </c>
       <c r="BU30">
-        <v>-0.2721667606456846</v>
+        <v>-0.3243243243243243</v>
       </c>
       <c r="BV30">
-        <v>-0.423142241404585</v>
+        <v>-0.4739638682252924</v>
       </c>
       <c r="BW30">
-        <v>-0.3788394780264935</v>
+        <v>-0.4054054054054043</v>
       </c>
       <c r="BX30">
-        <v>-1.953876531691317</v>
+        <v>-1.853300733496333</v>
       </c>
       <c r="BY30">
-        <v>0.7733143637391914</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="BZ30">
-        <v>-0.2064784119231093</v>
+        <v>-0.2167101827676241</v>
       </c>
       <c r="CA30">
-        <v>-0.245079601504144</v>
+        <v>-0.1633486472690149</v>
       </c>
       <c r="CB30">
-        <v>-0.1470411112614595</v>
+        <v>-0.1454545454545455</v>
       </c>
       <c r="CC30">
-        <v>-1.128774012446341</v>
+        <v>-1.000000000000002</v>
       </c>
       <c r="CD30">
-        <v>-0.8222173740907279</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="CE30">
-        <v>-0.6581813087168801</v>
+        <v>-0.7379804832372873</v>
       </c>
       <c r="CF30">
-        <v>-0.7947566756344204</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="CG30">
-        <v>-0.8290662044990742</v>
+        <v>-0.8450704225352113</v>
       </c>
       <c r="CH30">
-        <v>-0.6819499838279877</v>
+        <v>-0.8594390849750777</v>
       </c>
       <c r="CI30">
-        <v>-0.3565015411760972</v>
+        <v>-0.3829787234042553</v>
       </c>
       <c r="CJ30">
-        <v>0.5728956676459107</v>
+        <v>0.6281898746289987</v>
       </c>
       <c r="CK30">
-        <v>-2.000000000000002</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CL30">
         <v>1</v>
       </c>
       <c r="CM30">
-        <v>-1.044347292127384</v>
+        <v>-0.7260928346101848</v>
       </c>
       <c r="CN30">
-        <v>-0.7914231440093669</v>
+        <v>-0.5575304022450892</v>
       </c>
       <c r="CO30">
-        <v>0.7393941654474193</v>
+        <v>0.7499999999999997</v>
       </c>
       <c r="CP30">
-        <v>0.6135700734033653</v>
+        <v>0.25</v>
       </c>
       <c r="CQ30">
-        <v>1.453140824693243</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR30">
         <v>1</v>
@@ -10358,25 +10358,25 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="CV30">
-        <v>-0.9738120963327008</v>
+        <v>-0.9444444444444444</v>
       </c>
       <c r="CW30">
-        <v>0.09214857276850133</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="CX30">
-        <v>-0.3953738694559982</v>
+        <v>-0.2963954117237408</v>
       </c>
       <c r="CY30">
-        <v>-2.525058283275273</v>
+        <v>-2.070252919964413</v>
       </c>
       <c r="CZ30">
-        <v>-0.6291744602373499</v>
+        <v>-0.5898181776541382</v>
       </c>
       <c r="DA30">
-        <v>-0.5835162899820894</v>
+        <v>-0.6270491803278688</v>
       </c>
       <c r="DB30">
-        <v>-0.5523502875604744</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC30">
         <v>0</v>
@@ -10390,28 +10390,28 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-2.054054054054054</v>
+        <v>-1.384615384615385</v>
       </c>
       <c r="D31">
-        <v>0.7099267020022185</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
-        <v>2.221921811941351</v>
+        <v>2.028169014084507</v>
       </c>
       <c r="F31">
-        <v>1.546753676804757</v>
+        <v>1.36501412960722</v>
       </c>
       <c r="G31">
-        <v>1.834852519451075</v>
+        <v>1.713375488054216</v>
       </c>
       <c r="H31">
-        <v>-0.2143750037388555</v>
+        <v>-0.1709401709401709</v>
       </c>
       <c r="I31">
-        <v>-0.7742843423416415</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J31">
-        <v>-0.8114183693380473</v>
+        <v>-0.6883383540807024</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -10435,13 +10435,13 @@
         <v>1</v>
       </c>
       <c r="R31">
-        <v>-1.011958854012173</v>
+        <v>-0.927536231884058</v>
       </c>
       <c r="S31">
-        <v>-0.5662796253146563</v>
+        <v>-0.7142857142857145</v>
       </c>
       <c r="T31">
-        <v>-0.09399880740959622</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>6</v>
@@ -10579,73 +10579,73 @@
         <v>0</v>
       </c>
       <c r="BN31">
-        <v>-0.08023408908852292</v>
+        <v>-0.09235307290178608</v>
       </c>
       <c r="BO31">
-        <v>-0.1588660995625527</v>
+        <v>-0.1209917791803553</v>
       </c>
       <c r="BP31">
-        <v>-0.2777293448142513</v>
+        <v>-0.2399609283326673</v>
       </c>
       <c r="BQ31">
-        <v>0.007883514424335998</v>
+        <v>0.1367837338262481</v>
       </c>
       <c r="BR31">
-        <v>-0.1164501511457947</v>
+        <v>-0.04035874439461878</v>
       </c>
       <c r="BS31">
-        <v>-0.7390417002560618</v>
+        <v>-0.611111111111111</v>
       </c>
       <c r="BT31">
-        <v>1.128506845388846</v>
+        <v>1.433094082019712</v>
       </c>
       <c r="BU31">
-        <v>-0.4899001691622322</v>
+        <v>-0.5405405405405406</v>
       </c>
       <c r="BV31">
-        <v>-0.2718938509735017</v>
+        <v>-0.2486716259298618</v>
       </c>
       <c r="BW31">
-        <v>-0.4575841678174295</v>
+        <v>-0.4774774774774762</v>
       </c>
       <c r="BX31">
-        <v>-0.4365609689337548</v>
+        <v>-0.4596577017114917</v>
       </c>
       <c r="BY31">
-        <v>1.225986186415791</v>
+        <v>1.070175438596491</v>
       </c>
       <c r="BZ31">
-        <v>-0.3744574145477811</v>
+        <v>-0.3838120104438642</v>
       </c>
       <c r="CA31">
-        <v>-0.3657720685765364</v>
+        <v>-0.2633996937212865</v>
       </c>
       <c r="CB31">
-        <v>-0.573460333919692</v>
+        <v>-0.5672727272727273</v>
       </c>
       <c r="CC31">
-        <v>-0.2821935031115865</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD31">
-        <v>-0.2031697550431089</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="CE31">
-        <v>-1.271506878756609</v>
+        <v>-1.363589138334777</v>
       </c>
       <c r="CF31">
-        <v>-0.7947566756344204</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="CG31">
-        <v>-0.4401773156101854</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH31">
-        <v>-0.9321328476018776</v>
+        <v>-1.166230695779697</v>
       </c>
       <c r="CI31">
-        <v>0.1903910174951437</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ31">
-        <v>0.4232948453414618</v>
+        <v>0.4901985781205083</v>
       </c>
       <c r="CK31">
         <v>0</v>
@@ -10654,19 +10654,19 @@
         <v>1</v>
       </c>
       <c r="CM31">
-        <v>-0.8855271628520049</v>
+        <v>-0.6019648490310953</v>
       </c>
       <c r="CN31">
-        <v>-1.466698470356977</v>
+        <v>-1.160710944808232</v>
       </c>
       <c r="CO31">
         <v>0</v>
       </c>
       <c r="CP31">
-        <v>0.2802367400700321</v>
+        <v>0</v>
       </c>
       <c r="CQ31">
-        <v>-0.4843802748977484</v>
+        <v>-0.5</v>
       </c>
       <c r="CR31">
         <v>1</v>
@@ -10681,25 +10681,25 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="CV31">
-        <v>0.6086325602079381</v>
+        <v>0.5</v>
       </c>
       <c r="CW31">
-        <v>0.3993104819968391</v>
+        <v>0.32</v>
       </c>
       <c r="CX31">
-        <v>-1.062923457615856</v>
+        <v>-1.001572719125027</v>
       </c>
       <c r="CY31">
-        <v>-0.3512903185460999</v>
+        <v>-0.2737630360895135</v>
       </c>
       <c r="CZ31">
-        <v>-0.8006942049521485</v>
+        <v>-0.7558810129400564</v>
       </c>
       <c r="DA31">
-        <v>0.3723009825852512</v>
+        <v>0.569672131147541</v>
       </c>
       <c r="DB31">
-        <v>-0.093711218045573</v>
+        <v>-0.08491546869005595</v>
       </c>
       <c r="DC31">
         <v>0</v>
@@ -10713,25 +10713,25 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>-2.486486486486486</v>
+        <v>-1.692307692307692</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E32">
-        <v>0.2807453413531157</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F32">
-        <v>0.2013837223610729</v>
+        <v>0.211660619240941</v>
       </c>
       <c r="G32">
-        <v>0.2527446635318015</v>
+        <v>0.195841515975824</v>
       </c>
       <c r="H32">
-        <v>0.8213392819754303</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="I32">
-        <v>1.892777000366246</v>
+        <v>2.026666666666667</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>1</v>
       </c>
       <c r="R32">
-        <v>-1.174116865055886</v>
+        <v>-1.101449275362319</v>
       </c>
       <c r="S32">
-        <v>-0.6005320590772328</v>
+        <v>-0.7619047619047621</v>
       </c>
       <c r="T32">
-        <v>0.845989266686366</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="U32">
         <v>9</v>
@@ -10902,91 +10902,91 @@
         <v>0</v>
       </c>
       <c r="BN32">
-        <v>0.8799018371305906</v>
+        <v>0.6262403187570944</v>
       </c>
       <c r="BO32">
-        <v>0.7787486005147798</v>
+        <v>0.7039743270758966</v>
       </c>
       <c r="BP32">
-        <v>1.357146642531534</v>
+        <v>1.297356953932221</v>
       </c>
       <c r="BQ32">
-        <v>0.6983597049005267</v>
+        <v>0.7800369685767102</v>
       </c>
       <c r="BR32">
-        <v>0.9010937085033286</v>
+        <v>1</v>
       </c>
       <c r="BS32">
-        <v>-0.4833836499896275</v>
+        <v>-0.3611111111111112</v>
       </c>
       <c r="BT32">
-        <v>0.2334012782229283</v>
+        <v>0.3960570449826752</v>
       </c>
       <c r="BU32">
-        <v>0.8165002819370537</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV32">
-        <v>-0.899717358423281</v>
+        <v>-1.18384697130712</v>
       </c>
       <c r="BW32">
-        <v>0.5070382821215399</v>
+        <v>0.4054054054054069</v>
       </c>
       <c r="BX32">
-        <v>-0.1597174276586907</v>
+        <v>-0.2053789731051346</v>
       </c>
       <c r="BY32">
-        <v>0.9996502750774913</v>
+        <v>0.8596491228070176</v>
       </c>
       <c r="BZ32">
-        <v>-0.3849561022118231</v>
+        <v>-0.3942558746736292</v>
       </c>
       <c r="CA32">
-        <v>0.5258743208154245</v>
+        <v>0.4757529351710056</v>
       </c>
       <c r="CB32">
-        <v>0.4411233337843785</v>
+        <v>0.4363636363636364</v>
       </c>
       <c r="CC32">
-        <v>1.410967515557925</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD32">
-        <v>1.368258816385463</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="CE32">
-        <v>1.285798902525586</v>
+        <v>1.244931863646854</v>
       </c>
       <c r="CF32">
-        <v>1.589513351268842</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="CG32">
-        <v>1.837600462167592</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="CH32">
-        <v>1.995498757945149</v>
+        <v>2.423834597101579</v>
       </c>
       <c r="CI32">
-        <v>-0.5387990607331775</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ32">
-        <v>-1.829112232511157</v>
+        <v>-1.58741415254521</v>
       </c>
       <c r="CK32">
-        <v>-2.000000000000002</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CL32">
         <v>1</v>
       </c>
       <c r="CM32">
-        <v>-0.3136732149499215</v>
+        <v>-0.1550247859396129</v>
       </c>
       <c r="CN32">
-        <v>-0.4269755423205197</v>
+        <v>-0.2319925163704398</v>
       </c>
       <c r="CO32">
-        <v>-0.4929294436316125</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP32">
-        <v>0.2802367400700321</v>
+        <v>0</v>
       </c>
       <c r="CQ32">
         <v>0</v>
@@ -11004,25 +11004,25 @@
         <v>1.666666666666667</v>
       </c>
       <c r="CV32">
-        <v>-0.3043162801039691</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="CW32">
-        <v>1.443660973373187</v>
+        <v>1.226666666666667</v>
       </c>
       <c r="CX32">
-        <v>-0.5066321341493079</v>
+        <v>-0.4139249629572885</v>
       </c>
       <c r="CY32">
-        <v>-1.312957252251172</v>
+        <v>-1.068523537711589</v>
       </c>
       <c r="CZ32">
-        <v>-0.6291744602373499</v>
+        <v>-0.5898181776541382</v>
       </c>
       <c r="DA32">
-        <v>-0.1121543473461406</v>
+        <v>-0.03688524590163934</v>
       </c>
       <c r="DB32">
-        <v>1.649117246111052</v>
+        <v>1.528478436421006</v>
       </c>
       <c r="DC32">
         <v>0</v>
@@ -11036,28 +11036,28 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-0.5405405405405406</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="D33">
-        <v>0.5324450265016639</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E33">
-        <v>-0.3074899527645313</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F33">
-        <v>-0.7298861124204109</v>
+        <v>-0.5866947546811613</v>
       </c>
       <c r="G33">
-        <v>-0.07536910607268091</v>
+        <v>-0.1188802586608294</v>
       </c>
       <c r="H33">
-        <v>0.3213392819754302</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="I33">
-        <v>-0.7742843423416415</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J33">
-        <v>-0.347750729716306</v>
+        <v>-0.2950021517488725</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -11081,13 +11081,13 @@
         <v>2</v>
       </c>
       <c r="R33">
-        <v>-0.4444058153591771</v>
+        <v>-0.3188405797101449</v>
       </c>
       <c r="S33">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T33">
-        <v>-0.09399880740959622</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>6</v>
@@ -11225,73 +11225,73 @@
         <v>0</v>
       </c>
       <c r="BN33">
-        <v>-0.3951619744518608</v>
+        <v>-0.328054176351127</v>
       </c>
       <c r="BO33">
-        <v>1.723126998234052</v>
+        <v>1.534891514631434</v>
       </c>
       <c r="BP33">
-        <v>1.685508677188973</v>
+        <v>1.606124610710457</v>
       </c>
       <c r="BQ33">
-        <v>1.166613673154495</v>
+        <v>1.216266173752311</v>
       </c>
       <c r="BR33">
-        <v>1.602848094468241</v>
+        <v>1.717488789237668</v>
       </c>
       <c r="BS33">
-        <v>0.1699647006912608</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="BT33">
-        <v>-0.8002325314805712</v>
+        <v>-0.8014738192148556</v>
       </c>
       <c r="BU33">
-        <v>-0.1088667042582738</v>
+        <v>-0.1621621621621622</v>
       </c>
       <c r="BV33">
-        <v>-0.04359439371903657</v>
+        <v>0.09139213602550472</v>
       </c>
       <c r="BW33">
-        <v>-0.02448837396728068</v>
+        <v>-0.08108108108108035</v>
       </c>
       <c r="BX33">
-        <v>-0.1330978563822423</v>
+        <v>-0.1809290953545233</v>
       </c>
       <c r="BY33">
-        <v>0.4715331486214581</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="BZ33">
-        <v>0.2922092521188855</v>
+        <v>0.2793733681462141</v>
       </c>
       <c r="CA33">
-        <v>-0.40025563059722</v>
+        <v>-0.2919857069933641</v>
       </c>
       <c r="CB33">
-        <v>-0.7352055563072974</v>
+        <v>-0.7272727272727274</v>
       </c>
       <c r="CC33">
-        <v>-0.2821935031115865</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD33">
-        <v>-0.2031697550431089</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="CE33">
-        <v>-0.1539354523411015</v>
+        <v>-0.2236360836954612</v>
       </c>
       <c r="CF33">
         <v>0</v>
       </c>
       <c r="CG33">
-        <v>-0.1623995378324076</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="CH33">
-        <v>-0.02626680392992303</v>
+        <v>-0.05539481150227563</v>
       </c>
       <c r="CI33">
-        <v>-0.2653527813975571</v>
+        <v>-0.2978723404255319</v>
       </c>
       <c r="CJ33">
-        <v>-0.139204246523266</v>
+        <v>-0.02864869675141547</v>
       </c>
       <c r="CK33">
         <v>0</v>
@@ -11300,19 +11300,19 @@
         <v>1</v>
       </c>
       <c r="CM33">
-        <v>-0.0276770483779346</v>
+        <v>0.06849932401982844</v>
       </c>
       <c r="CN33">
-        <v>0.008685958548906945</v>
+        <v>0.1571562207670722</v>
       </c>
       <c r="CO33">
         <v>0</v>
       </c>
       <c r="CP33">
-        <v>-0.05309659326330129</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ33">
-        <v>-0.4843802748977484</v>
+        <v>-0.5</v>
       </c>
       <c r="CR33">
         <v>1</v>
@@ -11327,25 +11327,25 @@
         <v>0</v>
       </c>
       <c r="CV33">
-        <v>0.7912223282703195</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CW33">
-        <v>-0.3378781001511715</v>
+        <v>-0.32</v>
       </c>
       <c r="CX33">
-        <v>-1.032063500985595</v>
+        <v>-0.9689732815565982</v>
       </c>
       <c r="CY33">
-        <v>0.03938687327158569</v>
+        <v>0.04910841769445454</v>
       </c>
       <c r="CZ33">
-        <v>0.2371996921360046</v>
+        <v>0.2489922368598481</v>
       </c>
       <c r="DA33">
-        <v>3.246299493934994</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB33">
-        <v>-0.093711218045573</v>
+        <v>-0.08491546869005595</v>
       </c>
       <c r="DC33">
         <v>0</v>
@@ -11359,25 +11359,25 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0.2162162162162162</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D34">
-        <v>-0.5324450265016639</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E34">
-        <v>-0.3074899527645313</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F34">
-        <v>-0.04348988853138263</v>
+        <v>0.001736324599126936</v>
       </c>
       <c r="G34">
-        <v>-0.3436880214410495</v>
+        <v>-0.3762477117704879</v>
       </c>
       <c r="H34">
-        <v>0.1784821391182874</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="I34">
-        <v>1.108347193687456</v>
+        <v>1.226666666666667</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -11404,13 +11404,13 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0.2853052343375319</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="S34">
-        <v>0.1016428330555885</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T34">
-        <v>0.5639928444575772</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="U34">
         <v>9</v>
@@ -11548,73 +11548,73 @@
         <v>1</v>
       </c>
       <c r="BN34">
-        <v>-0.04783749755265343</v>
+        <v>-0.06810653035064829</v>
       </c>
       <c r="BO34">
-        <v>-0.3317443645471439</v>
+        <v>-0.2730997923214802</v>
       </c>
       <c r="BP34">
-        <v>-0.4284197280157137</v>
+        <v>-0.3816591504449476</v>
       </c>
       <c r="BQ34">
-        <v>0.4047089112497329</v>
+        <v>0.5064695009242147</v>
       </c>
       <c r="BR34">
-        <v>0.4010937085033285</v>
+        <v>0.4887892376681618</v>
       </c>
       <c r="BS34">
-        <v>374.7942276911065</v>
+        <v>366.6111111111111</v>
       </c>
       <c r="BT34">
-        <v>-0.3313677105841384</v>
+        <v>-0.2582639426716458</v>
       </c>
       <c r="BU34">
-        <v>-1.687433916003244</v>
+        <v>-1.72972972972973</v>
       </c>
       <c r="BV34">
-        <v>-0.6400267257963268</v>
+        <v>-0.7970244420828906</v>
       </c>
       <c r="BW34">
-        <v>-1.815930066711082</v>
+        <v>-1.720720720720721</v>
       </c>
       <c r="BX34">
-        <v>-1.597174276586907</v>
+        <v>-1.525672371638142</v>
       </c>
       <c r="BY34">
-        <v>0.6601464080700413</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="BZ34">
-        <v>0.9641252626175729</v>
+        <v>0.9477806788511746</v>
       </c>
       <c r="CA34">
-        <v>-0.2007435931918365</v>
+        <v>-0.1265952016334865</v>
       </c>
       <c r="CB34">
-        <v>0.5734603339196921</v>
+        <v>0.5672727272727274</v>
       </c>
       <c r="CC34">
-        <v>-0.2821935031115865</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD34">
-        <v>-0.2031697550431089</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="CE34">
-        <v>0.04885077754248979</v>
+        <v>-0.01678864940123139</v>
       </c>
       <c r="CF34">
-        <v>-0.3973783378172107</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG34">
-        <v>-0.606843982276852</v>
+        <v>-0.6197183098591549</v>
       </c>
       <c r="CH34">
-        <v>-0.4248211599646265</v>
+        <v>-0.5441298552884576</v>
       </c>
       <c r="CI34">
-        <v>0.4638372968307641</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ34">
-        <v>0.7607943004602986</v>
+        <v>0.8015069430436627</v>
       </c>
       <c r="CK34">
         <v>0</v>
@@ -11623,19 +11623,19 @@
         <v>1</v>
       </c>
       <c r="CM34">
-        <v>-0.3205924770444046</v>
+        <v>-0.160432627309599</v>
       </c>
       <c r="CN34">
-        <v>-0.104418469561425</v>
+        <v>0.05612722170252574</v>
       </c>
       <c r="CO34">
-        <v>-0.9858588872632261</v>
+        <v>-1</v>
       </c>
       <c r="CP34">
-        <v>-0.05309659326330129</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ34">
-        <v>-0.9687605497954969</v>
+        <v>-1</v>
       </c>
       <c r="CR34">
         <v>1</v>
@@ -11650,25 +11650,25 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="CV34">
-        <v>-1.460718144499051</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="CW34">
-        <v>0.3993104819968391</v>
+        <v>0.32</v>
       </c>
       <c r="CX34">
-        <v>-1.056426624641065</v>
+        <v>-0.994709679636937</v>
       </c>
       <c r="CY34">
-        <v>-1.833860174674753</v>
+        <v>-1.499018809423546</v>
       </c>
       <c r="CZ34">
-        <v>0.3353249414379592</v>
+        <v>0.3439956263490013</v>
       </c>
       <c r="DA34">
-        <v>-0.62934314551614</v>
+        <v>-0.6844262295081968</v>
       </c>
       <c r="DB34">
-        <v>-0.6440781014634548</v>
+        <v>-0.5944082808303913</v>
       </c>
       <c r="DC34">
         <v>0</v>
@@ -11682,25 +11682,25 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>-0.4324324324324325</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D35">
-        <v>0.5324450265016639</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E35">
-        <v>0.2807453413531157</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F35">
-        <v>-0.1642821651863642</v>
+        <v>-0.1018160074899047</v>
       </c>
       <c r="G35">
-        <v>0.3937863965412927</v>
+        <v>0.331126617128646</v>
       </c>
       <c r="H35">
-        <v>0.7499107105468588</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="I35">
-        <v>1.317528475468467</v>
+        <v>1.44</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -11727,13 +11727,13 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <v>-0.3633268098373206</v>
+        <v>-0.2318840579710145</v>
       </c>
       <c r="S35">
-        <v>-0.2066290708076014</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T35">
-        <v>-0.845989266686366</v>
+        <v>-0.6808510638297872</v>
       </c>
       <c r="U35">
         <v>3</v>
@@ -11871,73 +11871,73 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>-0.2162172344524593</v>
+        <v>-0.1941267769858614</v>
       </c>
       <c r="BO35">
-        <v>-0.3435635222013181</v>
+        <v>-0.2834989514519724</v>
       </c>
       <c r="BP35">
-        <v>-0.4142275809138392</v>
+        <v>-0.3683138926417141</v>
       </c>
       <c r="BQ35">
-        <v>-0.9365609300201085</v>
+        <v>-0.7430683918669126</v>
       </c>
       <c r="BR35">
-        <v>-1.081362431847549</v>
+        <v>-1.026905829596413</v>
       </c>
       <c r="BS35">
-        <v>0.3119969508392794</v>
+        <v>0.4166666666666664</v>
       </c>
       <c r="BT35">
-        <v>0.05224896105839755</v>
+        <v>0.1861805017727987</v>
       </c>
       <c r="BU35">
-        <v>-0.4354668170330953</v>
+        <v>-0.4864864864864865</v>
       </c>
       <c r="BV35">
-        <v>-0.2119652434442046</v>
+        <v>-0.1594048884165781</v>
       </c>
       <c r="BW35">
-        <v>-0.3788394780264935</v>
+        <v>-0.4054054054054043</v>
       </c>
       <c r="BX35">
-        <v>-0.4791522829760722</v>
+        <v>-0.4987775061124695</v>
       </c>
       <c r="BY35">
-        <v>0.8487596675186246</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="BZ35">
-        <v>0.1452276248222974</v>
+        <v>0.1331592689295037</v>
       </c>
       <c r="CA35">
-        <v>-0.09482979555687986</v>
+        <v>-0.03879530372639114</v>
       </c>
       <c r="CB35">
-        <v>-0.5440521116674001</v>
+        <v>-0.5381818181818182</v>
       </c>
       <c r="CC35">
-        <v>1.693161018669509</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="CD35">
-        <v>2.130163578290225</v>
+        <v>2.047619047619047</v>
       </c>
       <c r="CE35">
-        <v>1.959507279533268</v>
+        <v>1.932132613552628</v>
       </c>
       <c r="CF35">
-        <v>1.192135013451631</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="CG35">
-        <v>1.61537823994537</v>
+        <v>1.633802816901408</v>
       </c>
       <c r="CH35">
-        <v>1.668351364144702</v>
+        <v>2.02266373191682</v>
       </c>
       <c r="CI35">
-        <v>1.284176134837625</v>
+        <v>1.148936170212766</v>
       </c>
       <c r="CJ35">
-        <v>-0.7355975144362533</v>
+        <v>-0.5787598458784425</v>
       </c>
       <c r="CK35">
         <v>0</v>
@@ -11946,19 +11946,19 @@
         <v>1</v>
       </c>
       <c r="CM35">
-        <v>1.201645183741976</v>
+        <v>1.029292474087426</v>
       </c>
       <c r="CN35">
-        <v>0.8046060082142045</v>
+        <v>0.8681010289990643</v>
       </c>
       <c r="CO35">
-        <v>1.725253052710646</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CP35">
-        <v>3.946903406736694</v>
+        <v>2.749999999999997</v>
       </c>
       <c r="CQ35">
-        <v>2.906281649386488</v>
+        <v>2.999999999999998</v>
       </c>
       <c r="CR35">
         <v>2</v>
@@ -11973,25 +11973,25 @@
         <v>0</v>
       </c>
       <c r="CV35">
-        <v>-0.4260427921455566</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW35">
-        <v>0.276445718305504</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="CX35">
-        <v>-0.08950459707625461</v>
+        <v>0.02671477175806892</v>
       </c>
       <c r="CY35">
-        <v>0.5586290977557301</v>
+        <v>0.478231221370827</v>
       </c>
       <c r="CZ35">
-        <v>2.010174158527831</v>
+        <v>1.965559430147898</v>
       </c>
       <c r="DA35">
-        <v>-0.3119264248315751</v>
+        <v>-0.2870078471833534</v>
       </c>
       <c r="DB35">
-        <v>-0.1949440176384017</v>
+        <v>-0.1786300167476789</v>
       </c>
       <c r="DC35">
         <v>0</v>
@@ -12005,28 +12005,28 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.2162162162162162</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D36">
-        <v>0.4437041887513866</v>
+        <v>0.25</v>
       </c>
       <c r="E36">
-        <v>-0.07219583511747253</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="F36">
-        <v>-0.4491914175096542</v>
+        <v>-0.346061900760783</v>
       </c>
       <c r="G36">
-        <v>0.09307985873297984</v>
+        <v>0.0426934454944396</v>
       </c>
       <c r="H36">
-        <v>-0.5000892894531412</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="I36">
-        <v>-0.7742843423416415</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J36">
-        <v>0.9273352792434826</v>
+        <v>0.78667240466366</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -12050,13 +12050,13 @@
         <v>1</v>
       </c>
       <c r="R36">
-        <v>0.09612088811986656</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="S36">
-        <v>0.1016428330555885</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T36">
-        <v>-0.4699940370479811</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U36">
         <v>3</v>
@@ -12194,94 +12194,94 @@
         <v>0</v>
       </c>
       <c r="BN36">
-        <v>-0.2969817308036652</v>
+        <v>-0.2545732531292712</v>
       </c>
       <c r="BO36">
-        <v>-0.3589607451609552</v>
+        <v>-0.2970462935223597</v>
       </c>
       <c r="BP36">
-        <v>-0.4509490870082332</v>
+        <v>-0.4028441129272671</v>
       </c>
       <c r="BQ36">
-        <v>-1.50798950144868</v>
+        <v>-1.275415896487985</v>
       </c>
       <c r="BR36">
-        <v>-1.546274712549304</v>
+        <v>-1.502242152466368</v>
       </c>
       <c r="BS36">
-        <v>-0.256132049752797</v>
+        <v>-0.138888888888889</v>
       </c>
       <c r="BT36">
-        <v>0.07356099837187155</v>
+        <v>0.2108718597974898</v>
       </c>
       <c r="BU36">
-        <v>-0.7076335776787799</v>
+        <v>-0.7567567567567568</v>
       </c>
       <c r="BV36">
-        <v>-0.1006692580326527</v>
+        <v>0.006376195536663366</v>
       </c>
       <c r="BW36">
-        <v>-0.8709937892198454</v>
+        <v>-0.855855855855855</v>
       </c>
       <c r="BX36">
-        <v>-0.05323914255289691</v>
+        <v>-0.1075794621026896</v>
       </c>
       <c r="BY36">
-        <v>0.2451972372831582</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="BZ36">
-        <v>-0.5109403541803271</v>
+        <v>-0.5195822454308094</v>
       </c>
       <c r="CA36">
-        <v>-0.4569071967740573</v>
+        <v>-0.3389484430832058</v>
       </c>
       <c r="CB36">
-        <v>-0.6028685561719839</v>
+        <v>-0.5963636363636364</v>
       </c>
       <c r="CC36">
-        <v>1.410967515557925</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD36">
-        <v>1.558735006861653</v>
+        <v>1.476190476190476</v>
       </c>
       <c r="CE36">
-        <v>1.635323026282431</v>
+        <v>1.60145591493251</v>
       </c>
       <c r="CF36">
-        <v>1.192135013451631</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="CG36">
-        <v>1.337600462167592</v>
+        <v>1.352112676056338</v>
       </c>
       <c r="CH36">
-        <v>1.553205915031286</v>
+        <v>1.88146438165975</v>
       </c>
       <c r="CI36">
-        <v>0.6461348163878444</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CJ36">
-        <v>-0.8642030760378043</v>
+        <v>-0.6973851843641174</v>
       </c>
       <c r="CK36">
-        <v>2.000000000000002</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="CL36">
         <v>1</v>
       </c>
       <c r="CM36">
-        <v>2.108068518119321</v>
+        <v>1.737719693555655</v>
       </c>
       <c r="CN36">
-        <v>1.835113019886118</v>
+        <v>1.788587464920487</v>
       </c>
       <c r="CO36">
-        <v>0.4929294436316136</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP36">
-        <v>1.280236740070031</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ36">
-        <v>0.4843802748977484</v>
+        <v>0.5</v>
       </c>
       <c r="CR36">
         <v>1</v>
@@ -12296,25 +12296,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CV36">
-        <v>0.2201972018841703</v>
+        <v>0.1454389143800401</v>
       </c>
       <c r="CW36">
-        <v>-0.1712116170666444</v>
+        <v>-0.1753062923691876</v>
       </c>
       <c r="CX36">
-        <v>-0.1292289545884087</v>
+        <v>-0.01524872573413337</v>
       </c>
       <c r="CY36">
-        <v>0.07474469313922666</v>
+        <v>0.07832955202835838</v>
       </c>
       <c r="CZ36">
-        <v>-0.01243778987113761</v>
+        <v>0.007296984079037132</v>
       </c>
       <c r="DA36">
-        <v>-0.1783441514793623</v>
+        <v>-0.1197575181256474</v>
       </c>
       <c r="DB36">
-        <v>-0.2729326412135037</v>
+        <v>-0.2508266629075518</v>
       </c>
       <c r="DC36">
         <v>0</v>
@@ -12328,28 +12328,28 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.3243243243243243</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D37">
-        <v>0.8874083775027732</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E37">
-        <v>2.045451223706057</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="F37">
-        <v>1.234225965085671</v>
+        <v>1.097091591120772</v>
       </c>
       <c r="G37">
-        <v>1.769879658691704</v>
+        <v>1.651054500836707</v>
       </c>
       <c r="H37">
-        <v>0.6784821391182874</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="I37">
-        <v>-0.1990358174438618</v>
+        <v>-0.1066666666666667</v>
       </c>
       <c r="J37">
-        <v>1.391002918865224</v>
+        <v>1.18000860699549</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -12373,13 +12373,13 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <v>-0.1471161284457031</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>-0.05249311887600635</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>-0.9399880740959622</v>
+        <v>-0.7659574468085106</v>
       </c>
       <c r="U37">
         <v>3</v>
@@ -12517,94 +12517,94 @@
         <v>0</v>
       </c>
       <c r="BN37">
-        <v>-0.1293448456842997</v>
+        <v>-0.1291089781703899</v>
       </c>
       <c r="BO37">
-        <v>-0.3577141933771165</v>
+        <v>-0.2959495072078156</v>
       </c>
       <c r="BP37">
-        <v>-0.4649793465005806</v>
+        <v>-0.4160371434551786</v>
       </c>
       <c r="BQ37">
-        <v>-1.04767204113122</v>
+        <v>-0.8465804066543434</v>
       </c>
       <c r="BR37">
-        <v>-0.5725905020229878</v>
+        <v>-0.5067264573991032</v>
       </c>
       <c r="BS37">
-        <v>-1.051512650581704</v>
+        <v>-0.9166666666666669</v>
       </c>
       <c r="BT37">
-        <v>-0.5231760464054064</v>
+        <v>-0.4804861648938679</v>
       </c>
       <c r="BU37">
-        <v>0.1088667042582738</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="BV37">
-        <v>-0.5943668343454338</v>
+        <v>-0.7290116896918172</v>
       </c>
       <c r="BW37">
-        <v>-0.06386071886274799</v>
+        <v>-0.1171171171171156</v>
       </c>
       <c r="BX37">
-        <v>1.336302478077712</v>
+        <v>1.168704156479217</v>
       </c>
       <c r="BY37">
-        <v>-0.697869059959758</v>
+        <v>-0.7192982456140351</v>
       </c>
       <c r="BZ37">
-        <v>0.2712118767908014</v>
+        <v>0.258485639686684</v>
       </c>
       <c r="CA37">
-        <v>-0.4913907587947409</v>
+        <v>-0.3675344563552834</v>
       </c>
       <c r="CB37">
-        <v>3.043751003112212</v>
+        <v>3.010909090909092</v>
       </c>
       <c r="CC37">
-        <v>2.82193503111585</v>
+        <v>2.500000000000004</v>
       </c>
       <c r="CD37">
-        <v>2.892068340194986</v>
+        <v>2.809523809523809</v>
       </c>
       <c r="CE37">
-        <v>1.526570671911432</v>
+        <v>1.490525574701758</v>
       </c>
       <c r="CF37">
-        <v>2.582959195811867</v>
+        <v>2.260869565217391</v>
       </c>
       <c r="CG37">
-        <v>3.226489351056481</v>
+        <v>3.267605633802817</v>
       </c>
       <c r="CH37">
-        <v>2.411532111875293</v>
+        <v>2.93400360258563</v>
       </c>
       <c r="CI37">
-        <v>0.09924225771660351</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="CJ37">
-        <v>-2.155044015275698</v>
+        <v>-1.888052535304055</v>
       </c>
       <c r="CK37">
-        <v>7.000000000000009</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="CL37">
         <v>1</v>
       </c>
       <c r="CM37">
-        <v>5.934420456368725</v>
+        <v>4.72825597115818</v>
       </c>
       <c r="CN37">
-        <v>3.540057547327045</v>
+        <v>3.311506080449019</v>
       </c>
       <c r="CO37">
-        <v>1.971717774526452</v>
+        <v>2</v>
       </c>
       <c r="CP37">
-        <v>1.946903406736697</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ37">
-        <v>1.937521099590992</v>
+        <v>1.999999999999998</v>
       </c>
       <c r="CR37">
         <v>2</v>
@@ -12619,25 +12619,25 @@
         <v>2</v>
       </c>
       <c r="CV37">
-        <v>3.225752569102072</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="CW37">
-        <v>-2.365146701058201</v>
+        <v>-2.08</v>
       </c>
       <c r="CX37">
-        <v>0.1069935114578869</v>
+        <v>0.2342888749307148</v>
       </c>
       <c r="CY37">
-        <v>1.857281857391047</v>
+        <v>1.551490457501733</v>
       </c>
       <c r="CZ37">
-        <v>2.704664259865485</v>
+        <v>2.63795429347925</v>
       </c>
       <c r="DA37">
-        <v>0.1232224075143483</v>
+        <v>0.2578158301846636</v>
       </c>
       <c r="DB37">
-        <v>0.6890693950816587</v>
+        <v>0.6397304136972984</v>
       </c>
       <c r="DC37">
         <v>0</v>
@@ -12651,28 +12651,28 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-2.378378378378379</v>
+        <v>-1.615384615384615</v>
       </c>
       <c r="D38">
-        <v>0.266222513250832</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E38">
-        <v>2.045451223706057</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="F38">
-        <v>1.769966543536008</v>
+        <v>1.556369185926924</v>
       </c>
       <c r="G38">
-        <v>1.581766353534415</v>
+        <v>1.470619058266791</v>
       </c>
       <c r="H38">
-        <v>-0.1786607180245698</v>
+        <v>-0.1367521367521368</v>
       </c>
       <c r="I38">
-        <v>-0.1990358174438618</v>
+        <v>-0.1066666666666667</v>
       </c>
       <c r="J38">
-        <v>0.695501459432612</v>
+        <v>0.5900043034977449</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -12696,13 +12696,13 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>-1.120064194707982</v>
+        <v>-1.043478260869565</v>
       </c>
       <c r="S38">
-        <v>-0.5834058421959446</v>
+        <v>-0.7380952380952384</v>
       </c>
       <c r="T38">
-        <v>-2.161972570420713</v>
+        <v>-1.872340425531915</v>
       </c>
       <c r="U38">
         <v>3</v>
@@ -12840,94 +12840,94 @@
         <v>0</v>
       </c>
       <c r="BN38">
-        <v>0.8421402049582077</v>
+        <v>0.5979784252102268</v>
       </c>
       <c r="BO38">
-        <v>0.6589411235125059</v>
+        <v>0.5985609757336028</v>
       </c>
       <c r="BP38">
-        <v>0.7465843651728097</v>
+        <v>0.7232288154770219</v>
       </c>
       <c r="BQ38">
-        <v>-0.09529108875026711</v>
+        <v>0.04066543438077679</v>
       </c>
       <c r="BR38">
-        <v>-0.449783484479128</v>
+        <v>-0.3811659192825111</v>
       </c>
       <c r="BS38">
-        <v>0.8801259514313564</v>
+        <v>0.9722222222222225</v>
       </c>
       <c r="BT38">
-        <v>0.3719295207605106</v>
+        <v>0.5565508721431689</v>
       </c>
       <c r="BU38">
-        <v>-0.05443335212913691</v>
+        <v>-0.1081081081081081</v>
       </c>
       <c r="BV38">
-        <v>-0.3004312831303098</v>
+        <v>-0.2911795961742825</v>
       </c>
       <c r="BW38">
-        <v>-0.4378979953696965</v>
+        <v>-0.4594594594594592</v>
       </c>
       <c r="BX38">
-        <v>-0.5962783965924456</v>
+        <v>-0.6063569682151592</v>
       </c>
       <c r="BY38">
-        <v>1.527767401533524</v>
+        <v>1.350877192982456</v>
       </c>
       <c r="BZ38">
-        <v>1.378823425347232</v>
+        <v>1.360313315926892</v>
       </c>
       <c r="CA38">
-        <v>1.400278929197044</v>
+        <v>1.200612557427259</v>
       </c>
       <c r="CB38">
-        <v>0.4558274449105244</v>
+        <v>0.4509090909090909</v>
       </c>
       <c r="CC38">
-        <v>0.8465805093347544</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD38">
-        <v>0.9396873878140339</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="CE38">
-        <v>-0.1072945189245071</v>
+        <v>-0.1760610712508356</v>
       </c>
       <c r="CF38">
-        <v>0.7947566756344204</v>
+        <v>0.6956521739130431</v>
       </c>
       <c r="CG38">
-        <v>0.893156017723148</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="CH38">
-        <v>0.3668277332401558</v>
+        <v>0.4266450230321108</v>
       </c>
       <c r="CI38">
-        <v>0.1903910174951437</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ38">
-        <v>-0.7927337257737364</v>
+        <v>-0.6314620954957425</v>
       </c>
       <c r="CK38">
-        <v>1</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL38">
         <v>1</v>
       </c>
       <c r="CM38">
-        <v>1.340030425631647</v>
+        <v>1.137449301487156</v>
       </c>
       <c r="CN38">
-        <v>0.231124667165893</v>
+        <v>0.3558465855940134</v>
       </c>
       <c r="CO38">
-        <v>0.4929294436316136</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP38">
-        <v>1.280236740070031</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ38">
-        <v>3.390661924284237</v>
+        <v>3.499999999999998</v>
       </c>
       <c r="CR38">
         <v>1</v>
@@ -12942,25 +12942,25 @@
         <v>1.333333333333333</v>
       </c>
       <c r="CV38">
-        <v>0</v>
+        <v>-0.05555555555555555</v>
       </c>
       <c r="CW38">
-        <v>1.197931445990517</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="CX38">
-        <v>0.2185768466618276</v>
+        <v>0.3521618199008001</v>
       </c>
       <c r="CY38">
-        <v>-0.2911861351895328</v>
+        <v>-0.2240905047381338</v>
       </c>
       <c r="CZ38">
-        <v>1.140271092215781</v>
+        <v>1.123332374272217</v>
       </c>
       <c r="DA38">
-        <v>3.246299493934994</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB38">
-        <v>-1.451282863809681</v>
+        <v>-1.341664405302883</v>
       </c>
       <c r="DC38">
         <v>1</v>
@@ -12974,28 +12974,28 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>-1.837837837837838</v>
+        <v>-1.230769230769231</v>
       </c>
       <c r="D39">
-        <v>-0.1774816755005546</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E39">
-        <v>1.163098282529586</v>
+        <v>1.014084507042254</v>
       </c>
       <c r="F39">
-        <v>1.263194463547182</v>
+        <v>1.121925592564219</v>
       </c>
       <c r="G39">
-        <v>0.8473453250112845</v>
+        <v>0.7661734944433146</v>
       </c>
       <c r="H39">
-        <v>0.8213392819754303</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="I39">
-        <v>-0.5651030605606306</v>
+        <v>-0.48</v>
       </c>
       <c r="J39">
-        <v>-1.622836738676095</v>
+        <v>-1.376676708161405</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -13019,13 +13019,13 @@
         <v>1</v>
       </c>
       <c r="R39">
-        <v>-1.22816953540379</v>
+        <v>-1.159420289855073</v>
       </c>
       <c r="S39">
-        <v>-0.6176582759585212</v>
+        <v>-0.7857142857142859</v>
       </c>
       <c r="T39">
-        <v>-0.09399880740959622</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>6</v>
@@ -13163,94 +13163,94 @@
         <v>0</v>
       </c>
       <c r="BN39">
-        <v>0.4438891115554806</v>
+        <v>0.2999158320656664</v>
       </c>
       <c r="BO39">
-        <v>-0.2657694571728667</v>
+        <v>-0.21505136108135</v>
       </c>
       <c r="BP39">
-        <v>-0.3696275444891271</v>
+        <v>-0.3263752782904877</v>
       </c>
       <c r="BQ39">
-        <v>-0.6984656919248706</v>
+        <v>-0.5212569316081328</v>
       </c>
       <c r="BR39">
-        <v>-0.8708361160580754</v>
+        <v>-0.8116591928251121</v>
       </c>
       <c r="BS39">
-        <v>-0.9094804004336848</v>
+        <v>-0.7777777777777779</v>
       </c>
       <c r="BT39">
-        <v>1.192442957329268</v>
+        <v>1.507168156093786</v>
       </c>
       <c r="BU39">
-        <v>1.360833803228423</v>
+        <v>1.297297297297297</v>
       </c>
       <c r="BV39">
-        <v>-0.745615224776517</v>
+        <v>-0.9543039319872476</v>
       </c>
       <c r="BW39">
-        <v>1.648836284090116</v>
+        <v>1.450450450450452</v>
       </c>
       <c r="BX39">
-        <v>-0.2661957127644846</v>
+        <v>-0.3031784841075796</v>
       </c>
       <c r="BY39">
-        <v>0.9619276231877746</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="BZ39">
-        <v>19.91425649621337</v>
+        <v>19.79895561357702</v>
       </c>
       <c r="CA39">
-        <v>-0.4544440852011514</v>
+        <v>-0.3369065849923432</v>
       </c>
       <c r="CB39">
-        <v>-0.4117151115320866</v>
+        <v>-0.4072727272727273</v>
       </c>
       <c r="CC39">
-        <v>0.282193503111584</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD39">
-        <v>0.4158778640045102</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CE39">
-        <v>-0.1428877343941069</v>
+        <v>-0.2123671128513661</v>
       </c>
       <c r="CF39">
-        <v>0.1986891689086053</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="CG39">
-        <v>0.2264893510564813</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="CH39">
-        <v>0.01149551925638325</v>
+        <v>-0.009088027003550075</v>
       </c>
       <c r="CI39">
-        <v>0.2815397772736838</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="CJ39">
-        <v>-0.1954541557097385</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK39">
-        <v>-1.000000000000002</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL39">
         <v>1</v>
       </c>
       <c r="CM39">
-        <v>0</v>
+        <v>0.09013068949977468</v>
       </c>
       <c r="CN39">
-        <v>-0.4521098596783709</v>
+        <v>-0.2544434050514499</v>
       </c>
       <c r="CO39">
-        <v>-0.9858588872632261</v>
+        <v>-1</v>
       </c>
       <c r="CP39">
-        <v>-0.05309659326330129</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ39">
-        <v>-0.9687605497954969</v>
+        <v>-1</v>
       </c>
       <c r="CR39">
         <v>1</v>
@@ -13265,25 +13265,25 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="CV39">
-        <v>0.7303590722495257</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="CW39">
-        <v>0.1535809546141689</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="CX39">
-        <v>-0.6000241081619402</v>
+        <v>-0.5125811555985877</v>
       </c>
       <c r="CY39">
-        <v>-0.9924016076828146</v>
+        <v>-0.8036033705042303</v>
       </c>
       <c r="CZ39">
-        <v>-0.7089510856860934</v>
+        <v>-0.6670567056941001</v>
       </c>
       <c r="DA39">
-        <v>-0.4133022551413301</v>
+        <v>-0.4139344262295082</v>
       </c>
       <c r="DB39">
-        <v>-0.1854390319485534</v>
+        <v>-0.1698309373801119</v>
       </c>
       <c r="DC39">
         <v>1</v>
@@ -13297,28 +13297,28 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.5405405405405406</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D40">
-        <v>-0.08874083775027732</v>
+        <v>-0.25</v>
       </c>
       <c r="E40">
-        <v>-0.3663134821762961</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="F40">
-        <v>-0.4086279816263348</v>
+        <v>-0.3112878365608067</v>
       </c>
       <c r="G40">
-        <v>-0.2782503565413105</v>
+        <v>-0.3134808914381689</v>
       </c>
       <c r="H40">
-        <v>1.035624996261145</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="I40">
-        <v>1.474414436804225</v>
+        <v>1.6</v>
       </c>
       <c r="J40">
-        <v>1.391002918865224</v>
+        <v>1.18000860699549</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -13342,13 +13342,13 @@
         <v>1</v>
       </c>
       <c r="R40">
-        <v>-0.3633268098373206</v>
+        <v>-0.2318840579710145</v>
       </c>
       <c r="S40">
-        <v>-0.2066290708076014</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T40">
-        <v>1.221984496324751</v>
+        <v>1.191489361702128</v>
       </c>
       <c r="U40">
         <v>9</v>
@@ -13486,73 +13486,73 @@
         <v>1</v>
       </c>
       <c r="BN40">
-        <v>-0.4188094227958777</v>
+        <v>-0.34575260804769</v>
       </c>
       <c r="BO40">
-        <v>-0.2107826729302047</v>
+        <v>-0.1666708980953493</v>
       </c>
       <c r="BP40">
-        <v>-0.2748693303792729</v>
+        <v>-0.2372715798019777</v>
       </c>
       <c r="BQ40">
-        <v>-0.1429101363693151</v>
+        <v>-0.003696857670979588</v>
       </c>
       <c r="BR40">
-        <v>-0.7217133090405317</v>
+        <v>-0.6591928251121076</v>
       </c>
       <c r="BS40">
-        <v>-0.7390417002560618</v>
+        <v>-0.611111111111111</v>
       </c>
       <c r="BT40">
-        <v>2.300668897629928</v>
+        <v>2.791118773377737</v>
       </c>
       <c r="BU40">
-        <v>0.3266001127748215</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="BV40">
-        <v>5.221561839212066</v>
+        <v>7.934112646121148</v>
       </c>
       <c r="BW40">
-        <v>0.1526871780623257</v>
+        <v>0.08108108108108164</v>
       </c>
       <c r="BX40">
-        <v>-1.187232878929601</v>
+        <v>-1.149144254278728</v>
       </c>
       <c r="BY40">
-        <v>0.7355917118494747</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="BZ40">
-        <v>1.436566207499463</v>
+        <v>1.4177545691906</v>
       </c>
       <c r="CA40">
-        <v>0.486464535648929</v>
+        <v>0.4430832057172026</v>
       </c>
       <c r="CB40">
-        <v>-0.7352055563072974</v>
+        <v>-0.7272727272727274</v>
       </c>
       <c r="CC40">
-        <v>-0.5643870062231704</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="CD40">
-        <v>-0.4888840407573946</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="CE40">
-        <v>-0.3268580673802167</v>
+        <v>-0.4000218238555431</v>
       </c>
       <c r="CF40">
-        <v>-0.1986891689086053</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG40">
-        <v>-0.4401773156101854</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH40">
-        <v>-0.257738966671028</v>
+        <v>-0.3392420606406232</v>
       </c>
       <c r="CI40">
-        <v>-0.3565015411760972</v>
+        <v>-0.3829787234042553</v>
       </c>
       <c r="CJ40">
-        <v>0.1025032840403898</v>
+        <v>0.19430151839157</v>
       </c>
       <c r="CK40">
         <v>0</v>
@@ -13561,19 +13561,19 @@
         <v>1</v>
       </c>
       <c r="CM40">
-        <v>-1.026357210681727</v>
+        <v>-0.71203244704822</v>
       </c>
       <c r="CN40">
-        <v>-0.8123684084742431</v>
+        <v>-0.5762394761459311</v>
       </c>
       <c r="CO40">
         <v>0</v>
       </c>
       <c r="CP40">
-        <v>0.6135700734033653</v>
+        <v>0.25</v>
       </c>
       <c r="CQ40">
-        <v>-0.9687605497954969</v>
+        <v>-1</v>
       </c>
       <c r="CR40">
         <v>1</v>
@@ -13588,25 +13588,25 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="CV40">
-        <v>-1.095538608374288</v>
+        <v>-1.055555555555556</v>
       </c>
       <c r="CW40">
-        <v>0.6450400093795092</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="CX40">
-        <v>-0.9248657569015306</v>
+        <v>-0.8557331300031069</v>
       </c>
       <c r="CY40">
-        <v>-1.543356621784679</v>
+        <v>-1.258934907891877</v>
       </c>
       <c r="CZ40">
-        <v>-0.9482809620323239</v>
+        <v>-0.8987722898139859</v>
       </c>
       <c r="DA40">
-        <v>-0.2889150758346214</v>
+        <v>-0.2581967213114754</v>
       </c>
       <c r="DB40">
-        <v>-0.001983404142592635</v>
+        <v>0</v>
       </c>
       <c r="DC40">
         <v>0</v>
@@ -13620,28 +13620,28 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.5405405405405406</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="D41">
-        <v>0.5324450265016639</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E41">
-        <v>-0.3074899527645313</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F41">
-        <v>-0.7298861124204109</v>
+        <v>-0.5866947546811613</v>
       </c>
       <c r="G41">
-        <v>-0.07536910607268091</v>
+        <v>-0.1188802586608294</v>
       </c>
       <c r="H41">
-        <v>-1.821517860881713</v>
+        <v>-1.709401709401709</v>
       </c>
       <c r="I41">
-        <v>-0.2513311378891144</v>
+        <v>-0.16</v>
       </c>
       <c r="J41">
-        <v>0.695501459432612</v>
+        <v>0.5900043034977449</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -13665,13 +13665,13 @@
         <v>1</v>
       </c>
       <c r="R41">
-        <v>0.09612088811986656</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="S41">
-        <v>0.1016428330555885</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T41">
-        <v>-0.4699940370479811</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U41">
         <v>3</v>
@@ -13809,94 +13809,94 @@
         <v>1</v>
       </c>
       <c r="BN41">
-        <v>20.18311169958909</v>
+        <v>15.07331876481626</v>
       </c>
       <c r="BO41">
-        <v>1.919343482727178</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP41">
-        <v>1.930768405622508</v>
+        <v>1.836748932823372</v>
       </c>
       <c r="BQ41">
-        <v>-0.3254498189089973</v>
+        <v>-0.1737523105360439</v>
       </c>
       <c r="BR41">
-        <v>0.1116200242928021</v>
+        <v>0.1928251121076236</v>
       </c>
       <c r="BS41">
-        <v>-0.02888044951596615</v>
+        <v>0.08333333333333341</v>
       </c>
       <c r="BT41">
-        <v>-1.045320960585525</v>
+        <v>-1.085424436498806</v>
       </c>
       <c r="BU41">
-        <v>-0.5987668734205061</v>
+        <v>-0.6486486486486487</v>
       </c>
       <c r="BV41">
-        <v>-0.6571491850904116</v>
+        <v>-0.8225292242295429</v>
       </c>
       <c r="BW41">
-        <v>-0.5166426851606326</v>
+        <v>-0.531531531531531</v>
       </c>
       <c r="BX41">
-        <v>0.1597174276586907</v>
+        <v>0.08801955990220034</v>
       </c>
       <c r="BY41">
-        <v>0.6601464080700413</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="BZ41">
-        <v>10.67541135185642</v>
+        <v>10.60835509138381</v>
       </c>
       <c r="CA41">
-        <v>0.5258743208154245</v>
+        <v>0.4757529351710056</v>
       </c>
       <c r="CB41">
-        <v>0.3234904447752111</v>
+        <v>0.3200000000000002</v>
       </c>
       <c r="CC41">
-        <v>0.8465805093347544</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD41">
-        <v>0.7492111973378435</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CE41">
-        <v>0.9007237783001201</v>
+        <v>0.8521448312024256</v>
       </c>
       <c r="CF41">
-        <v>0.3973783378172098</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG41">
-        <v>0.2820449066120368</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="CH41">
-        <v>0.4732748509309124</v>
+        <v>0.557177874919884</v>
       </c>
       <c r="CI41">
-        <v>0.8284323359449247</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="CJ41">
-        <v>0.04150412314666185</v>
+        <v>0.1380360970657061</v>
       </c>
       <c r="CK41">
-        <v>-1.000000000000002</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL41">
         <v>1</v>
       </c>
       <c r="CM41">
-        <v>0.01153210349080592</v>
+        <v>0.09914375844975215</v>
       </c>
       <c r="CN41">
-        <v>0.04219838169270886</v>
+        <v>0.1870907390084191</v>
       </c>
       <c r="CO41">
-        <v>0.2464647218158068</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="CP41">
-        <v>111.9469034067366</v>
+        <v>83.74999999999993</v>
       </c>
       <c r="CQ41">
-        <v>3.390661924284237</v>
+        <v>3.499999999999998</v>
       </c>
       <c r="CR41">
         <v>1</v>
@@ -13911,25 +13911,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV41">
-        <v>0.1825897680623814</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="CW41">
-        <v>0.3378781001511715</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="CX41">
-        <v>-0.07865326193489749</v>
+        <v>0.03817776332066533</v>
       </c>
       <c r="CY41">
-        <v>-0.7519848742565466</v>
+        <v>-0.6049132450987115</v>
       </c>
       <c r="CZ41">
-        <v>2.852277474345817</v>
+        <v>2.7808711860098</v>
       </c>
       <c r="DA41">
-        <v>2.126814880174616</v>
+        <v>2.766393442622951</v>
       </c>
       <c r="DB41">
-        <v>-2.20345093781412</v>
+        <v>-2.037971248561341</v>
       </c>
       <c r="DC41">
         <v>1</v>
@@ -13943,28 +13943,28 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.4324324324324325</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D42">
-        <v>0.7099267020022185</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
-        <v>-0.1310193645292372</v>
+        <v>-0.2253521126760563</v>
       </c>
       <c r="F42">
-        <v>-0.6651069303814353</v>
+        <v>-0.5311611100085307</v>
       </c>
       <c r="G42">
-        <v>0.1129458104543189</v>
+        <v>0.06174856649141131</v>
       </c>
       <c r="H42">
-        <v>1.428482139118287</v>
+        <v>1.401709401709402</v>
       </c>
       <c r="I42">
-        <v>0.1670314256729072</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="J42">
-        <v>-2.782005837730448</v>
+        <v>-2.36001721399098</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -13988,13 +13988,13 @@
         <v>1</v>
       </c>
       <c r="R42">
-        <v>-0.5795374912289381</v>
+        <v>-0.463768115942029</v>
       </c>
       <c r="S42">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T42">
-        <v>-0.3759952296383849</v>
+        <v>-0.2553191489361702</v>
       </c>
       <c r="U42">
         <v>6</v>
@@ -14132,73 +14132,73 @@
         <v>0</v>
       </c>
       <c r="BN42">
-        <v>3.821801235391046</v>
+        <v>2.82804259360787</v>
       </c>
       <c r="BO42">
-        <v>-0.01673611191264904</v>
+        <v>0.004062171535348508</v>
       </c>
       <c r="BP42">
-        <v>0.04180981512396154</v>
+        <v>0.06051034194051719</v>
       </c>
       <c r="BQ42">
-        <v>2.269788276329098</v>
+        <v>2.243992606284658</v>
       </c>
       <c r="BR42">
-        <v>2.129163883941926</v>
+        <v>2.25560538116592</v>
       </c>
       <c r="BS42">
-        <v>0.02793245054324155</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="BT42">
-        <v>1.171130920015794</v>
+        <v>1.482476798069095</v>
       </c>
       <c r="BU42">
-        <v>0.8709336340661906</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="BV42">
-        <v>-0.3974585524634574</v>
+        <v>-0.4357066950053133</v>
       </c>
       <c r="BW42">
-        <v>0.723586179046615</v>
+        <v>0.6036036036036054</v>
       </c>
       <c r="BX42">
-        <v>0.6388697106347629</v>
+        <v>0.5281173594132027</v>
       </c>
       <c r="BY42">
-        <v>-0.1697519335037249</v>
+        <v>-0.2280701754385965</v>
       </c>
       <c r="BZ42">
-        <v>0.5179310368957882</v>
+        <v>0.5039164490861616</v>
       </c>
       <c r="CA42">
-        <v>2.043151049725501</v>
+        <v>1.73353751914242</v>
       </c>
       <c r="CB42">
-        <v>0.5146438894151082</v>
+        <v>0.5090909090909091</v>
       </c>
       <c r="CC42">
-        <v>-0.2821935031115865</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD42">
-        <v>-0.3936459455192994</v>
+        <v>-0.4761904761904762</v>
       </c>
       <c r="CE42">
-        <v>-0.4939723426512047</v>
+        <v>-0.5704829004956418</v>
       </c>
       <c r="CF42">
-        <v>-0.3973783378172107</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG42">
-        <v>-0.5512884267212965</v>
+        <v>-0.5633802816901409</v>
       </c>
       <c r="CH42">
-        <v>-0.5316410141017818</v>
+        <v>-0.6751197825053372</v>
       </c>
       <c r="CI42">
-        <v>0.008093497938063372</v>
+        <v>-0.0425531914893617</v>
       </c>
       <c r="CJ42">
-        <v>0.4473239327609259</v>
+        <v>0.5123629277266876</v>
       </c>
       <c r="CK42">
         <v>0</v>
@@ -14207,19 +14207,19 @@
         <v>1</v>
       </c>
       <c r="CM42">
-        <v>-0.0276770483779346</v>
+        <v>0.06849932401982844</v>
       </c>
       <c r="CN42">
-        <v>-0.1086075224544</v>
+        <v>0.05238540692235757</v>
       </c>
       <c r="CO42">
         <v>0</v>
       </c>
       <c r="CP42">
-        <v>0.2802367400700321</v>
+        <v>0</v>
       </c>
       <c r="CQ42">
-        <v>-0.4843802748977484</v>
+        <v>-0.5</v>
       </c>
       <c r="CR42">
         <v>1</v>
@@ -14234,25 +14234,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CV42">
-        <v>-0.3043162801039691</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="CW42">
-        <v>0.5836076275338418</v>
+        <v>0.48</v>
       </c>
       <c r="CX42">
-        <v>0.08864018716599162</v>
+        <v>0.2149010301389927</v>
       </c>
       <c r="CY42">
-        <v>2.153050654644192</v>
+        <v>1.795925770217974</v>
       </c>
       <c r="CZ42">
-        <v>1.684347677776212</v>
+        <v>1.650099135504757</v>
       </c>
       <c r="DA42">
-        <v>-0.1056076536984191</v>
+        <v>-0.02868852459016394</v>
       </c>
       <c r="DB42">
-        <v>-0.7358059153664351</v>
+        <v>-0.6793237495204473</v>
       </c>
       <c r="DC42">
         <v>0</v>
@@ -14266,28 +14266,28 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0.6486486486486487</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D43">
-        <v>-0.4437041887513866</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="E43">
-        <v>0.2807453413531157</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F43">
-        <v>0.5370667293838538</v>
+        <v>0.4994336390272535</v>
       </c>
       <c r="G43">
-        <v>0.1332969603662069</v>
+        <v>0.08126908226826109</v>
       </c>
       <c r="H43">
-        <v>-0.4643750037388555</v>
+        <v>-0.4102564102564102</v>
       </c>
       <c r="I43">
-        <v>-0.9834656241226523</v>
+        <v>-0.9066666666666666</v>
       </c>
       <c r="J43">
-        <v>1.275086008959789</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -14311,13 +14311,13 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <v>-0.06603712292384654</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S43">
-        <v>-0.05249311887600635</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>0.5639928444575772</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="U43">
         <v>9</v>
@@ -14455,94 +14455,94 @@
         <v>0</v>
       </c>
       <c r="BN43">
-        <v>-0.416931658573098</v>
+        <v>-0.3443472351991846</v>
       </c>
       <c r="BO43">
-        <v>-0.2638765452048153</v>
+        <v>-0.2133858707518571</v>
       </c>
       <c r="BP43">
-        <v>-0.1853724635790489</v>
+        <v>-0.1531152677614345</v>
       </c>
       <c r="BQ43">
-        <v>-0.6905291839883625</v>
+        <v>-0.5138632162661733</v>
       </c>
       <c r="BR43">
-        <v>-0.1778536599177244</v>
+        <v>-0.1031390134529146</v>
       </c>
       <c r="BS43">
-        <v>-0.9378868504632887</v>
+        <v>-0.8055555555555557</v>
       </c>
       <c r="BT43">
-        <v>-0.6190802143160404</v>
+        <v>-0.5915972760049791</v>
       </c>
       <c r="BU43">
-        <v>-2.068467380907203</v>
+        <v>-2.108108108108108</v>
       </c>
       <c r="BV43">
-        <v>-0.3375299449341603</v>
+        <v>-0.3464399574920295</v>
       </c>
       <c r="BW43">
-        <v>-2.012791791188423</v>
+        <v>-1.900900900900901</v>
       </c>
       <c r="BX43">
-        <v>-0.4951240257419411</v>
+        <v>-0.5134474327628361</v>
       </c>
       <c r="BY43">
-        <v>0.5847011042906081</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="BZ43">
-        <v>-0.7366621389572299</v>
+        <v>-0.744125326370757</v>
       </c>
       <c r="CA43">
-        <v>-0.570210329127732</v>
+        <v>-0.4328739152628893</v>
       </c>
       <c r="CB43">
-        <v>-0.8087261119380272</v>
+        <v>-0.8000000000000002</v>
       </c>
       <c r="CC43">
-        <v>-0.5643870062231704</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="CD43">
-        <v>-0.3936459455192994</v>
+        <v>-0.4761904761904762</v>
       </c>
       <c r="CE43">
-        <v>-0.5075581528375223</v>
+        <v>-0.5843407940097201</v>
       </c>
       <c r="CF43">
-        <v>-0.596067506725816</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="CG43">
-        <v>-0.6623995378324076</v>
+        <v>-0.676056338028169</v>
       </c>
       <c r="CH43">
-        <v>-0.660430213526836</v>
+        <v>-0.8330500473917418</v>
       </c>
       <c r="CI43">
-        <v>0.1903910174951437</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ43">
-        <v>0.6810614194775317</v>
+        <v>0.7279616011686135</v>
       </c>
       <c r="CK43">
-        <v>5.000000000000007</v>
+        <v>1.666666666666668</v>
       </c>
       <c r="CL43">
         <v>1</v>
       </c>
       <c r="CM43">
-        <v>2.04686829069141</v>
+        <v>1.689887841369987</v>
       </c>
       <c r="CN43">
-        <v>1.84446566693709</v>
+        <v>1.796941590271282</v>
       </c>
       <c r="CO43">
-        <v>0.9858588872632272</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP43">
-        <v>-0.05309659326330129</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ43">
-        <v>-1.937521099590992</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="CR43">
         <v>1</v>
@@ -14557,25 +14557,25 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="CV43">
-        <v>0.4260427921455566</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CW43">
-        <v>-0.3378781001511715</v>
+        <v>-0.32</v>
       </c>
       <c r="CX43">
-        <v>-0.7348333923888702</v>
+        <v>-0.6549892249764633</v>
       </c>
       <c r="CY43">
-        <v>-0.8621758770769195</v>
+        <v>-0.6959795525762409</v>
       </c>
       <c r="CZ43">
-        <v>-0.6068370051117018</v>
+        <v>-0.5681913898029489</v>
       </c>
       <c r="DA43">
-        <v>-0.05978079816436855</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="DB43">
-        <v>-1.469628426590277</v>
+        <v>-1.358647499040894</v>
       </c>
       <c r="DC43">
         <v>0</v>
@@ -14589,28 +14589,28 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>-0.7567567567567568</v>
+        <v>-0.4615384615384616</v>
       </c>
       <c r="D44">
-        <v>1.33111256625416</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E44">
-        <v>0.04545122370605688</v>
+        <v>-0.05633802816901409</v>
       </c>
       <c r="F44">
-        <v>-0.8522846244669924</v>
+        <v>-0.6916240739856852</v>
       </c>
       <c r="G44">
-        <v>0.411892428910312</v>
+        <v>0.3484936500504139</v>
       </c>
       <c r="H44">
-        <v>-0.2858035751674269</v>
+        <v>-0.2393162393162393</v>
       </c>
       <c r="I44">
-        <v>-0.4082170992248725</v>
+        <v>-0.32</v>
       </c>
       <c r="J44">
-        <v>-0.8114183693380473</v>
+        <v>-0.6883383540807024</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -14634,13 +14634,13 @@
         <v>1</v>
       </c>
       <c r="R44">
-        <v>-0.7416955022726511</v>
+        <v>-0.6376811594202898</v>
       </c>
       <c r="S44">
-        <v>-0.3607650227391963</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -14778,73 +14778,73 @@
         <v>1</v>
       </c>
       <c r="BN44">
-        <v>18.63344034650387</v>
+        <v>13.91350007335738</v>
       </c>
       <c r="BO44">
-        <v>1.919343482727178</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP44">
-        <v>1.723282452745293</v>
+        <v>1.641644308285604</v>
       </c>
       <c r="BQ44">
-        <v>0.53169303823386</v>
+        <v>0.6247689463955642</v>
       </c>
       <c r="BR44">
-        <v>0.6730235330647322</v>
+        <v>0.7668161434977584</v>
       </c>
       <c r="BS44">
-        <v>0.198371150720864</v>
+        <v>0.3055555555555552</v>
       </c>
       <c r="BT44">
-        <v>-0.203495486703293</v>
+        <v>-0.1101157945234975</v>
       </c>
       <c r="BU44">
-        <v>0.05443335212913691</v>
+        <v>0</v>
       </c>
       <c r="BV44">
-        <v>-0.6029280639924762</v>
+        <v>-0.7417640807651436</v>
       </c>
       <c r="BW44">
-        <v>-0.3591533055787591</v>
+        <v>-0.387387387387386</v>
       </c>
       <c r="BX44">
-        <v>0.08518262808463477</v>
+        <v>0.01955990220048858</v>
       </c>
       <c r="BY44">
-        <v>0.3206425410625915</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="BZ44">
-        <v>1.011369357105762</v>
+        <v>0.994778067885117</v>
       </c>
       <c r="CA44">
-        <v>4.543209296225061</v>
+        <v>3.806023481368045</v>
       </c>
       <c r="CB44">
-        <v>1.117512445587092</v>
+        <v>1.105454545454545</v>
       </c>
       <c r="CC44">
-        <v>-0.8465805093347569</v>
+        <v>-0.7500000000000028</v>
       </c>
       <c r="CD44">
-        <v>-0.6317411836145375</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="CE44">
-        <v>-0.9348154825689501</v>
+        <v>-1.020154815943468</v>
       </c>
       <c r="CF44">
-        <v>-0.1986891689086053</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG44">
-        <v>-0.3846217600546298</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="CH44">
-        <v>-0.4573773715788809</v>
+        <v>-0.5840525440456704</v>
       </c>
       <c r="CI44">
-        <v>-0.7210965802902578</v>
+        <v>-0.723404255319149</v>
       </c>
       <c r="CJ44">
-        <v>-0.1954541557097385</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK44">
         <v>0</v>
@@ -14853,19 +14853,19 @@
         <v>1</v>
       </c>
       <c r="CM44">
-        <v>-0.9018104929810233</v>
+        <v>-0.6146913023884637</v>
       </c>
       <c r="CN44">
-        <v>-1.013442947337055</v>
+        <v>-0.7558465855940134</v>
       </c>
       <c r="CO44">
-        <v>0.4929294436316136</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP44">
-        <v>0.2802367400700321</v>
+        <v>0</v>
       </c>
       <c r="CQ44">
-        <v>-0.9687605497954969</v>
+        <v>-1</v>
       </c>
       <c r="CR44">
         <v>1</v>
@@ -14880,25 +14880,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="CV44">
-        <v>0.912948840311907</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="CW44">
-        <v>-0.3993104819968391</v>
+        <v>-0.3733333333333334</v>
       </c>
       <c r="CX44">
-        <v>-0.8436553447166329</v>
+        <v>-0.7699451364019771</v>
       </c>
       <c r="CY44">
-        <v>-1.453200346749828</v>
+        <v>-1.184426110864808</v>
       </c>
       <c r="CZ44">
-        <v>-0.3898445838911194</v>
+        <v>-0.3581025935342525</v>
       </c>
       <c r="DA44">
-        <v>-0.4460357233799377</v>
+        <v>-0.4549180327868853</v>
       </c>
       <c r="DB44">
-        <v>-0.2771668458515337</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC44">
         <v>0</v>
